--- a/gantt-chart_L.xlsx
+++ b/gantt-chart_L.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HTCS5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E88429-BAE2-4591-B37B-321940EB5D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7077EA91-9685-4969-89FD-DFA65D3A8880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$82</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$93</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="233">
   <si>
     <t>WBS</t>
   </si>
@@ -1737,9 +1737,6 @@
     <t>3.1.9</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>Deployment</t>
   </si>
   <si>
@@ -1768,6 +1765,51 @@
   </si>
   <si>
     <t>Product Finalisation</t>
+  </si>
+  <si>
+    <t>Communication Diagrams</t>
+  </si>
+  <si>
+    <t>2.5.1</t>
+  </si>
+  <si>
+    <t>2.5.2</t>
+  </si>
+  <si>
+    <t>2.5.3</t>
+  </si>
+  <si>
+    <t>2.5.4</t>
+  </si>
+  <si>
+    <t>2.5.5</t>
+  </si>
+  <si>
+    <t>2.5.6</t>
+  </si>
+  <si>
+    <t>2.5.7</t>
+  </si>
+  <si>
+    <t>2.5.8</t>
+  </si>
+  <si>
+    <t>2.4.1</t>
+  </si>
+  <si>
+    <t>Data Dictionary</t>
+  </si>
+  <si>
+    <t>2.4.2</t>
+  </si>
+  <si>
+    <t>Logical ERD</t>
+  </si>
+  <si>
+    <t>2.4.3</t>
+  </si>
+  <si>
+    <t>Standard Notation</t>
   </si>
 </sst>
 </file>
@@ -3153,24 +3195,6 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3178,9 +3202,27 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4025,11 +4067,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN89"/>
+  <dimension ref="A1:BN100"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
+      <pane ySplit="7" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S49" sqref="S49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4057,29 +4099,29 @@
       <c r="E1" s="152"/>
       <c r="F1" s="152"/>
       <c r="I1" s="121"/>
-      <c r="K1" s="183" t="s">
+      <c r="K1" s="177" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="183"/>
-      <c r="T1" s="183"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="183"/>
-      <c r="W1" s="183"/>
-      <c r="X1" s="183"/>
-      <c r="Y1" s="183"/>
-      <c r="Z1" s="183"/>
-      <c r="AA1" s="183"/>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="183"/>
-      <c r="AD1" s="183"/>
-      <c r="AE1" s="183"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
@@ -4124,11 +4166,11 @@
       <c r="B4" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="185">
+      <c r="C4" s="182">
         <v>44459</v>
       </c>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="182"/>
       <c r="F4" s="155"/>
       <c r="G4" s="105" t="s">
         <v>73</v>
@@ -4138,182 +4180,182 @@
       </c>
       <c r="I4" s="103"/>
       <c r="J4" s="49"/>
-      <c r="K4" s="177" t="str">
+      <c r="K4" s="179" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="178"/>
-      <c r="M4" s="178"/>
-      <c r="N4" s="178"/>
-      <c r="O4" s="178"/>
-      <c r="P4" s="178"/>
-      <c r="Q4" s="179"/>
-      <c r="R4" s="177" t="str">
+      <c r="L4" s="180"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="180"/>
+      <c r="P4" s="180"/>
+      <c r="Q4" s="181"/>
+      <c r="R4" s="179" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="178"/>
-      <c r="T4" s="178"/>
-      <c r="U4" s="178"/>
-      <c r="V4" s="178"/>
-      <c r="W4" s="178"/>
-      <c r="X4" s="179"/>
-      <c r="Y4" s="177" t="str">
+      <c r="S4" s="180"/>
+      <c r="T4" s="180"/>
+      <c r="U4" s="180"/>
+      <c r="V4" s="180"/>
+      <c r="W4" s="180"/>
+      <c r="X4" s="181"/>
+      <c r="Y4" s="179" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="178"/>
-      <c r="AA4" s="178"/>
-      <c r="AB4" s="178"/>
-      <c r="AC4" s="178"/>
-      <c r="AD4" s="178"/>
-      <c r="AE4" s="179"/>
-      <c r="AF4" s="177" t="str">
+      <c r="Z4" s="180"/>
+      <c r="AA4" s="180"/>
+      <c r="AB4" s="180"/>
+      <c r="AC4" s="180"/>
+      <c r="AD4" s="180"/>
+      <c r="AE4" s="181"/>
+      <c r="AF4" s="179" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="178"/>
-      <c r="AH4" s="178"/>
-      <c r="AI4" s="178"/>
-      <c r="AJ4" s="178"/>
-      <c r="AK4" s="178"/>
-      <c r="AL4" s="179"/>
-      <c r="AM4" s="177" t="str">
+      <c r="AG4" s="180"/>
+      <c r="AH4" s="180"/>
+      <c r="AI4" s="180"/>
+      <c r="AJ4" s="180"/>
+      <c r="AK4" s="180"/>
+      <c r="AL4" s="181"/>
+      <c r="AM4" s="179" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="178"/>
-      <c r="AO4" s="178"/>
-      <c r="AP4" s="178"/>
-      <c r="AQ4" s="178"/>
-      <c r="AR4" s="178"/>
-      <c r="AS4" s="179"/>
-      <c r="AT4" s="177" t="str">
+      <c r="AN4" s="180"/>
+      <c r="AO4" s="180"/>
+      <c r="AP4" s="180"/>
+      <c r="AQ4" s="180"/>
+      <c r="AR4" s="180"/>
+      <c r="AS4" s="181"/>
+      <c r="AT4" s="179" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="178"/>
-      <c r="AV4" s="178"/>
-      <c r="AW4" s="178"/>
-      <c r="AX4" s="178"/>
-      <c r="AY4" s="178"/>
-      <c r="AZ4" s="179"/>
-      <c r="BA4" s="177" t="str">
+      <c r="AU4" s="180"/>
+      <c r="AV4" s="180"/>
+      <c r="AW4" s="180"/>
+      <c r="AX4" s="180"/>
+      <c r="AY4" s="180"/>
+      <c r="AZ4" s="181"/>
+      <c r="BA4" s="179" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="178"/>
-      <c r="BC4" s="178"/>
-      <c r="BD4" s="178"/>
-      <c r="BE4" s="178"/>
-      <c r="BF4" s="178"/>
-      <c r="BG4" s="179"/>
-      <c r="BH4" s="177" t="str">
+      <c r="BB4" s="180"/>
+      <c r="BC4" s="180"/>
+      <c r="BD4" s="180"/>
+      <c r="BE4" s="180"/>
+      <c r="BF4" s="180"/>
+      <c r="BG4" s="181"/>
+      <c r="BH4" s="179" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="178"/>
-      <c r="BJ4" s="178"/>
-      <c r="BK4" s="178"/>
-      <c r="BL4" s="178"/>
-      <c r="BM4" s="178"/>
-      <c r="BN4" s="179"/>
+      <c r="BI4" s="180"/>
+      <c r="BJ4" s="180"/>
+      <c r="BK4" s="180"/>
+      <c r="BL4" s="180"/>
+      <c r="BM4" s="180"/>
+      <c r="BN4" s="181"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="102"/>
       <c r="B5" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="184" t="s">
+      <c r="C5" s="178" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
       <c r="F5" s="156"/>
       <c r="G5" s="104"/>
       <c r="H5" s="104"/>
       <c r="I5" s="104"/>
       <c r="J5" s="49"/>
-      <c r="K5" s="180">
+      <c r="K5" s="183">
         <f>K6</f>
         <v>44459</v>
       </c>
-      <c r="L5" s="181"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="181"/>
-      <c r="O5" s="181"/>
-      <c r="P5" s="181"/>
-      <c r="Q5" s="182"/>
-      <c r="R5" s="180">
+      <c r="L5" s="184"/>
+      <c r="M5" s="184"/>
+      <c r="N5" s="184"/>
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="185"/>
+      <c r="R5" s="183">
         <f>R6</f>
         <v>44466</v>
       </c>
-      <c r="S5" s="181"/>
-      <c r="T5" s="181"/>
-      <c r="U5" s="181"/>
-      <c r="V5" s="181"/>
-      <c r="W5" s="181"/>
-      <c r="X5" s="182"/>
-      <c r="Y5" s="180">
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="X5" s="185"/>
+      <c r="Y5" s="183">
         <f>Y6</f>
         <v>44473</v>
       </c>
-      <c r="Z5" s="181"/>
-      <c r="AA5" s="181"/>
-      <c r="AB5" s="181"/>
-      <c r="AC5" s="181"/>
-      <c r="AD5" s="181"/>
-      <c r="AE5" s="182"/>
-      <c r="AF5" s="180">
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="184"/>
+      <c r="AB5" s="184"/>
+      <c r="AC5" s="184"/>
+      <c r="AD5" s="184"/>
+      <c r="AE5" s="185"/>
+      <c r="AF5" s="183">
         <f>AF6</f>
         <v>44480</v>
       </c>
-      <c r="AG5" s="181"/>
-      <c r="AH5" s="181"/>
-      <c r="AI5" s="181"/>
-      <c r="AJ5" s="181"/>
-      <c r="AK5" s="181"/>
-      <c r="AL5" s="182"/>
-      <c r="AM5" s="180">
+      <c r="AG5" s="184"/>
+      <c r="AH5" s="184"/>
+      <c r="AI5" s="184"/>
+      <c r="AJ5" s="184"/>
+      <c r="AK5" s="184"/>
+      <c r="AL5" s="185"/>
+      <c r="AM5" s="183">
         <f>AM6</f>
         <v>44487</v>
       </c>
-      <c r="AN5" s="181"/>
-      <c r="AO5" s="181"/>
-      <c r="AP5" s="181"/>
-      <c r="AQ5" s="181"/>
-      <c r="AR5" s="181"/>
-      <c r="AS5" s="182"/>
-      <c r="AT5" s="180">
+      <c r="AN5" s="184"/>
+      <c r="AO5" s="184"/>
+      <c r="AP5" s="184"/>
+      <c r="AQ5" s="184"/>
+      <c r="AR5" s="184"/>
+      <c r="AS5" s="185"/>
+      <c r="AT5" s="183">
         <f>AT6</f>
         <v>44494</v>
       </c>
-      <c r="AU5" s="181"/>
-      <c r="AV5" s="181"/>
-      <c r="AW5" s="181"/>
-      <c r="AX5" s="181"/>
-      <c r="AY5" s="181"/>
-      <c r="AZ5" s="182"/>
-      <c r="BA5" s="180">
+      <c r="AU5" s="184"/>
+      <c r="AV5" s="184"/>
+      <c r="AW5" s="184"/>
+      <c r="AX5" s="184"/>
+      <c r="AY5" s="184"/>
+      <c r="AZ5" s="185"/>
+      <c r="BA5" s="183">
         <f>BA6</f>
         <v>44501</v>
       </c>
-      <c r="BB5" s="181"/>
-      <c r="BC5" s="181"/>
-      <c r="BD5" s="181"/>
-      <c r="BE5" s="181"/>
-      <c r="BF5" s="181"/>
-      <c r="BG5" s="182"/>
-      <c r="BH5" s="180">
+      <c r="BB5" s="184"/>
+      <c r="BC5" s="184"/>
+      <c r="BD5" s="184"/>
+      <c r="BE5" s="184"/>
+      <c r="BF5" s="184"/>
+      <c r="BG5" s="185"/>
+      <c r="BH5" s="183">
         <f>BH6</f>
         <v>44508</v>
       </c>
-      <c r="BI5" s="181"/>
-      <c r="BJ5" s="181"/>
-      <c r="BK5" s="181"/>
-      <c r="BL5" s="181"/>
-      <c r="BM5" s="181"/>
-      <c r="BN5" s="182"/>
+      <c r="BI5" s="184"/>
+      <c r="BJ5" s="184"/>
+      <c r="BK5" s="184"/>
+      <c r="BL5" s="184"/>
+      <c r="BM5" s="184"/>
+      <c r="BN5" s="185"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
@@ -4823,7 +4865,7 @@
       <c r="G8" s="87"/>
       <c r="H8" s="88"/>
       <c r="I8" s="89" t="str">
-        <f t="shared" ref="I8:I82" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I93" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="92"/>
@@ -4987,7 +5029,7 @@
         <v>44460</v>
       </c>
       <c r="F10" s="162">
-        <f t="shared" ref="F10:F73" si="6">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
+        <f t="shared" ref="F10:F84" si="6">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
         <v>44461</v>
       </c>
       <c r="G10" s="61">
@@ -7932,12 +7974,13 @@
       <c r="BM44" s="99"/>
       <c r="BN44" s="99"/>
     </row>
-    <row r="45" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A45" s="59">
+    <row r="45" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.4</v>
       </c>
-      <c r="B45" s="176" t="s">
-        <v>185</v>
+      <c r="B45" s="115" t="s">
+        <v>186</v>
       </c>
       <c r="C45" s="60" t="s">
         <v>136</v>
@@ -7948,15 +7991,17 @@
       </c>
       <c r="F45" s="162">
         <f t="shared" si="6"/>
-        <v>44480</v>
+        <v>44482</v>
       </c>
       <c r="G45" s="61">
-        <v>1</v>
-      </c>
-      <c r="H45" s="62"/>
+        <v>3</v>
+      </c>
+      <c r="H45" s="62">
+        <v>0</v>
+      </c>
       <c r="I45" s="63">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J45" s="93"/>
       <c r="K45" s="99"/>
@@ -8017,30 +8062,27 @@
       <c r="BN45" s="99"/>
     </row>
     <row r="46" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.5</v>
-      </c>
-      <c r="B46" s="115" t="s">
-        <v>186</v>
+      <c r="A46" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="B46" s="117" t="s">
+        <v>228</v>
       </c>
       <c r="C46" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D46" s="116"/>
       <c r="E46" s="161">
-        <v>44481</v>
+        <v>44480</v>
       </c>
       <c r="F46" s="162">
         <f t="shared" si="6"/>
-        <v>44481</v>
+        <v>44480</v>
       </c>
       <c r="G46" s="61">
         <v>1</v>
       </c>
-      <c r="H46" s="62">
-        <v>0</v>
-      </c>
+      <c r="H46" s="62"/>
       <c r="I46" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -8104,33 +8146,30 @@
       <c r="BN46" s="99"/>
     </row>
     <row r="47" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A47" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.6</v>
-      </c>
-      <c r="B47" s="115" t="s">
-        <v>187</v>
+      <c r="A47" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="B47" s="117" t="s">
+        <v>230</v>
       </c>
       <c r="C47" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D47" s="116"/>
       <c r="E47" s="161">
-        <v>44482</v>
+        <v>44481</v>
       </c>
       <c r="F47" s="162">
         <f t="shared" si="6"/>
-        <v>44484</v>
+        <v>44481</v>
       </c>
       <c r="G47" s="61">
-        <v>3</v>
-      </c>
-      <c r="H47" s="62">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H47" s="62"/>
       <c r="I47" s="63">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J47" s="93"/>
       <c r="K47" s="99"/>
@@ -8192,31 +8231,31 @@
     </row>
     <row r="48" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="59" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="B48" s="117" t="s">
-        <v>156</v>
+        <v>232</v>
       </c>
       <c r="C48" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D48" s="169"/>
-      <c r="E48" s="170">
+      <c r="D48" s="116"/>
+      <c r="E48" s="161">
         <v>44482</v>
       </c>
-      <c r="F48" s="171">
+      <c r="F48" s="162">
         <f t="shared" si="6"/>
         <v>44482</v>
       </c>
-      <c r="G48" s="172">
+      <c r="G48" s="61">
         <v>1</v>
       </c>
-      <c r="H48" s="173"/>
-      <c r="I48" s="174">
+      <c r="H48" s="62"/>
+      <c r="I48" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J48" s="175"/>
+      <c r="J48" s="93"/>
       <c r="K48" s="99"/>
       <c r="L48" s="99"/>
       <c r="M48" s="99"/>
@@ -8275,32 +8314,32 @@
       <c r="BN48" s="99"/>
     </row>
     <row r="49" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="B49" s="117" t="s">
-        <v>155</v>
+      <c r="A49" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="B49" s="115" t="s">
+        <v>218</v>
       </c>
       <c r="C49" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D49" s="169"/>
-      <c r="E49" s="170">
+      <c r="D49" s="116"/>
+      <c r="E49" s="161">
         <v>44482</v>
       </c>
-      <c r="F49" s="171">
+      <c r="F49" s="162">
         <f t="shared" si="6"/>
-        <v>44482</v>
-      </c>
-      <c r="G49" s="172">
-        <v>1</v>
-      </c>
-      <c r="H49" s="173"/>
-      <c r="I49" s="174">
+        <v>44485</v>
+      </c>
+      <c r="G49" s="61">
+        <v>4</v>
+      </c>
+      <c r="H49" s="62"/>
+      <c r="I49" s="63">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J49" s="175"/>
+        <v>3</v>
+      </c>
+      <c r="J49" s="93"/>
       <c r="K49" s="99"/>
       <c r="L49" s="99"/>
       <c r="M49" s="99"/>
@@ -8360,31 +8399,28 @@
     </row>
     <row r="50" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="59" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="B50" s="117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C50" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D50" s="169"/>
-      <c r="E50" s="170">
-        <v>44483</v>
-      </c>
-      <c r="F50" s="171">
+      <c r="D50" s="116"/>
+      <c r="E50" s="161">
+        <v>44482</v>
+      </c>
+      <c r="F50" s="162">
         <f t="shared" si="6"/>
-        <v>44483</v>
-      </c>
-      <c r="G50" s="172">
+        <v>44482</v>
+      </c>
+      <c r="G50" s="61">
         <v>1</v>
       </c>
-      <c r="H50" s="173"/>
-      <c r="I50" s="174">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J50" s="175"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="93"/>
       <c r="K50" s="99"/>
       <c r="L50" s="99"/>
       <c r="M50" s="99"/>
@@ -8444,31 +8480,28 @@
     </row>
     <row r="51" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="59" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="B51" s="117" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C51" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D51" s="169"/>
-      <c r="E51" s="170">
-        <v>44483</v>
-      </c>
-      <c r="F51" s="171">
+      <c r="D51" s="116"/>
+      <c r="E51" s="161">
+        <v>44482</v>
+      </c>
+      <c r="F51" s="162">
         <f t="shared" si="6"/>
-        <v>44483</v>
-      </c>
-      <c r="G51" s="172">
+        <v>44482</v>
+      </c>
+      <c r="G51" s="61">
         <v>1</v>
       </c>
-      <c r="H51" s="173"/>
-      <c r="I51" s="174">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J51" s="175"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="93"/>
       <c r="K51" s="99"/>
       <c r="L51" s="99"/>
       <c r="M51" s="99"/>
@@ -8528,31 +8561,28 @@
     </row>
     <row r="52" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="59" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="B52" s="117" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C52" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D52" s="169"/>
-      <c r="E52" s="170">
-        <v>44484</v>
-      </c>
-      <c r="F52" s="171">
+      <c r="D52" s="116"/>
+      <c r="E52" s="161">
+        <v>44483</v>
+      </c>
+      <c r="F52" s="162">
         <f t="shared" si="6"/>
-        <v>44484</v>
-      </c>
-      <c r="G52" s="172">
+        <v>44483</v>
+      </c>
+      <c r="G52" s="61">
         <v>1</v>
       </c>
-      <c r="H52" s="173"/>
-      <c r="I52" s="174">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J52" s="175"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="93"/>
       <c r="K52" s="99"/>
       <c r="L52" s="99"/>
       <c r="M52" s="99"/>
@@ -8612,31 +8642,28 @@
     </row>
     <row r="53" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="59" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="B53" s="117" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C53" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D53" s="169"/>
-      <c r="E53" s="170">
-        <v>44484</v>
-      </c>
-      <c r="F53" s="171">
+      <c r="D53" s="116"/>
+      <c r="E53" s="161">
+        <v>44483</v>
+      </c>
+      <c r="F53" s="162">
         <f t="shared" si="6"/>
-        <v>44484</v>
-      </c>
-      <c r="G53" s="172">
+        <v>44483</v>
+      </c>
+      <c r="G53" s="61">
         <v>1</v>
       </c>
-      <c r="H53" s="173"/>
-      <c r="I53" s="174">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J53" s="175"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="93"/>
       <c r="K53" s="99"/>
       <c r="L53" s="99"/>
       <c r="M53" s="99"/>
@@ -8696,31 +8723,28 @@
     </row>
     <row r="54" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="59" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="B54" s="117" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C54" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D54" s="169"/>
-      <c r="E54" s="170">
-        <v>44485</v>
-      </c>
-      <c r="F54" s="171">
+      <c r="D54" s="116"/>
+      <c r="E54" s="161">
+        <v>44484</v>
+      </c>
+      <c r="F54" s="162">
         <f t="shared" si="6"/>
-        <v>44485</v>
-      </c>
-      <c r="G54" s="172">
+        <v>44484</v>
+      </c>
+      <c r="G54" s="61">
         <v>1</v>
       </c>
-      <c r="H54" s="173"/>
-      <c r="I54" s="174">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="175"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="93"/>
       <c r="K54" s="99"/>
       <c r="L54" s="99"/>
       <c r="M54" s="99"/>
@@ -8780,31 +8804,28 @@
     </row>
     <row r="55" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="59" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="B55" s="117" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C55" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D55" s="169"/>
-      <c r="E55" s="170">
-        <v>44485</v>
-      </c>
-      <c r="F55" s="171">
+      <c r="D55" s="116"/>
+      <c r="E55" s="161">
+        <v>44484</v>
+      </c>
+      <c r="F55" s="162">
         <f t="shared" si="6"/>
-        <v>44485</v>
-      </c>
-      <c r="G55" s="172">
+        <v>44484</v>
+      </c>
+      <c r="G55" s="61">
         <v>1</v>
       </c>
-      <c r="H55" s="173"/>
-      <c r="I55" s="174">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J55" s="175"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="93"/>
       <c r="K55" s="99"/>
       <c r="L55" s="99"/>
       <c r="M55" s="99"/>
@@ -8863,32 +8884,29 @@
       <c r="BN55" s="99"/>
     </row>
     <row r="56" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A56" s="59">
-        <v>2.7</v>
+      <c r="A56" s="59" t="s">
+        <v>225</v>
       </c>
       <c r="B56" s="117" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="C56" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D56" s="169"/>
-      <c r="E56" s="170">
+      <c r="D56" s="116"/>
+      <c r="E56" s="161">
         <v>44485</v>
       </c>
-      <c r="F56" s="171">
-        <f>IF(ISBLANK(E56)," - ",IF(G56=0,E56,E56+G56-1))</f>
-        <v>44486</v>
-      </c>
-      <c r="G56" s="172">
-        <v>2</v>
-      </c>
-      <c r="H56" s="173"/>
-      <c r="I56" s="174">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J56" s="175"/>
+      <c r="F56" s="162">
+        <f t="shared" si="6"/>
+        <v>44485</v>
+      </c>
+      <c r="G56" s="61">
+        <v>1</v>
+      </c>
+      <c r="H56" s="62"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="93"/>
       <c r="K56" s="99"/>
       <c r="L56" s="99"/>
       <c r="M56" s="99"/>
@@ -8946,112 +8964,115 @@
       <c r="BM56" s="99"/>
       <c r="BN56" s="99"/>
     </row>
-    <row r="57" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A57" s="52" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>3</v>
-      </c>
-      <c r="B57" s="53" t="s">
-        <v>196</v>
-      </c>
-      <c r="D57" s="55"/>
-      <c r="E57" s="163"/>
-      <c r="F57" s="163" t="str">
+    <row r="57" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A57" s="59" t="s">
+        <v>226</v>
+      </c>
+      <c r="B57" s="117" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="116"/>
+      <c r="E57" s="161">
+        <v>44485</v>
+      </c>
+      <c r="F57" s="162">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G57" s="56"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="58" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J57" s="94"/>
-      <c r="K57" s="101"/>
-      <c r="L57" s="101"/>
-      <c r="M57" s="101"/>
-      <c r="N57" s="101"/>
-      <c r="O57" s="101"/>
-      <c r="P57" s="101"/>
-      <c r="Q57" s="101"/>
-      <c r="R57" s="101"/>
-      <c r="S57" s="101"/>
-      <c r="T57" s="101"/>
-      <c r="U57" s="101"/>
-      <c r="V57" s="101"/>
-      <c r="W57" s="101"/>
-      <c r="X57" s="101"/>
-      <c r="Y57" s="101"/>
-      <c r="Z57" s="101"/>
-      <c r="AA57" s="101"/>
-      <c r="AB57" s="101"/>
-      <c r="AC57" s="101"/>
-      <c r="AD57" s="101"/>
-      <c r="AE57" s="101"/>
-      <c r="AF57" s="101"/>
-      <c r="AG57" s="101"/>
-      <c r="AH57" s="101"/>
-      <c r="AI57" s="101"/>
-      <c r="AJ57" s="101"/>
-      <c r="AK57" s="101"/>
-      <c r="AL57" s="101"/>
-      <c r="AM57" s="101"/>
-      <c r="AN57" s="101"/>
-      <c r="AO57" s="101"/>
-      <c r="AP57" s="101"/>
-      <c r="AQ57" s="101"/>
-      <c r="AR57" s="101"/>
-      <c r="AS57" s="101"/>
-      <c r="AT57" s="101"/>
-      <c r="AU57" s="101"/>
-      <c r="AV57" s="101"/>
-      <c r="AW57" s="101"/>
-      <c r="AX57" s="101"/>
-      <c r="AY57" s="101"/>
-      <c r="AZ57" s="101"/>
-      <c r="BA57" s="101"/>
-      <c r="BB57" s="101"/>
-      <c r="BC57" s="101"/>
-      <c r="BD57" s="101"/>
-      <c r="BE57" s="101"/>
-      <c r="BF57" s="101"/>
-      <c r="BG57" s="101"/>
-      <c r="BH57" s="101"/>
-      <c r="BI57" s="101"/>
-      <c r="BJ57" s="101"/>
-      <c r="BK57" s="101"/>
-      <c r="BL57" s="101"/>
-      <c r="BM57" s="101"/>
-      <c r="BN57" s="101"/>
+        <v>44485</v>
+      </c>
+      <c r="G57" s="61">
+        <v>1</v>
+      </c>
+      <c r="H57" s="62"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="93"/>
+      <c r="K57" s="99"/>
+      <c r="L57" s="99"/>
+      <c r="M57" s="99"/>
+      <c r="N57" s="99"/>
+      <c r="O57" s="99"/>
+      <c r="P57" s="99"/>
+      <c r="Q57" s="99"/>
+      <c r="R57" s="99"/>
+      <c r="S57" s="99"/>
+      <c r="T57" s="99"/>
+      <c r="U57" s="99"/>
+      <c r="V57" s="99"/>
+      <c r="W57" s="99"/>
+      <c r="X57" s="99"/>
+      <c r="Y57" s="99"/>
+      <c r="Z57" s="99"/>
+      <c r="AA57" s="99"/>
+      <c r="AB57" s="99"/>
+      <c r="AC57" s="99"/>
+      <c r="AD57" s="99"/>
+      <c r="AE57" s="99"/>
+      <c r="AF57" s="99"/>
+      <c r="AG57" s="99"/>
+      <c r="AH57" s="99"/>
+      <c r="AI57" s="99"/>
+      <c r="AJ57" s="99"/>
+      <c r="AK57" s="99"/>
+      <c r="AL57" s="99"/>
+      <c r="AM57" s="99"/>
+      <c r="AN57" s="99"/>
+      <c r="AO57" s="99"/>
+      <c r="AP57" s="99"/>
+      <c r="AQ57" s="99"/>
+      <c r="AR57" s="99"/>
+      <c r="AS57" s="99"/>
+      <c r="AT57" s="99"/>
+      <c r="AU57" s="99"/>
+      <c r="AV57" s="99"/>
+      <c r="AW57" s="99"/>
+      <c r="AX57" s="99"/>
+      <c r="AY57" s="99"/>
+      <c r="AZ57" s="99"/>
+      <c r="BA57" s="99"/>
+      <c r="BB57" s="99"/>
+      <c r="BC57" s="99"/>
+      <c r="BD57" s="99"/>
+      <c r="BE57" s="99"/>
+      <c r="BF57" s="99"/>
+      <c r="BG57" s="99"/>
+      <c r="BH57" s="99"/>
+      <c r="BI57" s="99"/>
+      <c r="BJ57" s="99"/>
+      <c r="BK57" s="99"/>
+      <c r="BL57" s="99"/>
+      <c r="BM57" s="99"/>
+      <c r="BN57" s="99"/>
     </row>
     <row r="58" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="B58" s="115" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C58" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D58" s="116"/>
       <c r="E58" s="161">
-        <v>44487</v>
+        <v>44486</v>
       </c>
       <c r="F58" s="162">
         <f t="shared" si="6"/>
-        <v>44495</v>
+        <v>44489</v>
       </c>
       <c r="G58" s="61">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H58" s="62">
         <v>0</v>
       </c>
       <c r="I58" s="63">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J58" s="93"/>
       <c r="K58" s="99"/>
@@ -9111,33 +9132,33 @@
       <c r="BM58" s="99"/>
       <c r="BN58" s="99"/>
     </row>
-    <row r="59" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="59" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B59" s="117" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="C59" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D59" s="116"/>
-      <c r="E59" s="161">
-        <v>44487</v>
-      </c>
-      <c r="F59" s="162">
+      <c r="D59" s="169"/>
+      <c r="E59" s="170">
+        <v>44486</v>
+      </c>
+      <c r="F59" s="171">
         <f t="shared" si="6"/>
-        <v>44487</v>
-      </c>
-      <c r="G59" s="61">
+        <v>44486</v>
+      </c>
+      <c r="G59" s="172">
         <v>1</v>
       </c>
-      <c r="H59" s="62"/>
-      <c r="I59" s="63">
+      <c r="H59" s="173"/>
+      <c r="I59" s="174">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J59" s="93"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="175"/>
       <c r="K59" s="99"/>
       <c r="L59" s="99"/>
       <c r="M59" s="99"/>
@@ -9197,33 +9218,31 @@
     </row>
     <row r="60" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="59" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B60" s="117" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C60" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D60" s="116"/>
-      <c r="E60" s="161">
-        <v>44487</v>
-      </c>
-      <c r="F60" s="162">
-        <f>IF(ISBLANK(E60)," - ",IF(G60=0,E60,E60+G60-1))</f>
-        <v>44488</v>
-      </c>
-      <c r="G60" s="61">
-        <v>2</v>
-      </c>
-      <c r="H60" s="62">
+      <c r="D60" s="169"/>
+      <c r="E60" s="170">
+        <v>44486</v>
+      </c>
+      <c r="F60" s="171">
+        <f t="shared" si="6"/>
+        <v>44486</v>
+      </c>
+      <c r="G60" s="172">
+        <v>1</v>
+      </c>
+      <c r="H60" s="173"/>
+      <c r="I60" s="174">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I60" s="63">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J60" s="93"/>
+      <c r="J60" s="175"/>
       <c r="K60" s="99"/>
       <c r="L60" s="99"/>
       <c r="M60" s="99"/>
@@ -9283,31 +9302,31 @@
     </row>
     <row r="61" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="59" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B61" s="117" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C61" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D61" s="116"/>
-      <c r="E61" s="161">
-        <v>44488</v>
-      </c>
-      <c r="F61" s="162">
-        <f>IF(ISBLANK(E61)," - ",IF(G61=0,E61,E61+G61-1))</f>
-        <v>44489</v>
-      </c>
-      <c r="G61" s="61">
-        <v>2</v>
-      </c>
-      <c r="H61" s="62"/>
-      <c r="I61" s="63">
+      <c r="D61" s="169"/>
+      <c r="E61" s="170">
+        <v>44487</v>
+      </c>
+      <c r="F61" s="171">
+        <f t="shared" si="6"/>
+        <v>44487</v>
+      </c>
+      <c r="G61" s="172">
+        <v>1</v>
+      </c>
+      <c r="H61" s="173"/>
+      <c r="I61" s="174">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J61" s="93"/>
+        <v>1</v>
+      </c>
+      <c r="J61" s="175"/>
       <c r="K61" s="99"/>
       <c r="L61" s="99"/>
       <c r="M61" s="99"/>
@@ -9367,31 +9386,31 @@
     </row>
     <row r="62" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="59" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B62" s="117" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C62" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D62" s="116"/>
-      <c r="E62" s="161">
-        <v>44489</v>
-      </c>
-      <c r="F62" s="162">
-        <f>IF(ISBLANK(E62)," - ",IF(G62=0,E62,E62+G62-1))</f>
-        <v>44491</v>
-      </c>
-      <c r="G62" s="61">
-        <v>3</v>
-      </c>
-      <c r="H62" s="62"/>
-      <c r="I62" s="63">
+      <c r="D62" s="169"/>
+      <c r="E62" s="170">
+        <v>44487</v>
+      </c>
+      <c r="F62" s="171">
+        <f t="shared" si="6"/>
+        <v>44487</v>
+      </c>
+      <c r="G62" s="172">
+        <v>1</v>
+      </c>
+      <c r="H62" s="173"/>
+      <c r="I62" s="174">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="J62" s="93"/>
+        <v>1</v>
+      </c>
+      <c r="J62" s="175"/>
       <c r="K62" s="99"/>
       <c r="L62" s="99"/>
       <c r="M62" s="99"/>
@@ -9451,31 +9470,31 @@
     </row>
     <row r="63" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="59" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B63" s="117" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C63" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D63" s="116"/>
-      <c r="E63" s="161">
-        <v>44491</v>
-      </c>
-      <c r="F63" s="162">
-        <f>IF(ISBLANK(E63)," - ",IF(G63=0,E63,E63+G63-1))</f>
-        <v>44492</v>
-      </c>
-      <c r="G63" s="61">
-        <v>2</v>
-      </c>
-      <c r="H63" s="62"/>
-      <c r="I63" s="63">
+      <c r="D63" s="169"/>
+      <c r="E63" s="170">
+        <v>44488</v>
+      </c>
+      <c r="F63" s="171">
+        <f t="shared" si="6"/>
+        <v>44488</v>
+      </c>
+      <c r="G63" s="172">
+        <v>1</v>
+      </c>
+      <c r="H63" s="173"/>
+      <c r="I63" s="174">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J63" s="93"/>
+      <c r="J63" s="175"/>
       <c r="K63" s="99"/>
       <c r="L63" s="99"/>
       <c r="M63" s="99"/>
@@ -9535,31 +9554,31 @@
     </row>
     <row r="64" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="59" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B64" s="117" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C64" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D64" s="116"/>
-      <c r="E64" s="161">
-        <v>44492</v>
-      </c>
-      <c r="F64" s="162">
-        <f>IF(ISBLANK(E64)," - ",IF(G64=0,E64,E64+G64-1))</f>
-        <v>44494</v>
-      </c>
-      <c r="G64" s="61">
-        <v>3</v>
-      </c>
-      <c r="H64" s="62"/>
-      <c r="I64" s="63">
+      <c r="D64" s="169"/>
+      <c r="E64" s="170">
+        <v>44488</v>
+      </c>
+      <c r="F64" s="171">
+        <f t="shared" si="6"/>
+        <v>44488</v>
+      </c>
+      <c r="G64" s="172">
+        <v>1</v>
+      </c>
+      <c r="H64" s="173"/>
+      <c r="I64" s="174">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J64" s="93"/>
+      <c r="J64" s="175"/>
       <c r="K64" s="99"/>
       <c r="L64" s="99"/>
       <c r="M64" s="99"/>
@@ -9619,31 +9638,31 @@
     </row>
     <row r="65" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="59" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B65" s="117" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C65" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D65" s="116"/>
-      <c r="E65" s="161">
-        <v>44494</v>
-      </c>
-      <c r="F65" s="162">
-        <f>IF(ISBLANK(E65)," - ",IF(G65=0,E65,E65+G65-1))</f>
-        <v>44495</v>
-      </c>
-      <c r="G65" s="61">
-        <v>2</v>
-      </c>
-      <c r="H65" s="62"/>
-      <c r="I65" s="63">
+      <c r="D65" s="169"/>
+      <c r="E65" s="170">
+        <v>44489</v>
+      </c>
+      <c r="F65" s="171">
+        <f t="shared" si="6"/>
+        <v>44489</v>
+      </c>
+      <c r="G65" s="172">
+        <v>1</v>
+      </c>
+      <c r="H65" s="173"/>
+      <c r="I65" s="174">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J65" s="93"/>
+        <v>1</v>
+      </c>
+      <c r="J65" s="175"/>
       <c r="K65" s="99"/>
       <c r="L65" s="99"/>
       <c r="M65" s="99"/>
@@ -9703,31 +9722,31 @@
     </row>
     <row r="66" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="59" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B66" s="117" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C66" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D66" s="116"/>
-      <c r="E66" s="161">
-        <v>44495</v>
-      </c>
-      <c r="F66" s="162">
-        <f>IF(ISBLANK(E66)," - ",IF(G66=0,E66,E66+G66-1))</f>
-        <v>44496</v>
-      </c>
-      <c r="G66" s="61">
-        <v>2</v>
-      </c>
-      <c r="H66" s="62"/>
-      <c r="I66" s="63">
+      <c r="D66" s="169"/>
+      <c r="E66" s="170">
+        <v>44489</v>
+      </c>
+      <c r="F66" s="171">
+        <f t="shared" si="6"/>
+        <v>44489</v>
+      </c>
+      <c r="G66" s="172">
+        <v>1</v>
+      </c>
+      <c r="H66" s="173"/>
+      <c r="I66" s="174">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J66" s="93"/>
+        <v>1</v>
+      </c>
+      <c r="J66" s="175"/>
       <c r="K66" s="99"/>
       <c r="L66" s="99"/>
       <c r="M66" s="99"/>
@@ -9786,32 +9805,32 @@
       <c r="BN66" s="99"/>
     </row>
     <row r="67" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A67" s="59" t="s">
-        <v>207</v>
+      <c r="A67" s="59">
+        <v>2.7</v>
       </c>
       <c r="B67" s="117" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="C67" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D67" s="116"/>
-      <c r="E67" s="161">
-        <v>44496</v>
-      </c>
-      <c r="F67" s="162">
+      <c r="D67" s="169"/>
+      <c r="E67" s="170">
+        <v>44490</v>
+      </c>
+      <c r="F67" s="171">
         <f>IF(ISBLANK(E67)," - ",IF(G67=0,E67,E67+G67-1))</f>
-        <v>44497</v>
-      </c>
-      <c r="G67" s="61">
+        <v>44491</v>
+      </c>
+      <c r="G67" s="172">
         <v>2</v>
       </c>
-      <c r="H67" s="62"/>
-      <c r="I67" s="63">
+      <c r="H67" s="173"/>
+      <c r="I67" s="174">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J67" s="93"/>
+      <c r="J67" s="175"/>
       <c r="K67" s="99"/>
       <c r="L67" s="99"/>
       <c r="M67" s="99"/>
@@ -9869,199 +9888,196 @@
       <c r="BM67" s="99"/>
       <c r="BN67" s="99"/>
     </row>
-    <row r="68" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A68" s="59" t="str">
+    <row r="68" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A68" s="52" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>3</v>
+      </c>
+      <c r="B68" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="D68" s="55"/>
+      <c r="E68" s="163"/>
+      <c r="F68" s="163" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G68" s="56"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="58" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J68" s="94"/>
+      <c r="K68" s="101"/>
+      <c r="L68" s="101"/>
+      <c r="M68" s="101"/>
+      <c r="N68" s="101"/>
+      <c r="O68" s="101"/>
+      <c r="P68" s="101"/>
+      <c r="Q68" s="101"/>
+      <c r="R68" s="101"/>
+      <c r="S68" s="101"/>
+      <c r="T68" s="101"/>
+      <c r="U68" s="101"/>
+      <c r="V68" s="101"/>
+      <c r="W68" s="101"/>
+      <c r="X68" s="101"/>
+      <c r="Y68" s="101"/>
+      <c r="Z68" s="101"/>
+      <c r="AA68" s="101"/>
+      <c r="AB68" s="101"/>
+      <c r="AC68" s="101"/>
+      <c r="AD68" s="101"/>
+      <c r="AE68" s="101"/>
+      <c r="AF68" s="101"/>
+      <c r="AG68" s="101"/>
+      <c r="AH68" s="101"/>
+      <c r="AI68" s="101"/>
+      <c r="AJ68" s="101"/>
+      <c r="AK68" s="101"/>
+      <c r="AL68" s="101"/>
+      <c r="AM68" s="101"/>
+      <c r="AN68" s="101"/>
+      <c r="AO68" s="101"/>
+      <c r="AP68" s="101"/>
+      <c r="AQ68" s="101"/>
+      <c r="AR68" s="101"/>
+      <c r="AS68" s="101"/>
+      <c r="AT68" s="101"/>
+      <c r="AU68" s="101"/>
+      <c r="AV68" s="101"/>
+      <c r="AW68" s="101"/>
+      <c r="AX68" s="101"/>
+      <c r="AY68" s="101"/>
+      <c r="AZ68" s="101"/>
+      <c r="BA68" s="101"/>
+      <c r="BB68" s="101"/>
+      <c r="BC68" s="101"/>
+      <c r="BD68" s="101"/>
+      <c r="BE68" s="101"/>
+      <c r="BF68" s="101"/>
+      <c r="BG68" s="101"/>
+      <c r="BH68" s="101"/>
+      <c r="BI68" s="101"/>
+      <c r="BJ68" s="101"/>
+      <c r="BK68" s="101"/>
+      <c r="BL68" s="101"/>
+      <c r="BM68" s="101"/>
+      <c r="BN68" s="101"/>
+    </row>
+    <row r="69" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A69" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
-      </c>
-      <c r="B68" s="115" t="s">
-        <v>208</v>
-      </c>
-      <c r="C68" s="60" t="s">
+        <v>3.1</v>
+      </c>
+      <c r="B69" s="115" t="s">
+        <v>197</v>
+      </c>
+      <c r="C69" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="116"/>
-      <c r="E68" s="161">
-        <v>44498</v>
-      </c>
-      <c r="F68" s="162">
+      <c r="D69" s="116"/>
+      <c r="E69" s="161">
+        <v>44491</v>
+      </c>
+      <c r="F69" s="162">
+        <f>IF(ISBLANK(E69)," - ",IF(G69=0,E69,E69+G69-1))</f>
+        <v>44503</v>
+      </c>
+      <c r="G69" s="61">
+        <v>13</v>
+      </c>
+      <c r="H69" s="62">
+        <v>0</v>
+      </c>
+      <c r="I69" s="63">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="J69" s="93"/>
+      <c r="K69" s="99"/>
+      <c r="L69" s="99"/>
+      <c r="M69" s="99"/>
+      <c r="N69" s="99"/>
+      <c r="O69" s="99"/>
+      <c r="P69" s="99"/>
+      <c r="Q69" s="99"/>
+      <c r="R69" s="99"/>
+      <c r="S69" s="99"/>
+      <c r="T69" s="99"/>
+      <c r="U69" s="99"/>
+      <c r="V69" s="99"/>
+      <c r="W69" s="99"/>
+      <c r="X69" s="99"/>
+      <c r="Y69" s="99"/>
+      <c r="Z69" s="99"/>
+      <c r="AA69" s="99"/>
+      <c r="AB69" s="99"/>
+      <c r="AC69" s="99"/>
+      <c r="AD69" s="99"/>
+      <c r="AE69" s="99"/>
+      <c r="AF69" s="99"/>
+      <c r="AG69" s="99"/>
+      <c r="AH69" s="99"/>
+      <c r="AI69" s="99"/>
+      <c r="AJ69" s="99"/>
+      <c r="AK69" s="99"/>
+      <c r="AL69" s="99"/>
+      <c r="AM69" s="99"/>
+      <c r="AN69" s="99"/>
+      <c r="AO69" s="99"/>
+      <c r="AP69" s="99"/>
+      <c r="AQ69" s="99"/>
+      <c r="AR69" s="99"/>
+      <c r="AS69" s="99"/>
+      <c r="AT69" s="99"/>
+      <c r="AU69" s="99"/>
+      <c r="AV69" s="99"/>
+      <c r="AW69" s="99"/>
+      <c r="AX69" s="99"/>
+      <c r="AY69" s="99"/>
+      <c r="AZ69" s="99"/>
+      <c r="BA69" s="99"/>
+      <c r="BB69" s="99"/>
+      <c r="BC69" s="99"/>
+      <c r="BD69" s="99"/>
+      <c r="BE69" s="99"/>
+      <c r="BF69" s="99"/>
+      <c r="BG69" s="99"/>
+      <c r="BH69" s="99"/>
+      <c r="BI69" s="99"/>
+      <c r="BJ69" s="99"/>
+      <c r="BK69" s="99"/>
+      <c r="BL69" s="99"/>
+      <c r="BM69" s="99"/>
+      <c r="BN69" s="99"/>
+    </row>
+    <row r="70" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A70" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="B70" s="117" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="116"/>
+      <c r="E70" s="161">
+        <v>44491</v>
+      </c>
+      <c r="F70" s="162">
         <f t="shared" si="6"/>
-        <v>44500</v>
-      </c>
-      <c r="G68" s="61">
-        <v>3</v>
-      </c>
-      <c r="H68" s="62">
-        <v>0</v>
-      </c>
-      <c r="I68" s="63">
+        <v>44491</v>
+      </c>
+      <c r="G70" s="61">
+        <v>1</v>
+      </c>
+      <c r="H70" s="62"/>
+      <c r="I70" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
-      </c>
-      <c r="J68" s="93"/>
-      <c r="K68" s="99"/>
-      <c r="L68" s="99"/>
-      <c r="M68" s="99"/>
-      <c r="N68" s="99"/>
-      <c r="O68" s="99"/>
-      <c r="P68" s="99"/>
-      <c r="Q68" s="99"/>
-      <c r="R68" s="99"/>
-      <c r="S68" s="99"/>
-      <c r="T68" s="99"/>
-      <c r="U68" s="99"/>
-      <c r="V68" s="99"/>
-      <c r="W68" s="99"/>
-      <c r="X68" s="99"/>
-      <c r="Y68" s="99"/>
-      <c r="Z68" s="99"/>
-      <c r="AA68" s="99"/>
-      <c r="AB68" s="99"/>
-      <c r="AC68" s="99"/>
-      <c r="AD68" s="99"/>
-      <c r="AE68" s="99"/>
-      <c r="AF68" s="99"/>
-      <c r="AG68" s="99"/>
-      <c r="AH68" s="99"/>
-      <c r="AI68" s="99"/>
-      <c r="AJ68" s="99"/>
-      <c r="AK68" s="99"/>
-      <c r="AL68" s="99"/>
-      <c r="AM68" s="99"/>
-      <c r="AN68" s="99"/>
-      <c r="AO68" s="99"/>
-      <c r="AP68" s="99"/>
-      <c r="AQ68" s="99"/>
-      <c r="AR68" s="99"/>
-      <c r="AS68" s="99"/>
-      <c r="AT68" s="99"/>
-      <c r="AU68" s="99"/>
-      <c r="AV68" s="99"/>
-      <c r="AW68" s="99"/>
-      <c r="AX68" s="99"/>
-      <c r="AY68" s="99"/>
-      <c r="AZ68" s="99"/>
-      <c r="BA68" s="99"/>
-      <c r="BB68" s="99"/>
-      <c r="BC68" s="99"/>
-      <c r="BD68" s="99"/>
-      <c r="BE68" s="99"/>
-      <c r="BF68" s="99"/>
-      <c r="BG68" s="99"/>
-      <c r="BH68" s="99"/>
-      <c r="BI68" s="99"/>
-      <c r="BJ68" s="99"/>
-      <c r="BK68" s="99"/>
-      <c r="BL68" s="99"/>
-      <c r="BM68" s="99"/>
-      <c r="BN68" s="99"/>
-    </row>
-    <row r="69" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A69" s="52" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>4</v>
-      </c>
-      <c r="B69" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="D69" s="55"/>
-      <c r="E69" s="163"/>
-      <c r="F69" s="163" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G69" s="56"/>
-      <c r="H69" s="57"/>
-      <c r="I69" s="58" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J69" s="94"/>
-      <c r="K69" s="101"/>
-      <c r="L69" s="101"/>
-      <c r="M69" s="101"/>
-      <c r="N69" s="101"/>
-      <c r="O69" s="101"/>
-      <c r="P69" s="101"/>
-      <c r="Q69" s="101"/>
-      <c r="R69" s="101"/>
-      <c r="S69" s="101"/>
-      <c r="T69" s="101"/>
-      <c r="U69" s="101"/>
-      <c r="V69" s="101"/>
-      <c r="W69" s="101"/>
-      <c r="X69" s="101"/>
-      <c r="Y69" s="101"/>
-      <c r="Z69" s="101"/>
-      <c r="AA69" s="101"/>
-      <c r="AB69" s="101"/>
-      <c r="AC69" s="101"/>
-      <c r="AD69" s="101"/>
-      <c r="AE69" s="101"/>
-      <c r="AF69" s="101"/>
-      <c r="AG69" s="101"/>
-      <c r="AH69" s="101"/>
-      <c r="AI69" s="101"/>
-      <c r="AJ69" s="101"/>
-      <c r="AK69" s="101"/>
-      <c r="AL69" s="101"/>
-      <c r="AM69" s="101"/>
-      <c r="AN69" s="101"/>
-      <c r="AO69" s="101"/>
-      <c r="AP69" s="101"/>
-      <c r="AQ69" s="101"/>
-      <c r="AR69" s="101"/>
-      <c r="AS69" s="101"/>
-      <c r="AT69" s="101"/>
-      <c r="AU69" s="101"/>
-      <c r="AV69" s="101"/>
-      <c r="AW69" s="101"/>
-      <c r="AX69" s="101"/>
-      <c r="AY69" s="101"/>
-      <c r="AZ69" s="101"/>
-      <c r="BA69" s="101"/>
-      <c r="BB69" s="101"/>
-      <c r="BC69" s="101"/>
-      <c r="BD69" s="101"/>
-      <c r="BE69" s="101"/>
-      <c r="BF69" s="101"/>
-      <c r="BG69" s="101"/>
-      <c r="BH69" s="101"/>
-      <c r="BI69" s="101"/>
-      <c r="BJ69" s="101"/>
-      <c r="BK69" s="101"/>
-      <c r="BL69" s="101"/>
-      <c r="BM69" s="101"/>
-      <c r="BN69" s="101"/>
-    </row>
-    <row r="70" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A70" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
-      </c>
-      <c r="B70" s="115" t="s">
-        <v>210</v>
-      </c>
-      <c r="C70" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D70" s="116"/>
-      <c r="E70" s="161">
-        <v>44501</v>
-      </c>
-      <c r="F70" s="162">
-        <f t="shared" si="6"/>
-        <v>44503</v>
-      </c>
-      <c r="G70" s="61">
-        <v>3</v>
-      </c>
-      <c r="H70" s="62">
-        <v>0</v>
-      </c>
-      <c r="I70" s="63">
-        <f t="shared" si="4"/>
-        <v>3</v>
       </c>
       <c r="J70" s="93"/>
       <c r="K70" s="99"/>
@@ -10122,33 +10138,32 @@
       <c r="BN70" s="99"/>
     </row>
     <row r="71" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A71" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
-      </c>
-      <c r="B71" s="115" t="s">
-        <v>211</v>
+      <c r="A71" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="B71" s="117" t="s">
+        <v>159</v>
       </c>
       <c r="C71" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D71" s="116"/>
       <c r="E71" s="161">
-        <v>44504</v>
+        <v>44491</v>
       </c>
       <c r="F71" s="162">
-        <f t="shared" si="6"/>
-        <v>44506</v>
+        <f t="shared" ref="F71:F78" si="8">IF(ISBLANK(E71)," - ",IF(G71=0,E71,E71+G71-1))</f>
+        <v>44492</v>
       </c>
       <c r="G71" s="61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H71" s="62">
         <v>0</v>
       </c>
       <c r="I71" s="63">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" s="93"/>
       <c r="K71" s="99"/>
@@ -10209,33 +10224,30 @@
       <c r="BN71" s="99"/>
     </row>
     <row r="72" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A72" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.3</v>
-      </c>
-      <c r="B72" s="115" t="s">
-        <v>212</v>
+      <c r="A72" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="B72" s="117" t="s">
+        <v>161</v>
       </c>
       <c r="C72" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D72" s="116"/>
       <c r="E72" s="161">
-        <v>44507</v>
+        <v>44492</v>
       </c>
       <c r="F72" s="162">
-        <f t="shared" si="6"/>
-        <v>44509</v>
+        <f t="shared" si="8"/>
+        <v>44493</v>
       </c>
       <c r="G72" s="61">
-        <v>3</v>
-      </c>
-      <c r="H72" s="62">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H72" s="62"/>
       <c r="I72" s="63">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J72" s="93"/>
       <c r="K72" s="99"/>
@@ -10296,33 +10308,30 @@
       <c r="BN72" s="99"/>
     </row>
     <row r="73" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A73" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.4</v>
-      </c>
-      <c r="B73" s="115" t="s">
-        <v>213</v>
+      <c r="A73" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="B73" s="117" t="s">
+        <v>164</v>
       </c>
       <c r="C73" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D73" s="116"/>
       <c r="E73" s="161">
-        <v>44501</v>
+        <v>44493</v>
       </c>
       <c r="F73" s="162">
-        <f t="shared" si="6"/>
-        <v>44509</v>
+        <f t="shared" si="8"/>
+        <v>44495</v>
       </c>
       <c r="G73" s="61">
-        <v>9</v>
-      </c>
-      <c r="H73" s="62">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H73" s="62"/>
       <c r="I73" s="63">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J73" s="93"/>
       <c r="K73" s="99"/>
@@ -10382,111 +10391,114 @@
       <c r="BM73" s="99"/>
       <c r="BN73" s="99"/>
     </row>
-    <row r="74" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A74" s="52" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>5</v>
-      </c>
-      <c r="B74" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="D74" s="55"/>
-      <c r="E74" s="163"/>
-      <c r="F74" s="163" t="str">
-        <f t="shared" ref="F74:F76" si="8">IF(ISBLANK(E74)," - ",IF(G74=0,E74,E74+G74-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G74" s="56"/>
-      <c r="H74" s="57"/>
-      <c r="I74" s="58" t="str">
-        <f t="shared" ref="I74:I76" si="9">IF(OR(F74=0,E74=0)," - ",NETWORKDAYS(E74,F74))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J74" s="94"/>
-      <c r="K74" s="101"/>
-      <c r="L74" s="101"/>
-      <c r="M74" s="101"/>
-      <c r="N74" s="101"/>
-      <c r="O74" s="101"/>
-      <c r="P74" s="101"/>
-      <c r="Q74" s="101"/>
-      <c r="R74" s="101"/>
-      <c r="S74" s="101"/>
-      <c r="T74" s="101"/>
-      <c r="U74" s="101"/>
-      <c r="V74" s="101"/>
-      <c r="W74" s="101"/>
-      <c r="X74" s="101"/>
-      <c r="Y74" s="101"/>
-      <c r="Z74" s="101"/>
-      <c r="AA74" s="101"/>
-      <c r="AB74" s="101"/>
-      <c r="AC74" s="101"/>
-      <c r="AD74" s="101"/>
-      <c r="AE74" s="101"/>
-      <c r="AF74" s="101"/>
-      <c r="AG74" s="101"/>
-      <c r="AH74" s="101"/>
-      <c r="AI74" s="101"/>
-      <c r="AJ74" s="101"/>
-      <c r="AK74" s="101"/>
-      <c r="AL74" s="101"/>
-      <c r="AM74" s="101"/>
-      <c r="AN74" s="101"/>
-      <c r="AO74" s="101"/>
-      <c r="AP74" s="101"/>
-      <c r="AQ74" s="101"/>
-      <c r="AR74" s="101"/>
-      <c r="AS74" s="101"/>
-      <c r="AT74" s="101"/>
-      <c r="AU74" s="101"/>
-      <c r="AV74" s="101"/>
-      <c r="AW74" s="101"/>
-      <c r="AX74" s="101"/>
-      <c r="AY74" s="101"/>
-      <c r="AZ74" s="101"/>
-      <c r="BA74" s="101"/>
-      <c r="BB74" s="101"/>
-      <c r="BC74" s="101"/>
-      <c r="BD74" s="101"/>
-      <c r="BE74" s="101"/>
-      <c r="BF74" s="101"/>
-      <c r="BG74" s="101"/>
-      <c r="BH74" s="101"/>
-      <c r="BI74" s="101"/>
-      <c r="BJ74" s="101"/>
-      <c r="BK74" s="101"/>
-      <c r="BL74" s="101"/>
-      <c r="BM74" s="101"/>
-      <c r="BN74" s="101"/>
+    <row r="74" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A74" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="B74" s="117" t="s">
+        <v>165</v>
+      </c>
+      <c r="C74" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D74" s="116"/>
+      <c r="E74" s="161">
+        <v>44495</v>
+      </c>
+      <c r="F74" s="162">
+        <f t="shared" si="8"/>
+        <v>44497</v>
+      </c>
+      <c r="G74" s="61">
+        <v>3</v>
+      </c>
+      <c r="H74" s="62"/>
+      <c r="I74" s="63">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J74" s="93"/>
+      <c r="K74" s="99"/>
+      <c r="L74" s="99"/>
+      <c r="M74" s="99"/>
+      <c r="N74" s="99"/>
+      <c r="O74" s="99"/>
+      <c r="P74" s="99"/>
+      <c r="Q74" s="99"/>
+      <c r="R74" s="99"/>
+      <c r="S74" s="99"/>
+      <c r="T74" s="99"/>
+      <c r="U74" s="99"/>
+      <c r="V74" s="99"/>
+      <c r="W74" s="99"/>
+      <c r="X74" s="99"/>
+      <c r="Y74" s="99"/>
+      <c r="Z74" s="99"/>
+      <c r="AA74" s="99"/>
+      <c r="AB74" s="99"/>
+      <c r="AC74" s="99"/>
+      <c r="AD74" s="99"/>
+      <c r="AE74" s="99"/>
+      <c r="AF74" s="99"/>
+      <c r="AG74" s="99"/>
+      <c r="AH74" s="99"/>
+      <c r="AI74" s="99"/>
+      <c r="AJ74" s="99"/>
+      <c r="AK74" s="99"/>
+      <c r="AL74" s="99"/>
+      <c r="AM74" s="99"/>
+      <c r="AN74" s="99"/>
+      <c r="AO74" s="99"/>
+      <c r="AP74" s="99"/>
+      <c r="AQ74" s="99"/>
+      <c r="AR74" s="99"/>
+      <c r="AS74" s="99"/>
+      <c r="AT74" s="99"/>
+      <c r="AU74" s="99"/>
+      <c r="AV74" s="99"/>
+      <c r="AW74" s="99"/>
+      <c r="AX74" s="99"/>
+      <c r="AY74" s="99"/>
+      <c r="AZ74" s="99"/>
+      <c r="BA74" s="99"/>
+      <c r="BB74" s="99"/>
+      <c r="BC74" s="99"/>
+      <c r="BD74" s="99"/>
+      <c r="BE74" s="99"/>
+      <c r="BF74" s="99"/>
+      <c r="BG74" s="99"/>
+      <c r="BH74" s="99"/>
+      <c r="BI74" s="99"/>
+      <c r="BJ74" s="99"/>
+      <c r="BK74" s="99"/>
+      <c r="BL74" s="99"/>
+      <c r="BM74" s="99"/>
+      <c r="BN74" s="99"/>
     </row>
     <row r="75" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A75" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.1</v>
-      </c>
-      <c r="B75" s="115" t="s">
-        <v>215</v>
+      <c r="A75" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="B75" s="117" t="s">
+        <v>167</v>
       </c>
       <c r="C75" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D75" s="116"/>
       <c r="E75" s="161">
-        <v>44510</v>
+        <v>44497</v>
       </c>
       <c r="F75" s="162">
         <f t="shared" si="8"/>
-        <v>44511</v>
+        <v>44499</v>
       </c>
       <c r="G75" s="61">
-        <v>2</v>
-      </c>
-      <c r="H75" s="62">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H75" s="62"/>
       <c r="I75" s="63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="J75" s="93"/>
@@ -10548,33 +10560,30 @@
       <c r="BN75" s="99"/>
     </row>
     <row r="76" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A76" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.2</v>
-      </c>
-      <c r="B76" s="115" t="s">
-        <v>216</v>
+      <c r="A76" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="B76" s="117" t="s">
+        <v>156</v>
       </c>
       <c r="C76" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D76" s="116"/>
       <c r="E76" s="161">
-        <v>44512</v>
+        <v>44499</v>
       </c>
       <c r="F76" s="162">
         <f t="shared" si="8"/>
-        <v>44513</v>
+        <v>44500</v>
       </c>
       <c r="G76" s="61">
         <v>2</v>
       </c>
-      <c r="H76" s="62">
+      <c r="H76" s="62"/>
+      <c r="I76" s="63">
+        <f t="shared" si="4"/>
         <v>0</v>
-      </c>
-      <c r="I76" s="63">
-        <f t="shared" si="9"/>
-        <v>1</v>
       </c>
       <c r="J76" s="93"/>
       <c r="K76" s="99"/>
@@ -10634,29 +10643,33 @@
       <c r="BM76" s="99"/>
       <c r="BN76" s="99"/>
     </row>
-    <row r="77" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A77" s="59">
-        <v>5.3</v>
-      </c>
-      <c r="B77" s="115" t="s">
-        <v>218</v>
+    <row r="77" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A77" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="B77" s="117" t="s">
+        <v>155</v>
       </c>
       <c r="C77" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D77" s="169"/>
-      <c r="E77" s="170">
-        <v>44513</v>
-      </c>
-      <c r="F77" s="171">
-        <v>44513</v>
-      </c>
-      <c r="G77" s="172">
-        <v>1</v>
-      </c>
-      <c r="H77" s="173"/>
-      <c r="I77" s="174"/>
-      <c r="J77" s="175"/>
+      <c r="D77" s="116"/>
+      <c r="E77" s="161">
+        <v>44501</v>
+      </c>
+      <c r="F77" s="162">
+        <f t="shared" si="8"/>
+        <v>44502</v>
+      </c>
+      <c r="G77" s="61">
+        <v>2</v>
+      </c>
+      <c r="H77" s="62"/>
+      <c r="I77" s="63">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J77" s="93"/>
       <c r="K77" s="99"/>
       <c r="L77" s="99"/>
       <c r="M77" s="99"/>
@@ -10714,29 +10727,33 @@
       <c r="BM77" s="99"/>
       <c r="BN77" s="99"/>
     </row>
-    <row r="78" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A78" s="59">
-        <v>5.4</v>
-      </c>
-      <c r="B78" s="115" t="s">
-        <v>217</v>
+    <row r="78" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A78" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="B78" s="117" t="s">
+        <v>157</v>
       </c>
       <c r="C78" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D78" s="169"/>
-      <c r="E78" s="170">
-        <v>44514</v>
-      </c>
-      <c r="F78" s="171">
-        <v>44514</v>
-      </c>
-      <c r="G78" s="172">
-        <v>1</v>
-      </c>
-      <c r="H78" s="173"/>
-      <c r="I78" s="174"/>
-      <c r="J78" s="175"/>
+      <c r="D78" s="116"/>
+      <c r="E78" s="161">
+        <v>44502</v>
+      </c>
+      <c r="F78" s="162">
+        <f t="shared" si="8"/>
+        <v>44503</v>
+      </c>
+      <c r="G78" s="61">
+        <v>2</v>
+      </c>
+      <c r="H78" s="62"/>
+      <c r="I78" s="63">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J78" s="93"/>
       <c r="K78" s="99"/>
       <c r="L78" s="99"/>
       <c r="M78" s="99"/>
@@ -10794,85 +10811,111 @@
       <c r="BM78" s="99"/>
       <c r="BN78" s="99"/>
     </row>
-    <row r="79" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A79" s="59"/>
-      <c r="B79" s="64"/>
-      <c r="C79" s="64"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="164"/>
-      <c r="F79" s="164"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="67"/>
-      <c r="I79" s="68"/>
-      <c r="J79" s="95"/>
-      <c r="K79" s="99"/>
-      <c r="L79" s="99"/>
-      <c r="M79" s="99"/>
-      <c r="N79" s="99"/>
-      <c r="O79" s="99"/>
-      <c r="P79" s="99"/>
-      <c r="Q79" s="99"/>
-      <c r="R79" s="99"/>
-      <c r="S79" s="99"/>
-      <c r="T79" s="99"/>
-      <c r="U79" s="99"/>
-      <c r="V79" s="99"/>
-      <c r="W79" s="99"/>
-      <c r="X79" s="99"/>
-      <c r="Y79" s="99"/>
-      <c r="Z79" s="99"/>
-      <c r="AA79" s="99"/>
-      <c r="AB79" s="99"/>
-      <c r="AC79" s="99"/>
-      <c r="AD79" s="99"/>
-      <c r="AE79" s="99"/>
-      <c r="AF79" s="99"/>
-      <c r="AG79" s="99"/>
-      <c r="AH79" s="99"/>
-      <c r="AI79" s="99"/>
-      <c r="AJ79" s="99"/>
-      <c r="AK79" s="99"/>
-      <c r="AL79" s="99"/>
-      <c r="AM79" s="99"/>
-      <c r="AN79" s="99"/>
-      <c r="AO79" s="99"/>
-      <c r="AP79" s="99"/>
-      <c r="AQ79" s="99"/>
-      <c r="AR79" s="99"/>
-      <c r="AS79" s="99"/>
-      <c r="AT79" s="99"/>
-      <c r="AU79" s="99"/>
-      <c r="AV79" s="99"/>
-      <c r="AW79" s="99"/>
-      <c r="AX79" s="99"/>
-      <c r="AY79" s="99"/>
-      <c r="AZ79" s="99"/>
-      <c r="BA79" s="99"/>
-      <c r="BB79" s="99"/>
-      <c r="BC79" s="99"/>
-      <c r="BD79" s="99"/>
-      <c r="BE79" s="99"/>
-      <c r="BF79" s="99"/>
-      <c r="BG79" s="99"/>
-      <c r="BH79" s="99"/>
-      <c r="BI79" s="99"/>
-      <c r="BJ79" s="99"/>
-      <c r="BK79" s="99"/>
-      <c r="BL79" s="99"/>
-      <c r="BM79" s="99"/>
-      <c r="BN79" s="99"/>
-    </row>
-    <row r="80" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A80" s="59"/>
-      <c r="B80" s="64"/>
-      <c r="C80" s="64"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="164"/>
-      <c r="F80" s="164"/>
-      <c r="G80" s="66"/>
-      <c r="H80" s="67"/>
-      <c r="I80" s="68"/>
-      <c r="J80" s="95"/>
+    <row r="79" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A79" s="52" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>4</v>
+      </c>
+      <c r="B79" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="D79" s="55"/>
+      <c r="E79" s="163"/>
+      <c r="F79" s="163" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G79" s="56"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="58" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J79" s="94"/>
+      <c r="K79" s="101"/>
+      <c r="L79" s="101"/>
+      <c r="M79" s="101"/>
+      <c r="N79" s="101"/>
+      <c r="O79" s="101"/>
+      <c r="P79" s="101"/>
+      <c r="Q79" s="101"/>
+      <c r="R79" s="101"/>
+      <c r="S79" s="101"/>
+      <c r="T79" s="101"/>
+      <c r="U79" s="101"/>
+      <c r="V79" s="101"/>
+      <c r="W79" s="101"/>
+      <c r="X79" s="101"/>
+      <c r="Y79" s="101"/>
+      <c r="Z79" s="101"/>
+      <c r="AA79" s="101"/>
+      <c r="AB79" s="101"/>
+      <c r="AC79" s="101"/>
+      <c r="AD79" s="101"/>
+      <c r="AE79" s="101"/>
+      <c r="AF79" s="101"/>
+      <c r="AG79" s="101"/>
+      <c r="AH79" s="101"/>
+      <c r="AI79" s="101"/>
+      <c r="AJ79" s="101"/>
+      <c r="AK79" s="101"/>
+      <c r="AL79" s="101"/>
+      <c r="AM79" s="101"/>
+      <c r="AN79" s="101"/>
+      <c r="AO79" s="101"/>
+      <c r="AP79" s="101"/>
+      <c r="AQ79" s="101"/>
+      <c r="AR79" s="101"/>
+      <c r="AS79" s="101"/>
+      <c r="AT79" s="101"/>
+      <c r="AU79" s="101"/>
+      <c r="AV79" s="101"/>
+      <c r="AW79" s="101"/>
+      <c r="AX79" s="101"/>
+      <c r="AY79" s="101"/>
+      <c r="AZ79" s="101"/>
+      <c r="BA79" s="101"/>
+      <c r="BB79" s="101"/>
+      <c r="BC79" s="101"/>
+      <c r="BD79" s="101"/>
+      <c r="BE79" s="101"/>
+      <c r="BF79" s="101"/>
+      <c r="BG79" s="101"/>
+      <c r="BH79" s="101"/>
+      <c r="BI79" s="101"/>
+      <c r="BJ79" s="101"/>
+      <c r="BK79" s="101"/>
+      <c r="BL79" s="101"/>
+      <c r="BM79" s="101"/>
+      <c r="BN79" s="101"/>
+    </row>
+    <row r="80" spans="1:66" s="60" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="59">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B80" s="176" t="s">
+        <v>185</v>
+      </c>
+      <c r="C80" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D80" s="116"/>
+      <c r="E80" s="161">
+        <v>44504</v>
+      </c>
+      <c r="F80" s="162">
+        <f t="shared" ref="F80" si="9">IF(ISBLANK(E80)," - ",IF(G80=0,E80,E80+G80-1))</f>
+        <v>44504</v>
+      </c>
+      <c r="G80" s="61">
+        <v>1</v>
+      </c>
+      <c r="H80" s="62"/>
+      <c r="I80" s="63">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J80" s="93"/>
       <c r="K80" s="99"/>
       <c r="L80" s="99"/>
       <c r="M80" s="99"/>
@@ -10930,17 +10973,33 @@
       <c r="BM80" s="99"/>
       <c r="BN80" s="99"/>
     </row>
-    <row r="81" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A81" s="59"/>
-      <c r="B81" s="64"/>
-      <c r="C81" s="64"/>
-      <c r="D81" s="65"/>
-      <c r="E81" s="164"/>
-      <c r="F81" s="164"/>
-      <c r="G81" s="66"/>
-      <c r="H81" s="67"/>
-      <c r="I81" s="68"/>
-      <c r="J81" s="95"/>
+    <row r="81" spans="1:66" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.2</v>
+      </c>
+      <c r="B81" s="115" t="s">
+        <v>209</v>
+      </c>
+      <c r="C81" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D81" s="116"/>
+      <c r="E81" s="161">
+        <v>44505</v>
+      </c>
+      <c r="F81" s="162">
+        <f t="shared" ref="F81" si="10">IF(ISBLANK(E81)," - ",IF(G81=0,E81,E81+G81-1))</f>
+        <v>44507</v>
+      </c>
+      <c r="G81" s="61">
+        <v>3</v>
+      </c>
+      <c r="H81" s="62">
+        <v>0</v>
+      </c>
+      <c r="I81" s="63"/>
+      <c r="J81" s="93"/>
       <c r="K81" s="99"/>
       <c r="L81" s="99"/>
       <c r="M81" s="99"/>
@@ -10998,20 +11057,36 @@
       <c r="BM81" s="99"/>
       <c r="BN81" s="99"/>
     </row>
-    <row r="82" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A82" s="59"/>
-      <c r="B82" s="64"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="164"/>
-      <c r="F82" s="164"/>
-      <c r="G82" s="66"/>
-      <c r="H82" s="67"/>
-      <c r="I82" s="68" t="str">
+    <row r="82" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A82" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.3</v>
+      </c>
+      <c r="B82" s="115" t="s">
+        <v>210</v>
+      </c>
+      <c r="C82" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D82" s="116"/>
+      <c r="E82" s="161">
+        <v>44508</v>
+      </c>
+      <c r="F82" s="162">
+        <f t="shared" si="6"/>
+        <v>44510</v>
+      </c>
+      <c r="G82" s="61">
+        <v>3</v>
+      </c>
+      <c r="H82" s="62">
+        <v>0</v>
+      </c>
+      <c r="I82" s="63">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J82" s="95"/>
+        <v>3</v>
+      </c>
+      <c r="J82" s="93"/>
       <c r="K82" s="99"/>
       <c r="L82" s="99"/>
       <c r="M82" s="99"/>
@@ -11069,19 +11144,36 @@
       <c r="BM82" s="99"/>
       <c r="BN82" s="99"/>
     </row>
-    <row r="83" spans="1:66" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A83" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="B83" s="71"/>
-      <c r="C83" s="72"/>
-      <c r="D83" s="72"/>
-      <c r="E83" s="165"/>
-      <c r="F83" s="165"/>
-      <c r="G83" s="73"/>
-      <c r="H83" s="73"/>
-      <c r="I83" s="73"/>
-      <c r="J83" s="96"/>
+    <row r="83" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A83" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.4</v>
+      </c>
+      <c r="B83" s="115" t="s">
+        <v>211</v>
+      </c>
+      <c r="C83" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D83" s="116"/>
+      <c r="E83" s="161">
+        <v>44511</v>
+      </c>
+      <c r="F83" s="162">
+        <f t="shared" si="6"/>
+        <v>44513</v>
+      </c>
+      <c r="G83" s="61">
+        <v>3</v>
+      </c>
+      <c r="H83" s="62">
+        <v>0</v>
+      </c>
+      <c r="I83" s="63">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J83" s="93"/>
       <c r="K83" s="99"/>
       <c r="L83" s="99"/>
       <c r="M83" s="99"/>
@@ -11139,19 +11231,36 @@
       <c r="BM83" s="99"/>
       <c r="BN83" s="99"/>
     </row>
-    <row r="84" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A84" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="B84" s="76"/>
-      <c r="C84" s="76"/>
-      <c r="D84" s="76"/>
-      <c r="E84" s="166"/>
-      <c r="F84" s="166"/>
-      <c r="G84" s="76"/>
-      <c r="H84" s="76"/>
-      <c r="I84" s="76"/>
-      <c r="J84" s="96"/>
+    <row r="84" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A84" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.5</v>
+      </c>
+      <c r="B84" s="115" t="s">
+        <v>212</v>
+      </c>
+      <c r="C84" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D84" s="116"/>
+      <c r="E84" s="161">
+        <v>44514</v>
+      </c>
+      <c r="F84" s="162">
+        <f t="shared" si="6"/>
+        <v>44517</v>
+      </c>
+      <c r="G84" s="61">
+        <v>4</v>
+      </c>
+      <c r="H84" s="62">
+        <v>0</v>
+      </c>
+      <c r="I84" s="63">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J84" s="93"/>
       <c r="K84" s="99"/>
       <c r="L84" s="99"/>
       <c r="M84" s="99"/>
@@ -11209,107 +11318,113 @@
       <c r="BM84" s="99"/>
       <c r="BN84" s="99"/>
     </row>
-    <row r="85" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A85" s="119" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B85" s="120" t="s">
-        <v>76</v>
-      </c>
-      <c r="C85" s="77"/>
-      <c r="D85" s="78"/>
-      <c r="E85" s="161"/>
-      <c r="F85" s="162" t="str">
-        <f t="shared" ref="F85:F88" si="10">IF(ISBLANK(E85)," - ",IF(G85=0,E85,E85+G85-1))</f>
+    <row r="85" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A85" s="52">
+        <v>5</v>
+      </c>
+      <c r="B85" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="D85" s="55"/>
+      <c r="E85" s="163"/>
+      <c r="F85" s="163" t="str">
+        <f t="shared" ref="F85:F88" si="11">IF(ISBLANK(E85)," - ",IF(G85=0,E85,E85+G85-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G85" s="61"/>
-      <c r="H85" s="62"/>
-      <c r="I85" s="79" t="str">
-        <f>IF(OR(F85=0,E85=0)," - ",NETWORKDAYS(E85,F85))</f>
+      <c r="G85" s="56"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="58" t="str">
+        <f t="shared" ref="I85:I87" si="12">IF(OR(F85=0,E85=0)," - ",NETWORKDAYS(E85,F85))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J85" s="97"/>
-      <c r="K85" s="99"/>
-      <c r="L85" s="99"/>
-      <c r="M85" s="99"/>
-      <c r="N85" s="99"/>
-      <c r="O85" s="99"/>
-      <c r="P85" s="99"/>
-      <c r="Q85" s="99"/>
-      <c r="R85" s="99"/>
-      <c r="S85" s="99"/>
-      <c r="T85" s="99"/>
-      <c r="U85" s="99"/>
-      <c r="V85" s="99"/>
-      <c r="W85" s="99"/>
-      <c r="X85" s="99"/>
-      <c r="Y85" s="99"/>
-      <c r="Z85" s="99"/>
-      <c r="AA85" s="99"/>
-      <c r="AB85" s="99"/>
-      <c r="AC85" s="99"/>
-      <c r="AD85" s="99"/>
-      <c r="AE85" s="99"/>
-      <c r="AF85" s="99"/>
-      <c r="AG85" s="99"/>
-      <c r="AH85" s="99"/>
-      <c r="AI85" s="99"/>
-      <c r="AJ85" s="99"/>
-      <c r="AK85" s="99"/>
-      <c r="AL85" s="99"/>
-      <c r="AM85" s="99"/>
-      <c r="AN85" s="99"/>
-      <c r="AO85" s="99"/>
-      <c r="AP85" s="99"/>
-      <c r="AQ85" s="99"/>
-      <c r="AR85" s="99"/>
-      <c r="AS85" s="99"/>
-      <c r="AT85" s="99"/>
-      <c r="AU85" s="99"/>
-      <c r="AV85" s="99"/>
-      <c r="AW85" s="99"/>
-      <c r="AX85" s="99"/>
-      <c r="AY85" s="99"/>
-      <c r="AZ85" s="99"/>
-      <c r="BA85" s="99"/>
-      <c r="BB85" s="99"/>
-      <c r="BC85" s="99"/>
-      <c r="BD85" s="99"/>
-      <c r="BE85" s="99"/>
-      <c r="BF85" s="99"/>
-      <c r="BG85" s="99"/>
-      <c r="BH85" s="99"/>
-      <c r="BI85" s="99"/>
-      <c r="BJ85" s="99"/>
-      <c r="BK85" s="99"/>
-      <c r="BL85" s="99"/>
-      <c r="BM85" s="99"/>
-      <c r="BN85" s="99"/>
-    </row>
-    <row r="86" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J85" s="94"/>
+      <c r="K85" s="101"/>
+      <c r="L85" s="101"/>
+      <c r="M85" s="101"/>
+      <c r="N85" s="101"/>
+      <c r="O85" s="101"/>
+      <c r="P85" s="101"/>
+      <c r="Q85" s="101"/>
+      <c r="R85" s="101"/>
+      <c r="S85" s="101"/>
+      <c r="T85" s="101"/>
+      <c r="U85" s="101"/>
+      <c r="V85" s="101"/>
+      <c r="W85" s="101"/>
+      <c r="X85" s="101"/>
+      <c r="Y85" s="101"/>
+      <c r="Z85" s="101"/>
+      <c r="AA85" s="101"/>
+      <c r="AB85" s="101"/>
+      <c r="AC85" s="101"/>
+      <c r="AD85" s="101"/>
+      <c r="AE85" s="101"/>
+      <c r="AF85" s="101"/>
+      <c r="AG85" s="101"/>
+      <c r="AH85" s="101"/>
+      <c r="AI85" s="101"/>
+      <c r="AJ85" s="101"/>
+      <c r="AK85" s="101"/>
+      <c r="AL85" s="101"/>
+      <c r="AM85" s="101"/>
+      <c r="AN85" s="101"/>
+      <c r="AO85" s="101"/>
+      <c r="AP85" s="101"/>
+      <c r="AQ85" s="101"/>
+      <c r="AR85" s="101"/>
+      <c r="AS85" s="101"/>
+      <c r="AT85" s="101"/>
+      <c r="AU85" s="101"/>
+      <c r="AV85" s="101"/>
+      <c r="AW85" s="101"/>
+      <c r="AX85" s="101"/>
+      <c r="AY85" s="101"/>
+      <c r="AZ85" s="101"/>
+      <c r="BA85" s="101"/>
+      <c r="BB85" s="101"/>
+      <c r="BC85" s="101"/>
+      <c r="BD85" s="101"/>
+      <c r="BE85" s="101"/>
+      <c r="BF85" s="101"/>
+      <c r="BG85" s="101"/>
+      <c r="BH85" s="101"/>
+      <c r="BI85" s="101"/>
+      <c r="BJ85" s="101"/>
+      <c r="BK85" s="101"/>
+      <c r="BL85" s="101"/>
+      <c r="BM85" s="101"/>
+      <c r="BN85" s="101"/>
+    </row>
+    <row r="86" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B86" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="C86" s="80"/>
-      <c r="D86" s="78"/>
-      <c r="E86" s="161"/>
-      <c r="F86" s="162" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G86" s="61"/>
-      <c r="H86" s="62"/>
-      <c r="I86" s="79" t="str">
-        <f t="shared" ref="I86:I88" si="11">IF(OR(F86=0,E86=0)," - ",NETWORKDAYS(E86,F86))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J86" s="97"/>
+        <v>5.1</v>
+      </c>
+      <c r="B86" s="115" t="s">
+        <v>214</v>
+      </c>
+      <c r="C86" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D86" s="116"/>
+      <c r="E86" s="161">
+        <v>44518</v>
+      </c>
+      <c r="F86" s="162">
+        <f t="shared" si="11"/>
+        <v>44519</v>
+      </c>
+      <c r="G86" s="61">
+        <v>2</v>
+      </c>
+      <c r="H86" s="62">
+        <v>0</v>
+      </c>
+      <c r="I86" s="63">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="J86" s="93"/>
       <c r="K86" s="99"/>
       <c r="L86" s="99"/>
       <c r="M86" s="99"/>
@@ -11367,28 +11482,36 @@
       <c r="BM86" s="99"/>
       <c r="BN86" s="99"/>
     </row>
-    <row r="87" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
-      </c>
-      <c r="B87" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="C87" s="80"/>
-      <c r="D87" s="78"/>
-      <c r="E87" s="161"/>
-      <c r="F87" s="162" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G87" s="61"/>
-      <c r="H87" s="62"/>
-      <c r="I87" s="79" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.2</v>
+      </c>
+      <c r="B87" s="115" t="s">
+        <v>215</v>
+      </c>
+      <c r="C87" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D87" s="116"/>
+      <c r="E87" s="161">
+        <v>44520</v>
+      </c>
+      <c r="F87" s="162">
         <f t="shared" si="11"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J87" s="97"/>
+        <v>44521</v>
+      </c>
+      <c r="G87" s="61">
+        <v>2</v>
+      </c>
+      <c r="H87" s="62">
+        <v>0</v>
+      </c>
+      <c r="I87" s="63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="93"/>
       <c r="K87" s="99"/>
       <c r="L87" s="99"/>
       <c r="M87" s="99"/>
@@ -11447,27 +11570,29 @@
       <c r="BN87" s="99"/>
     </row>
     <row r="88" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A88" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
-      </c>
-      <c r="B88" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="C88" s="80"/>
-      <c r="D88" s="78"/>
-      <c r="E88" s="161"/>
-      <c r="F88" s="162" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G88" s="61"/>
-      <c r="H88" s="62"/>
-      <c r="I88" s="79" t="str">
+      <c r="A88" s="59">
+        <v>5.3</v>
+      </c>
+      <c r="B88" s="115" t="s">
+        <v>217</v>
+      </c>
+      <c r="C88" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D88" s="169"/>
+      <c r="E88" s="170">
+        <v>44522</v>
+      </c>
+      <c r="F88" s="162">
         <f t="shared" si="11"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J88" s="97"/>
+        <v>44522</v>
+      </c>
+      <c r="G88" s="172">
+        <v>1</v>
+      </c>
+      <c r="H88" s="173"/>
+      <c r="I88" s="174"/>
+      <c r="J88" s="175"/>
       <c r="K88" s="99"/>
       <c r="L88" s="99"/>
       <c r="M88" s="99"/>
@@ -11525,89 +11650,891 @@
       <c r="BM88" s="99"/>
       <c r="BN88" s="99"/>
     </row>
-    <row r="89" spans="1:66" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="151" t="str">
+    <row r="89" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A89" s="59">
+        <v>5.4</v>
+      </c>
+      <c r="B89" s="115" t="s">
+        <v>216</v>
+      </c>
+      <c r="C89" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D89" s="169"/>
+      <c r="E89" s="170">
+        <v>44523</v>
+      </c>
+      <c r="F89" s="171">
+        <v>44523</v>
+      </c>
+      <c r="G89" s="172">
+        <v>1</v>
+      </c>
+      <c r="H89" s="173"/>
+      <c r="I89" s="174"/>
+      <c r="J89" s="175"/>
+      <c r="K89" s="99"/>
+      <c r="L89" s="99"/>
+      <c r="M89" s="99"/>
+      <c r="N89" s="99"/>
+      <c r="O89" s="99"/>
+      <c r="P89" s="99"/>
+      <c r="Q89" s="99"/>
+      <c r="R89" s="99"/>
+      <c r="S89" s="99"/>
+      <c r="T89" s="99"/>
+      <c r="U89" s="99"/>
+      <c r="V89" s="99"/>
+      <c r="W89" s="99"/>
+      <c r="X89" s="99"/>
+      <c r="Y89" s="99"/>
+      <c r="Z89" s="99"/>
+      <c r="AA89" s="99"/>
+      <c r="AB89" s="99"/>
+      <c r="AC89" s="99"/>
+      <c r="AD89" s="99"/>
+      <c r="AE89" s="99"/>
+      <c r="AF89" s="99"/>
+      <c r="AG89" s="99"/>
+      <c r="AH89" s="99"/>
+      <c r="AI89" s="99"/>
+      <c r="AJ89" s="99"/>
+      <c r="AK89" s="99"/>
+      <c r="AL89" s="99"/>
+      <c r="AM89" s="99"/>
+      <c r="AN89" s="99"/>
+      <c r="AO89" s="99"/>
+      <c r="AP89" s="99"/>
+      <c r="AQ89" s="99"/>
+      <c r="AR89" s="99"/>
+      <c r="AS89" s="99"/>
+      <c r="AT89" s="99"/>
+      <c r="AU89" s="99"/>
+      <c r="AV89" s="99"/>
+      <c r="AW89" s="99"/>
+      <c r="AX89" s="99"/>
+      <c r="AY89" s="99"/>
+      <c r="AZ89" s="99"/>
+      <c r="BA89" s="99"/>
+      <c r="BB89" s="99"/>
+      <c r="BC89" s="99"/>
+      <c r="BD89" s="99"/>
+      <c r="BE89" s="99"/>
+      <c r="BF89" s="99"/>
+      <c r="BG89" s="99"/>
+      <c r="BH89" s="99"/>
+      <c r="BI89" s="99"/>
+      <c r="BJ89" s="99"/>
+      <c r="BK89" s="99"/>
+      <c r="BL89" s="99"/>
+      <c r="BM89" s="99"/>
+      <c r="BN89" s="99"/>
+    </row>
+    <row r="90" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A90" s="59"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="164"/>
+      <c r="F90" s="164"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="67"/>
+      <c r="I90" s="68"/>
+      <c r="J90" s="95"/>
+      <c r="K90" s="99"/>
+      <c r="L90" s="99"/>
+      <c r="M90" s="99"/>
+      <c r="N90" s="99"/>
+      <c r="O90" s="99"/>
+      <c r="P90" s="99"/>
+      <c r="Q90" s="99"/>
+      <c r="R90" s="99"/>
+      <c r="S90" s="99"/>
+      <c r="T90" s="99"/>
+      <c r="U90" s="99"/>
+      <c r="V90" s="99"/>
+      <c r="W90" s="99"/>
+      <c r="X90" s="99"/>
+      <c r="Y90" s="99"/>
+      <c r="Z90" s="99"/>
+      <c r="AA90" s="99"/>
+      <c r="AB90" s="99"/>
+      <c r="AC90" s="99"/>
+      <c r="AD90" s="99"/>
+      <c r="AE90" s="99"/>
+      <c r="AF90" s="99"/>
+      <c r="AG90" s="99"/>
+      <c r="AH90" s="99"/>
+      <c r="AI90" s="99"/>
+      <c r="AJ90" s="99"/>
+      <c r="AK90" s="99"/>
+      <c r="AL90" s="99"/>
+      <c r="AM90" s="99"/>
+      <c r="AN90" s="99"/>
+      <c r="AO90" s="99"/>
+      <c r="AP90" s="99"/>
+      <c r="AQ90" s="99"/>
+      <c r="AR90" s="99"/>
+      <c r="AS90" s="99"/>
+      <c r="AT90" s="99"/>
+      <c r="AU90" s="99"/>
+      <c r="AV90" s="99"/>
+      <c r="AW90" s="99"/>
+      <c r="AX90" s="99"/>
+      <c r="AY90" s="99"/>
+      <c r="AZ90" s="99"/>
+      <c r="BA90" s="99"/>
+      <c r="BB90" s="99"/>
+      <c r="BC90" s="99"/>
+      <c r="BD90" s="99"/>
+      <c r="BE90" s="99"/>
+      <c r="BF90" s="99"/>
+      <c r="BG90" s="99"/>
+      <c r="BH90" s="99"/>
+      <c r="BI90" s="99"/>
+      <c r="BJ90" s="99"/>
+      <c r="BK90" s="99"/>
+      <c r="BL90" s="99"/>
+      <c r="BM90" s="99"/>
+      <c r="BN90" s="99"/>
+    </row>
+    <row r="91" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A91" s="59"/>
+      <c r="B91" s="64"/>
+      <c r="C91" s="64"/>
+      <c r="D91" s="65"/>
+      <c r="E91" s="164"/>
+      <c r="F91" s="164"/>
+      <c r="G91" s="66"/>
+      <c r="H91" s="67"/>
+      <c r="I91" s="68"/>
+      <c r="J91" s="95"/>
+      <c r="K91" s="99"/>
+      <c r="L91" s="99"/>
+      <c r="M91" s="99"/>
+      <c r="N91" s="99"/>
+      <c r="O91" s="99"/>
+      <c r="P91" s="99"/>
+      <c r="Q91" s="99"/>
+      <c r="R91" s="99"/>
+      <c r="S91" s="99"/>
+      <c r="T91" s="99"/>
+      <c r="U91" s="99"/>
+      <c r="V91" s="99"/>
+      <c r="W91" s="99"/>
+      <c r="X91" s="99"/>
+      <c r="Y91" s="99"/>
+      <c r="Z91" s="99"/>
+      <c r="AA91" s="99"/>
+      <c r="AB91" s="99"/>
+      <c r="AC91" s="99"/>
+      <c r="AD91" s="99"/>
+      <c r="AE91" s="99"/>
+      <c r="AF91" s="99"/>
+      <c r="AG91" s="99"/>
+      <c r="AH91" s="99"/>
+      <c r="AI91" s="99"/>
+      <c r="AJ91" s="99"/>
+      <c r="AK91" s="99"/>
+      <c r="AL91" s="99"/>
+      <c r="AM91" s="99"/>
+      <c r="AN91" s="99"/>
+      <c r="AO91" s="99"/>
+      <c r="AP91" s="99"/>
+      <c r="AQ91" s="99"/>
+      <c r="AR91" s="99"/>
+      <c r="AS91" s="99"/>
+      <c r="AT91" s="99"/>
+      <c r="AU91" s="99"/>
+      <c r="AV91" s="99"/>
+      <c r="AW91" s="99"/>
+      <c r="AX91" s="99"/>
+      <c r="AY91" s="99"/>
+      <c r="AZ91" s="99"/>
+      <c r="BA91" s="99"/>
+      <c r="BB91" s="99"/>
+      <c r="BC91" s="99"/>
+      <c r="BD91" s="99"/>
+      <c r="BE91" s="99"/>
+      <c r="BF91" s="99"/>
+      <c r="BG91" s="99"/>
+      <c r="BH91" s="99"/>
+      <c r="BI91" s="99"/>
+      <c r="BJ91" s="99"/>
+      <c r="BK91" s="99"/>
+      <c r="BL91" s="99"/>
+      <c r="BM91" s="99"/>
+      <c r="BN91" s="99"/>
+    </row>
+    <row r="92" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A92" s="59"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="164"/>
+      <c r="F92" s="164"/>
+      <c r="G92" s="66"/>
+      <c r="H92" s="67"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="95"/>
+      <c r="K92" s="99"/>
+      <c r="L92" s="99"/>
+      <c r="M92" s="99"/>
+      <c r="N92" s="99"/>
+      <c r="O92" s="99"/>
+      <c r="P92" s="99"/>
+      <c r="Q92" s="99"/>
+      <c r="R92" s="99"/>
+      <c r="S92" s="99"/>
+      <c r="T92" s="99"/>
+      <c r="U92" s="99"/>
+      <c r="V92" s="99"/>
+      <c r="W92" s="99"/>
+      <c r="X92" s="99"/>
+      <c r="Y92" s="99"/>
+      <c r="Z92" s="99"/>
+      <c r="AA92" s="99"/>
+      <c r="AB92" s="99"/>
+      <c r="AC92" s="99"/>
+      <c r="AD92" s="99"/>
+      <c r="AE92" s="99"/>
+      <c r="AF92" s="99"/>
+      <c r="AG92" s="99"/>
+      <c r="AH92" s="99"/>
+      <c r="AI92" s="99"/>
+      <c r="AJ92" s="99"/>
+      <c r="AK92" s="99"/>
+      <c r="AL92" s="99"/>
+      <c r="AM92" s="99"/>
+      <c r="AN92" s="99"/>
+      <c r="AO92" s="99"/>
+      <c r="AP92" s="99"/>
+      <c r="AQ92" s="99"/>
+      <c r="AR92" s="99"/>
+      <c r="AS92" s="99"/>
+      <c r="AT92" s="99"/>
+      <c r="AU92" s="99"/>
+      <c r="AV92" s="99"/>
+      <c r="AW92" s="99"/>
+      <c r="AX92" s="99"/>
+      <c r="AY92" s="99"/>
+      <c r="AZ92" s="99"/>
+      <c r="BA92" s="99"/>
+      <c r="BB92" s="99"/>
+      <c r="BC92" s="99"/>
+      <c r="BD92" s="99"/>
+      <c r="BE92" s="99"/>
+      <c r="BF92" s="99"/>
+      <c r="BG92" s="99"/>
+      <c r="BH92" s="99"/>
+      <c r="BI92" s="99"/>
+      <c r="BJ92" s="99"/>
+      <c r="BK92" s="99"/>
+      <c r="BL92" s="99"/>
+      <c r="BM92" s="99"/>
+      <c r="BN92" s="99"/>
+    </row>
+    <row r="93" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A93" s="59"/>
+      <c r="B93" s="64"/>
+      <c r="C93" s="64"/>
+      <c r="D93" s="65"/>
+      <c r="E93" s="164"/>
+      <c r="F93" s="164"/>
+      <c r="G93" s="66"/>
+      <c r="H93" s="67"/>
+      <c r="I93" s="68" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J93" s="95"/>
+      <c r="K93" s="99"/>
+      <c r="L93" s="99"/>
+      <c r="M93" s="99"/>
+      <c r="N93" s="99"/>
+      <c r="O93" s="99"/>
+      <c r="P93" s="99"/>
+      <c r="Q93" s="99"/>
+      <c r="R93" s="99"/>
+      <c r="S93" s="99"/>
+      <c r="T93" s="99"/>
+      <c r="U93" s="99"/>
+      <c r="V93" s="99"/>
+      <c r="W93" s="99"/>
+      <c r="X93" s="99"/>
+      <c r="Y93" s="99"/>
+      <c r="Z93" s="99"/>
+      <c r="AA93" s="99"/>
+      <c r="AB93" s="99"/>
+      <c r="AC93" s="99"/>
+      <c r="AD93" s="99"/>
+      <c r="AE93" s="99"/>
+      <c r="AF93" s="99"/>
+      <c r="AG93" s="99"/>
+      <c r="AH93" s="99"/>
+      <c r="AI93" s="99"/>
+      <c r="AJ93" s="99"/>
+      <c r="AK93" s="99"/>
+      <c r="AL93" s="99"/>
+      <c r="AM93" s="99"/>
+      <c r="AN93" s="99"/>
+      <c r="AO93" s="99"/>
+      <c r="AP93" s="99"/>
+      <c r="AQ93" s="99"/>
+      <c r="AR93" s="99"/>
+      <c r="AS93" s="99"/>
+      <c r="AT93" s="99"/>
+      <c r="AU93" s="99"/>
+      <c r="AV93" s="99"/>
+      <c r="AW93" s="99"/>
+      <c r="AX93" s="99"/>
+      <c r="AY93" s="99"/>
+      <c r="AZ93" s="99"/>
+      <c r="BA93" s="99"/>
+      <c r="BB93" s="99"/>
+      <c r="BC93" s="99"/>
+      <c r="BD93" s="99"/>
+      <c r="BE93" s="99"/>
+      <c r="BF93" s="99"/>
+      <c r="BG93" s="99"/>
+      <c r="BH93" s="99"/>
+      <c r="BI93" s="99"/>
+      <c r="BJ93" s="99"/>
+      <c r="BK93" s="99"/>
+      <c r="BL93" s="99"/>
+      <c r="BM93" s="99"/>
+      <c r="BN93" s="99"/>
+    </row>
+    <row r="94" spans="1:66" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A94" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="71"/>
+      <c r="C94" s="72"/>
+      <c r="D94" s="72"/>
+      <c r="E94" s="165"/>
+      <c r="F94" s="165"/>
+      <c r="G94" s="73"/>
+      <c r="H94" s="73"/>
+      <c r="I94" s="73"/>
+      <c r="J94" s="96"/>
+      <c r="K94" s="99"/>
+      <c r="L94" s="99"/>
+      <c r="M94" s="99"/>
+      <c r="N94" s="99"/>
+      <c r="O94" s="99"/>
+      <c r="P94" s="99"/>
+      <c r="Q94" s="99"/>
+      <c r="R94" s="99"/>
+      <c r="S94" s="99"/>
+      <c r="T94" s="99"/>
+      <c r="U94" s="99"/>
+      <c r="V94" s="99"/>
+      <c r="W94" s="99"/>
+      <c r="X94" s="99"/>
+      <c r="Y94" s="99"/>
+      <c r="Z94" s="99"/>
+      <c r="AA94" s="99"/>
+      <c r="AB94" s="99"/>
+      <c r="AC94" s="99"/>
+      <c r="AD94" s="99"/>
+      <c r="AE94" s="99"/>
+      <c r="AF94" s="99"/>
+      <c r="AG94" s="99"/>
+      <c r="AH94" s="99"/>
+      <c r="AI94" s="99"/>
+      <c r="AJ94" s="99"/>
+      <c r="AK94" s="99"/>
+      <c r="AL94" s="99"/>
+      <c r="AM94" s="99"/>
+      <c r="AN94" s="99"/>
+      <c r="AO94" s="99"/>
+      <c r="AP94" s="99"/>
+      <c r="AQ94" s="99"/>
+      <c r="AR94" s="99"/>
+      <c r="AS94" s="99"/>
+      <c r="AT94" s="99"/>
+      <c r="AU94" s="99"/>
+      <c r="AV94" s="99"/>
+      <c r="AW94" s="99"/>
+      <c r="AX94" s="99"/>
+      <c r="AY94" s="99"/>
+      <c r="AZ94" s="99"/>
+      <c r="BA94" s="99"/>
+      <c r="BB94" s="99"/>
+      <c r="BC94" s="99"/>
+      <c r="BD94" s="99"/>
+      <c r="BE94" s="99"/>
+      <c r="BF94" s="99"/>
+      <c r="BG94" s="99"/>
+      <c r="BH94" s="99"/>
+      <c r="BI94" s="99"/>
+      <c r="BJ94" s="99"/>
+      <c r="BK94" s="99"/>
+      <c r="BL94" s="99"/>
+      <c r="BM94" s="99"/>
+      <c r="BN94" s="99"/>
+    </row>
+    <row r="95" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A95" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B95" s="76"/>
+      <c r="C95" s="76"/>
+      <c r="D95" s="76"/>
+      <c r="E95" s="166"/>
+      <c r="F95" s="166"/>
+      <c r="G95" s="76"/>
+      <c r="H95" s="76"/>
+      <c r="I95" s="76"/>
+      <c r="J95" s="96"/>
+      <c r="K95" s="99"/>
+      <c r="L95" s="99"/>
+      <c r="M95" s="99"/>
+      <c r="N95" s="99"/>
+      <c r="O95" s="99"/>
+      <c r="P95" s="99"/>
+      <c r="Q95" s="99"/>
+      <c r="R95" s="99"/>
+      <c r="S95" s="99"/>
+      <c r="T95" s="99"/>
+      <c r="U95" s="99"/>
+      <c r="V95" s="99"/>
+      <c r="W95" s="99"/>
+      <c r="X95" s="99"/>
+      <c r="Y95" s="99"/>
+      <c r="Z95" s="99"/>
+      <c r="AA95" s="99"/>
+      <c r="AB95" s="99"/>
+      <c r="AC95" s="99"/>
+      <c r="AD95" s="99"/>
+      <c r="AE95" s="99"/>
+      <c r="AF95" s="99"/>
+      <c r="AG95" s="99"/>
+      <c r="AH95" s="99"/>
+      <c r="AI95" s="99"/>
+      <c r="AJ95" s="99"/>
+      <c r="AK95" s="99"/>
+      <c r="AL95" s="99"/>
+      <c r="AM95" s="99"/>
+      <c r="AN95" s="99"/>
+      <c r="AO95" s="99"/>
+      <c r="AP95" s="99"/>
+      <c r="AQ95" s="99"/>
+      <c r="AR95" s="99"/>
+      <c r="AS95" s="99"/>
+      <c r="AT95" s="99"/>
+      <c r="AU95" s="99"/>
+      <c r="AV95" s="99"/>
+      <c r="AW95" s="99"/>
+      <c r="AX95" s="99"/>
+      <c r="AY95" s="99"/>
+      <c r="AZ95" s="99"/>
+      <c r="BA95" s="99"/>
+      <c r="BB95" s="99"/>
+      <c r="BC95" s="99"/>
+      <c r="BD95" s="99"/>
+      <c r="BE95" s="99"/>
+      <c r="BF95" s="99"/>
+      <c r="BG95" s="99"/>
+      <c r="BH95" s="99"/>
+      <c r="BI95" s="99"/>
+      <c r="BJ95" s="99"/>
+      <c r="BK95" s="99"/>
+      <c r="BL95" s="99"/>
+      <c r="BM95" s="99"/>
+      <c r="BN95" s="99"/>
+    </row>
+    <row r="96" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A96" s="119" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B96" s="120" t="s">
+        <v>76</v>
+      </c>
+      <c r="C96" s="77"/>
+      <c r="D96" s="78"/>
+      <c r="E96" s="161"/>
+      <c r="F96" s="162" t="str">
+        <f t="shared" ref="F96:F99" si="13">IF(ISBLANK(E96)," - ",IF(G96=0,E96,E96+G96-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G96" s="61"/>
+      <c r="H96" s="62"/>
+      <c r="I96" s="79" t="str">
+        <f>IF(OR(F96=0,E96=0)," - ",NETWORKDAYS(E96,F96))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J96" s="97"/>
+      <c r="K96" s="99"/>
+      <c r="L96" s="99"/>
+      <c r="M96" s="99"/>
+      <c r="N96" s="99"/>
+      <c r="O96" s="99"/>
+      <c r="P96" s="99"/>
+      <c r="Q96" s="99"/>
+      <c r="R96" s="99"/>
+      <c r="S96" s="99"/>
+      <c r="T96" s="99"/>
+      <c r="U96" s="99"/>
+      <c r="V96" s="99"/>
+      <c r="W96" s="99"/>
+      <c r="X96" s="99"/>
+      <c r="Y96" s="99"/>
+      <c r="Z96" s="99"/>
+      <c r="AA96" s="99"/>
+      <c r="AB96" s="99"/>
+      <c r="AC96" s="99"/>
+      <c r="AD96" s="99"/>
+      <c r="AE96" s="99"/>
+      <c r="AF96" s="99"/>
+      <c r="AG96" s="99"/>
+      <c r="AH96" s="99"/>
+      <c r="AI96" s="99"/>
+      <c r="AJ96" s="99"/>
+      <c r="AK96" s="99"/>
+      <c r="AL96" s="99"/>
+      <c r="AM96" s="99"/>
+      <c r="AN96" s="99"/>
+      <c r="AO96" s="99"/>
+      <c r="AP96" s="99"/>
+      <c r="AQ96" s="99"/>
+      <c r="AR96" s="99"/>
+      <c r="AS96" s="99"/>
+      <c r="AT96" s="99"/>
+      <c r="AU96" s="99"/>
+      <c r="AV96" s="99"/>
+      <c r="AW96" s="99"/>
+      <c r="AX96" s="99"/>
+      <c r="AY96" s="99"/>
+      <c r="AZ96" s="99"/>
+      <c r="BA96" s="99"/>
+      <c r="BB96" s="99"/>
+      <c r="BC96" s="99"/>
+      <c r="BD96" s="99"/>
+      <c r="BE96" s="99"/>
+      <c r="BF96" s="99"/>
+      <c r="BG96" s="99"/>
+      <c r="BH96" s="99"/>
+      <c r="BI96" s="99"/>
+      <c r="BJ96" s="99"/>
+      <c r="BK96" s="99"/>
+      <c r="BL96" s="99"/>
+      <c r="BM96" s="99"/>
+      <c r="BN96" s="99"/>
+    </row>
+    <row r="97" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A97" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B97" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="C97" s="80"/>
+      <c r="D97" s="78"/>
+      <c r="E97" s="161"/>
+      <c r="F97" s="162" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G97" s="61"/>
+      <c r="H97" s="62"/>
+      <c r="I97" s="79" t="str">
+        <f t="shared" ref="I97:I99" si="14">IF(OR(F97=0,E97=0)," - ",NETWORKDAYS(E97,F97))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J97" s="97"/>
+      <c r="K97" s="99"/>
+      <c r="L97" s="99"/>
+      <c r="M97" s="99"/>
+      <c r="N97" s="99"/>
+      <c r="O97" s="99"/>
+      <c r="P97" s="99"/>
+      <c r="Q97" s="99"/>
+      <c r="R97" s="99"/>
+      <c r="S97" s="99"/>
+      <c r="T97" s="99"/>
+      <c r="U97" s="99"/>
+      <c r="V97" s="99"/>
+      <c r="W97" s="99"/>
+      <c r="X97" s="99"/>
+      <c r="Y97" s="99"/>
+      <c r="Z97" s="99"/>
+      <c r="AA97" s="99"/>
+      <c r="AB97" s="99"/>
+      <c r="AC97" s="99"/>
+      <c r="AD97" s="99"/>
+      <c r="AE97" s="99"/>
+      <c r="AF97" s="99"/>
+      <c r="AG97" s="99"/>
+      <c r="AH97" s="99"/>
+      <c r="AI97" s="99"/>
+      <c r="AJ97" s="99"/>
+      <c r="AK97" s="99"/>
+      <c r="AL97" s="99"/>
+      <c r="AM97" s="99"/>
+      <c r="AN97" s="99"/>
+      <c r="AO97" s="99"/>
+      <c r="AP97" s="99"/>
+      <c r="AQ97" s="99"/>
+      <c r="AR97" s="99"/>
+      <c r="AS97" s="99"/>
+      <c r="AT97" s="99"/>
+      <c r="AU97" s="99"/>
+      <c r="AV97" s="99"/>
+      <c r="AW97" s="99"/>
+      <c r="AX97" s="99"/>
+      <c r="AY97" s="99"/>
+      <c r="AZ97" s="99"/>
+      <c r="BA97" s="99"/>
+      <c r="BB97" s="99"/>
+      <c r="BC97" s="99"/>
+      <c r="BD97" s="99"/>
+      <c r="BE97" s="99"/>
+      <c r="BF97" s="99"/>
+      <c r="BG97" s="99"/>
+      <c r="BH97" s="99"/>
+      <c r="BI97" s="99"/>
+      <c r="BJ97" s="99"/>
+      <c r="BK97" s="99"/>
+      <c r="BL97" s="99"/>
+      <c r="BM97" s="99"/>
+      <c r="BN97" s="99"/>
+    </row>
+    <row r="98" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A98" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
+      </c>
+      <c r="B98" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="C98" s="80"/>
+      <c r="D98" s="78"/>
+      <c r="E98" s="161"/>
+      <c r="F98" s="162" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G98" s="61"/>
+      <c r="H98" s="62"/>
+      <c r="I98" s="79" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J98" s="97"/>
+      <c r="K98" s="99"/>
+      <c r="L98" s="99"/>
+      <c r="M98" s="99"/>
+      <c r="N98" s="99"/>
+      <c r="O98" s="99"/>
+      <c r="P98" s="99"/>
+      <c r="Q98" s="99"/>
+      <c r="R98" s="99"/>
+      <c r="S98" s="99"/>
+      <c r="T98" s="99"/>
+      <c r="U98" s="99"/>
+      <c r="V98" s="99"/>
+      <c r="W98" s="99"/>
+      <c r="X98" s="99"/>
+      <c r="Y98" s="99"/>
+      <c r="Z98" s="99"/>
+      <c r="AA98" s="99"/>
+      <c r="AB98" s="99"/>
+      <c r="AC98" s="99"/>
+      <c r="AD98" s="99"/>
+      <c r="AE98" s="99"/>
+      <c r="AF98" s="99"/>
+      <c r="AG98" s="99"/>
+      <c r="AH98" s="99"/>
+      <c r="AI98" s="99"/>
+      <c r="AJ98" s="99"/>
+      <c r="AK98" s="99"/>
+      <c r="AL98" s="99"/>
+      <c r="AM98" s="99"/>
+      <c r="AN98" s="99"/>
+      <c r="AO98" s="99"/>
+      <c r="AP98" s="99"/>
+      <c r="AQ98" s="99"/>
+      <c r="AR98" s="99"/>
+      <c r="AS98" s="99"/>
+      <c r="AT98" s="99"/>
+      <c r="AU98" s="99"/>
+      <c r="AV98" s="99"/>
+      <c r="AW98" s="99"/>
+      <c r="AX98" s="99"/>
+      <c r="AY98" s="99"/>
+      <c r="AZ98" s="99"/>
+      <c r="BA98" s="99"/>
+      <c r="BB98" s="99"/>
+      <c r="BC98" s="99"/>
+      <c r="BD98" s="99"/>
+      <c r="BE98" s="99"/>
+      <c r="BF98" s="99"/>
+      <c r="BG98" s="99"/>
+      <c r="BH98" s="99"/>
+      <c r="BI98" s="99"/>
+      <c r="BJ98" s="99"/>
+      <c r="BK98" s="99"/>
+      <c r="BL98" s="99"/>
+      <c r="BM98" s="99"/>
+      <c r="BN98" s="99"/>
+    </row>
+    <row r="99" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A99" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="B99" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="C99" s="80"/>
+      <c r="D99" s="78"/>
+      <c r="E99" s="161"/>
+      <c r="F99" s="162" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G99" s="61"/>
+      <c r="H99" s="62"/>
+      <c r="I99" s="79" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J99" s="97"/>
+      <c r="K99" s="99"/>
+      <c r="L99" s="99"/>
+      <c r="M99" s="99"/>
+      <c r="N99" s="99"/>
+      <c r="O99" s="99"/>
+      <c r="P99" s="99"/>
+      <c r="Q99" s="99"/>
+      <c r="R99" s="99"/>
+      <c r="S99" s="99"/>
+      <c r="T99" s="99"/>
+      <c r="U99" s="99"/>
+      <c r="V99" s="99"/>
+      <c r="W99" s="99"/>
+      <c r="X99" s="99"/>
+      <c r="Y99" s="99"/>
+      <c r="Z99" s="99"/>
+      <c r="AA99" s="99"/>
+      <c r="AB99" s="99"/>
+      <c r="AC99" s="99"/>
+      <c r="AD99" s="99"/>
+      <c r="AE99" s="99"/>
+      <c r="AF99" s="99"/>
+      <c r="AG99" s="99"/>
+      <c r="AH99" s="99"/>
+      <c r="AI99" s="99"/>
+      <c r="AJ99" s="99"/>
+      <c r="AK99" s="99"/>
+      <c r="AL99" s="99"/>
+      <c r="AM99" s="99"/>
+      <c r="AN99" s="99"/>
+      <c r="AO99" s="99"/>
+      <c r="AP99" s="99"/>
+      <c r="AQ99" s="99"/>
+      <c r="AR99" s="99"/>
+      <c r="AS99" s="99"/>
+      <c r="AT99" s="99"/>
+      <c r="AU99" s="99"/>
+      <c r="AV99" s="99"/>
+      <c r="AW99" s="99"/>
+      <c r="AX99" s="99"/>
+      <c r="AY99" s="99"/>
+      <c r="AZ99" s="99"/>
+      <c r="BA99" s="99"/>
+      <c r="BB99" s="99"/>
+      <c r="BC99" s="99"/>
+      <c r="BD99" s="99"/>
+      <c r="BE99" s="99"/>
+      <c r="BF99" s="99"/>
+      <c r="BG99" s="99"/>
+      <c r="BH99" s="99"/>
+      <c r="BI99" s="99"/>
+      <c r="BJ99" s="99"/>
+      <c r="BK99" s="99"/>
+      <c r="BL99" s="99"/>
+      <c r="BM99" s="99"/>
+      <c r="BN99" s="99"/>
+    </row>
+    <row r="100" spans="1:66" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="151" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
         <v>► Watch How to Create a Gantt Chart in Excel</v>
       </c>
-      <c r="B89" s="30"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="167"/>
-      <c r="F89" s="167"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="30"/>
-      <c r="I89" s="30"/>
-      <c r="J89" s="30"/>
-      <c r="K89" s="30"/>
-      <c r="L89" s="30"/>
-      <c r="M89" s="30"/>
-      <c r="N89" s="30"/>
-      <c r="O89" s="30"/>
-      <c r="P89" s="30"/>
-      <c r="Q89" s="30"/>
-      <c r="R89" s="30"/>
-      <c r="S89" s="30"/>
-      <c r="T89" s="30"/>
-      <c r="U89" s="30"/>
-      <c r="V89" s="30"/>
-      <c r="W89" s="30"/>
-      <c r="X89" s="30"/>
-      <c r="Y89" s="30"/>
-      <c r="Z89" s="30"/>
-      <c r="AA89" s="30"/>
-      <c r="AB89" s="30"/>
-      <c r="AC89" s="30"/>
-      <c r="AD89" s="30"/>
-      <c r="AE89" s="30"/>
-      <c r="AF89" s="30"/>
-      <c r="AG89" s="30"/>
-      <c r="AH89" s="30"/>
-      <c r="AI89" s="30"/>
-      <c r="AJ89" s="30"/>
-      <c r="AK89" s="30"/>
-      <c r="AL89" s="30"/>
-      <c r="AM89" s="30"/>
-      <c r="AN89" s="30"/>
-      <c r="AO89" s="30"/>
-      <c r="AP89" s="30"/>
-      <c r="AQ89" s="30"/>
-      <c r="AR89" s="30"/>
-      <c r="AS89" s="30"/>
-      <c r="AT89" s="30"/>
-      <c r="AU89" s="30"/>
-      <c r="AV89" s="30"/>
-      <c r="AW89" s="30"/>
-      <c r="AX89" s="30"/>
-      <c r="AY89" s="30"/>
-      <c r="AZ89" s="30"/>
-      <c r="BA89" s="30"/>
-      <c r="BB89" s="30"/>
-      <c r="BC89" s="30"/>
-      <c r="BD89" s="30"/>
-      <c r="BE89" s="30"/>
-      <c r="BF89" s="30"/>
-      <c r="BG89" s="30"/>
-      <c r="BH89" s="30"/>
-      <c r="BI89" s="30"/>
-      <c r="BJ89" s="30"/>
-      <c r="BK89" s="30"/>
-      <c r="BL89" s="30"/>
-      <c r="BM89" s="30"/>
-      <c r="BN89" s="30"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="167"/>
+      <c r="F100" s="167"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="30"/>
+      <c r="J100" s="30"/>
+      <c r="K100" s="30"/>
+      <c r="L100" s="30"/>
+      <c r="M100" s="30"/>
+      <c r="N100" s="30"/>
+      <c r="O100" s="30"/>
+      <c r="P100" s="30"/>
+      <c r="Q100" s="30"/>
+      <c r="R100" s="30"/>
+      <c r="S100" s="30"/>
+      <c r="T100" s="30"/>
+      <c r="U100" s="30"/>
+      <c r="V100" s="30"/>
+      <c r="W100" s="30"/>
+      <c r="X100" s="30"/>
+      <c r="Y100" s="30"/>
+      <c r="Z100" s="30"/>
+      <c r="AA100" s="30"/>
+      <c r="AB100" s="30"/>
+      <c r="AC100" s="30"/>
+      <c r="AD100" s="30"/>
+      <c r="AE100" s="30"/>
+      <c r="AF100" s="30"/>
+      <c r="AG100" s="30"/>
+      <c r="AH100" s="30"/>
+      <c r="AI100" s="30"/>
+      <c r="AJ100" s="30"/>
+      <c r="AK100" s="30"/>
+      <c r="AL100" s="30"/>
+      <c r="AM100" s="30"/>
+      <c r="AN100" s="30"/>
+      <c r="AO100" s="30"/>
+      <c r="AP100" s="30"/>
+      <c r="AQ100" s="30"/>
+      <c r="AR100" s="30"/>
+      <c r="AS100" s="30"/>
+      <c r="AT100" s="30"/>
+      <c r="AU100" s="30"/>
+      <c r="AV100" s="30"/>
+      <c r="AW100" s="30"/>
+      <c r="AX100" s="30"/>
+      <c r="AY100" s="30"/>
+      <c r="AZ100" s="30"/>
+      <c r="BA100" s="30"/>
+      <c r="BB100" s="30"/>
+      <c r="BC100" s="30"/>
+      <c r="BD100" s="30"/>
+      <c r="BE100" s="30"/>
+      <c r="BF100" s="30"/>
+      <c r="BG100" s="30"/>
+      <c r="BH100" s="30"/>
+      <c r="BI100" s="30"/>
+      <c r="BJ100" s="30"/>
+      <c r="BK100" s="30"/>
+      <c r="BL100" s="30"/>
+      <c r="BM100" s="30"/>
+      <c r="BN100" s="30"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -11618,10 +12545,19 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H73 H79:H88">
-    <cfRule type="dataBar" priority="6">
+  <conditionalFormatting sqref="H90:H99 H82:H84 H8:H79">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11635,25 +12571,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="4" priority="49">
+    <cfRule type="expression" dxfId="4" priority="51">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN88">
-    <cfRule type="expression" dxfId="3" priority="52">
+  <conditionalFormatting sqref="K8:BN99">
+    <cfRule type="expression" dxfId="3" priority="54">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="53">
+    <cfRule type="expression" dxfId="2" priority="55">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN73 K79:BN88">
-    <cfRule type="expression" dxfId="1" priority="12">
+  <conditionalFormatting sqref="K90:BN99 K6:BN84">
+    <cfRule type="expression" dxfId="1" priority="14">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74:H78">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="H85:H89">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11666,9 +12602,37 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K74:BN78">
-    <cfRule type="expression" dxfId="0" priority="2">
+  <conditionalFormatting sqref="K85:BN89">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{392BF783-6F84-4AE1-9909-0D933F104F59}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7442C97C-5EBD-4EE1-AFFB-9CBCA499BBD1}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -11681,8 +12645,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 A82:B82 A84:B84 B83 E25 E57 E69 E82:H84 G25:H25 G57:H57 G69:H69 H46 G85:G88 H27 H36 H68 H58 H60 H73 H70 H71 H72" unlockedFormula="1"/>
-    <ignoredError sqref="A69 A57 A25" formula="1"/>
+    <ignoredError sqref="H9 A93:B93 A95:B95 B94 E25 E68 E79 E93:H95 G25:H25 G68:H68 G79:H79 H45 G96:G99 H27 H36 H69 H71 H84 H82 H83" unlockedFormula="1"/>
+    <ignoredError sqref="A79 A68 A25" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -11730,7 +12694,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H73 H79:H88</xm:sqref>
+          <xm:sqref>H90:H99 H82:H84 H8:H79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{81583CEC-7F5F-4E46-98E4-AC29FDBC59D0}">
@@ -11745,7 +12709,37 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H74:H78</xm:sqref>
+          <xm:sqref>H85:H89</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{392BF783-6F84-4AE1-9909-0D933F104F59}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H81</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7442C97C-5EBD-4EE1-AFFB-9CBCA499BBD1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H80</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/gantt-chart_L.xlsx
+++ b/gantt-chart_L.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HTCS5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7077EA91-9685-4969-89FD-DFA65D3A8880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3063E8AE-3BCC-43E9-93BD-A146726C608B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$93</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$94</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="234">
   <si>
     <t>WBS</t>
   </si>
@@ -1551,9 +1551,6 @@
     <t>Draw Overall Class Diagrams</t>
   </si>
   <si>
-    <t>1.7.1</t>
-  </si>
-  <si>
     <t>Finalise On Class And Other Diagrams</t>
   </si>
   <si>
@@ -1810,6 +1807,12 @@
   </si>
   <si>
     <t>Standard Notation</t>
+  </si>
+  <si>
+    <t>Risks and Issues</t>
+  </si>
+  <si>
+    <t>1.8.1</t>
   </si>
 </sst>
 </file>
@@ -3195,13 +3198,6 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3211,10 +3207,6 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="166" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3223,6 +3215,17 @@
     </xf>
     <xf numFmtId="166" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4067,11 +4070,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN100"/>
+  <dimension ref="A1:BN101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S49" sqref="S49"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4099,29 +4102,29 @@
       <c r="E1" s="152"/>
       <c r="F1" s="152"/>
       <c r="I1" s="121"/>
-      <c r="K1" s="177" t="s">
+      <c r="K1" s="183" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
-      <c r="N1" s="177"/>
-      <c r="O1" s="177"/>
-      <c r="P1" s="177"/>
-      <c r="Q1" s="177"/>
-      <c r="R1" s="177"/>
-      <c r="S1" s="177"/>
-      <c r="T1" s="177"/>
-      <c r="U1" s="177"/>
-      <c r="V1" s="177"/>
-      <c r="W1" s="177"/>
-      <c r="X1" s="177"/>
-      <c r="Y1" s="177"/>
-      <c r="Z1" s="177"/>
-      <c r="AA1" s="177"/>
-      <c r="AB1" s="177"/>
-      <c r="AC1" s="177"/>
-      <c r="AD1" s="177"/>
-      <c r="AE1" s="177"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
+      <c r="O1" s="183"/>
+      <c r="P1" s="183"/>
+      <c r="Q1" s="183"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="183"/>
+      <c r="T1" s="183"/>
+      <c r="U1" s="183"/>
+      <c r="V1" s="183"/>
+      <c r="W1" s="183"/>
+      <c r="X1" s="183"/>
+      <c r="Y1" s="183"/>
+      <c r="Z1" s="183"/>
+      <c r="AA1" s="183"/>
+      <c r="AB1" s="183"/>
+      <c r="AC1" s="183"/>
+      <c r="AD1" s="183"/>
+      <c r="AE1" s="183"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
@@ -4166,11 +4169,11 @@
       <c r="B4" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="182">
+      <c r="C4" s="185">
         <v>44459</v>
       </c>
-      <c r="D4" s="182"/>
-      <c r="E4" s="182"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
       <c r="F4" s="155"/>
       <c r="G4" s="105" t="s">
         <v>73</v>
@@ -4180,182 +4183,182 @@
       </c>
       <c r="I4" s="103"/>
       <c r="J4" s="49"/>
-      <c r="K4" s="179" t="str">
+      <c r="K4" s="177" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="180"/>
-      <c r="M4" s="180"/>
-      <c r="N4" s="180"/>
-      <c r="O4" s="180"/>
-      <c r="P4" s="180"/>
-      <c r="Q4" s="181"/>
-      <c r="R4" s="179" t="str">
+      <c r="L4" s="178"/>
+      <c r="M4" s="178"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="178"/>
+      <c r="P4" s="178"/>
+      <c r="Q4" s="179"/>
+      <c r="R4" s="177" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="180"/>
-      <c r="T4" s="180"/>
-      <c r="U4" s="180"/>
-      <c r="V4" s="180"/>
-      <c r="W4" s="180"/>
-      <c r="X4" s="181"/>
-      <c r="Y4" s="179" t="str">
+      <c r="S4" s="178"/>
+      <c r="T4" s="178"/>
+      <c r="U4" s="178"/>
+      <c r="V4" s="178"/>
+      <c r="W4" s="178"/>
+      <c r="X4" s="179"/>
+      <c r="Y4" s="177" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="180"/>
-      <c r="AA4" s="180"/>
-      <c r="AB4" s="180"/>
-      <c r="AC4" s="180"/>
-      <c r="AD4" s="180"/>
-      <c r="AE4" s="181"/>
-      <c r="AF4" s="179" t="str">
+      <c r="Z4" s="178"/>
+      <c r="AA4" s="178"/>
+      <c r="AB4" s="178"/>
+      <c r="AC4" s="178"/>
+      <c r="AD4" s="178"/>
+      <c r="AE4" s="179"/>
+      <c r="AF4" s="177" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="180"/>
-      <c r="AH4" s="180"/>
-      <c r="AI4" s="180"/>
-      <c r="AJ4" s="180"/>
-      <c r="AK4" s="180"/>
-      <c r="AL4" s="181"/>
-      <c r="AM4" s="179" t="str">
+      <c r="AG4" s="178"/>
+      <c r="AH4" s="178"/>
+      <c r="AI4" s="178"/>
+      <c r="AJ4" s="178"/>
+      <c r="AK4" s="178"/>
+      <c r="AL4" s="179"/>
+      <c r="AM4" s="177" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="180"/>
-      <c r="AO4" s="180"/>
-      <c r="AP4" s="180"/>
-      <c r="AQ4" s="180"/>
-      <c r="AR4" s="180"/>
-      <c r="AS4" s="181"/>
-      <c r="AT4" s="179" t="str">
+      <c r="AN4" s="178"/>
+      <c r="AO4" s="178"/>
+      <c r="AP4" s="178"/>
+      <c r="AQ4" s="178"/>
+      <c r="AR4" s="178"/>
+      <c r="AS4" s="179"/>
+      <c r="AT4" s="177" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="180"/>
-      <c r="AV4" s="180"/>
-      <c r="AW4" s="180"/>
-      <c r="AX4" s="180"/>
-      <c r="AY4" s="180"/>
-      <c r="AZ4" s="181"/>
-      <c r="BA4" s="179" t="str">
+      <c r="AU4" s="178"/>
+      <c r="AV4" s="178"/>
+      <c r="AW4" s="178"/>
+      <c r="AX4" s="178"/>
+      <c r="AY4" s="178"/>
+      <c r="AZ4" s="179"/>
+      <c r="BA4" s="177" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="180"/>
-      <c r="BC4" s="180"/>
-      <c r="BD4" s="180"/>
-      <c r="BE4" s="180"/>
-      <c r="BF4" s="180"/>
-      <c r="BG4" s="181"/>
-      <c r="BH4" s="179" t="str">
+      <c r="BB4" s="178"/>
+      <c r="BC4" s="178"/>
+      <c r="BD4" s="178"/>
+      <c r="BE4" s="178"/>
+      <c r="BF4" s="178"/>
+      <c r="BG4" s="179"/>
+      <c r="BH4" s="177" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="180"/>
-      <c r="BJ4" s="180"/>
-      <c r="BK4" s="180"/>
-      <c r="BL4" s="180"/>
-      <c r="BM4" s="180"/>
-      <c r="BN4" s="181"/>
+      <c r="BI4" s="178"/>
+      <c r="BJ4" s="178"/>
+      <c r="BK4" s="178"/>
+      <c r="BL4" s="178"/>
+      <c r="BM4" s="178"/>
+      <c r="BN4" s="179"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="102"/>
       <c r="B5" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="178" t="s">
+      <c r="C5" s="184" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
       <c r="F5" s="156"/>
       <c r="G5" s="104"/>
       <c r="H5" s="104"/>
       <c r="I5" s="104"/>
       <c r="J5" s="49"/>
-      <c r="K5" s="183">
+      <c r="K5" s="180">
         <f>K6</f>
         <v>44459</v>
       </c>
-      <c r="L5" s="184"/>
-      <c r="M5" s="184"/>
-      <c r="N5" s="184"/>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="185"/>
-      <c r="R5" s="183">
+      <c r="L5" s="181"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="181"/>
+      <c r="O5" s="181"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="180">
         <f>R6</f>
         <v>44466</v>
       </c>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="185"/>
-      <c r="Y5" s="183">
+      <c r="S5" s="181"/>
+      <c r="T5" s="181"/>
+      <c r="U5" s="181"/>
+      <c r="V5" s="181"/>
+      <c r="W5" s="181"/>
+      <c r="X5" s="182"/>
+      <c r="Y5" s="180">
         <f>Y6</f>
         <v>44473</v>
       </c>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="184"/>
-      <c r="AC5" s="184"/>
-      <c r="AD5" s="184"/>
-      <c r="AE5" s="185"/>
-      <c r="AF5" s="183">
+      <c r="Z5" s="181"/>
+      <c r="AA5" s="181"/>
+      <c r="AB5" s="181"/>
+      <c r="AC5" s="181"/>
+      <c r="AD5" s="181"/>
+      <c r="AE5" s="182"/>
+      <c r="AF5" s="180">
         <f>AF6</f>
         <v>44480</v>
       </c>
-      <c r="AG5" s="184"/>
-      <c r="AH5" s="184"/>
-      <c r="AI5" s="184"/>
-      <c r="AJ5" s="184"/>
-      <c r="AK5" s="184"/>
-      <c r="AL5" s="185"/>
-      <c r="AM5" s="183">
+      <c r="AG5" s="181"/>
+      <c r="AH5" s="181"/>
+      <c r="AI5" s="181"/>
+      <c r="AJ5" s="181"/>
+      <c r="AK5" s="181"/>
+      <c r="AL5" s="182"/>
+      <c r="AM5" s="180">
         <f>AM6</f>
         <v>44487</v>
       </c>
-      <c r="AN5" s="184"/>
-      <c r="AO5" s="184"/>
-      <c r="AP5" s="184"/>
-      <c r="AQ5" s="184"/>
-      <c r="AR5" s="184"/>
-      <c r="AS5" s="185"/>
-      <c r="AT5" s="183">
+      <c r="AN5" s="181"/>
+      <c r="AO5" s="181"/>
+      <c r="AP5" s="181"/>
+      <c r="AQ5" s="181"/>
+      <c r="AR5" s="181"/>
+      <c r="AS5" s="182"/>
+      <c r="AT5" s="180">
         <f>AT6</f>
         <v>44494</v>
       </c>
-      <c r="AU5" s="184"/>
-      <c r="AV5" s="184"/>
-      <c r="AW5" s="184"/>
-      <c r="AX5" s="184"/>
-      <c r="AY5" s="184"/>
-      <c r="AZ5" s="185"/>
-      <c r="BA5" s="183">
+      <c r="AU5" s="181"/>
+      <c r="AV5" s="181"/>
+      <c r="AW5" s="181"/>
+      <c r="AX5" s="181"/>
+      <c r="AY5" s="181"/>
+      <c r="AZ5" s="182"/>
+      <c r="BA5" s="180">
         <f>BA6</f>
         <v>44501</v>
       </c>
-      <c r="BB5" s="184"/>
-      <c r="BC5" s="184"/>
-      <c r="BD5" s="184"/>
-      <c r="BE5" s="184"/>
-      <c r="BF5" s="184"/>
-      <c r="BG5" s="185"/>
-      <c r="BH5" s="183">
+      <c r="BB5" s="181"/>
+      <c r="BC5" s="181"/>
+      <c r="BD5" s="181"/>
+      <c r="BE5" s="181"/>
+      <c r="BF5" s="181"/>
+      <c r="BG5" s="182"/>
+      <c r="BH5" s="180">
         <f>BH6</f>
         <v>44508</v>
       </c>
-      <c r="BI5" s="184"/>
-      <c r="BJ5" s="184"/>
-      <c r="BK5" s="184"/>
-      <c r="BL5" s="184"/>
-      <c r="BM5" s="184"/>
-      <c r="BN5" s="185"/>
+      <c r="BI5" s="181"/>
+      <c r="BJ5" s="181"/>
+      <c r="BK5" s="181"/>
+      <c r="BL5" s="181"/>
+      <c r="BM5" s="181"/>
+      <c r="BN5" s="182"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
@@ -4865,7 +4868,7 @@
       <c r="G8" s="87"/>
       <c r="H8" s="88"/>
       <c r="I8" s="89" t="str">
-        <f t="shared" ref="I8:I93" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I94" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="92"/>
@@ -4928,7 +4931,7 @@
     </row>
     <row r="9" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="59" t="str">
-        <f t="shared" ref="A9:A23" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A9:A24" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
       <c r="B9" s="115" t="s">
@@ -5029,7 +5032,7 @@
         <v>44460</v>
       </c>
       <c r="F10" s="162">
-        <f t="shared" ref="F10:F84" si="6">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
+        <f t="shared" ref="F10:F85" si="6">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
         <v>44461</v>
       </c>
       <c r="G10" s="61">
@@ -5106,7 +5109,7 @@
         <v>1.3</v>
       </c>
       <c r="B11" s="115" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="60" t="s">
         <v>136</v>
@@ -5117,17 +5120,17 @@
       </c>
       <c r="F11" s="162">
         <f t="shared" si="6"/>
-        <v>44466</v>
+        <v>44465</v>
       </c>
       <c r="G11" s="61">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11" s="62">
         <v>0</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J11" s="93"/>
       <c r="K11" s="99"/>
@@ -5192,7 +5195,7 @@
         <v>140</v>
       </c>
       <c r="B12" s="117" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" s="60" t="s">
         <v>136</v>
@@ -5273,10 +5276,10 @@
     </row>
     <row r="13" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" s="117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="60" t="s">
         <v>136</v>
@@ -5357,10 +5360,10 @@
     </row>
     <row r="14" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14" s="117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C14" s="60" t="s">
         <v>136</v>
@@ -5441,10 +5444,10 @@
     </row>
     <row r="15" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="117" t="s">
         <v>158</v>
-      </c>
-      <c r="B15" s="117" t="s">
-        <v>159</v>
       </c>
       <c r="C15" s="60" t="s">
         <v>136</v>
@@ -5525,10 +5528,10 @@
     </row>
     <row r="16" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="117" t="s">
         <v>160</v>
-      </c>
-      <c r="B16" s="117" t="s">
-        <v>161</v>
       </c>
       <c r="C16" s="60" t="s">
         <v>136</v>
@@ -5609,10 +5612,10 @@
     </row>
     <row r="17" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" s="117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" s="60" t="s">
         <v>136</v>
@@ -5693,10 +5696,10 @@
     </row>
     <row r="18" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="59" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" s="117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C18" s="60" t="s">
         <v>136</v>
@@ -5777,10 +5780,10 @@
     </row>
     <row r="19" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="117" t="s">
         <v>166</v>
-      </c>
-      <c r="B19" s="117" t="s">
-        <v>167</v>
       </c>
       <c r="C19" s="60" t="s">
         <v>136</v>
@@ -5865,7 +5868,7 @@
         <v>1.4</v>
       </c>
       <c r="B20" s="115" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C20" s="60" t="s">
         <v>136</v>
@@ -5875,18 +5878,18 @@
         <v>44464</v>
       </c>
       <c r="F20" s="162">
-        <f t="shared" si="7"/>
-        <v>44466</v>
+        <f>IF(ISBLANK(E20)," - ",IF(G20=0,E20,E20+G20-1))</f>
+        <v>44465</v>
       </c>
       <c r="G20" s="61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" s="62">
         <v>0.75</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="93"/>
       <c r="K20" s="99"/>
@@ -5947,30 +5950,27 @@
       <c r="BN20" s="99"/>
     </row>
     <row r="21" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="59" t="str">
-        <f t="shared" si="5"/>
+      <c r="A21" s="59">
         <v>1.5</v>
       </c>
       <c r="B21" s="115" t="s">
-        <v>141</v>
+        <v>232</v>
       </c>
       <c r="C21" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D21" s="116"/>
       <c r="E21" s="161">
-        <v>44467</v>
+        <v>44466</v>
       </c>
       <c r="F21" s="162">
-        <f t="shared" si="6"/>
-        <v>44467</v>
+        <f>IF(ISBLANK(E21)," - ",IF(G21=0,E21,E21+G21-1))</f>
+        <v>44466</v>
       </c>
       <c r="G21" s="61">
         <v>1</v>
       </c>
-      <c r="H21" s="62">
-        <v>0</v>
-      </c>
+      <c r="H21" s="62"/>
       <c r="I21" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -6039,7 +6039,7 @@
         <v>1.6</v>
       </c>
       <c r="B22" s="115" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C22" s="60" t="s">
         <v>136</v>
@@ -6049,18 +6049,18 @@
         <v>44467</v>
       </c>
       <c r="F22" s="162">
-        <f>IF(ISBLANK(E22)," - ",IF(G22=0,E22,E22+G22-1))</f>
-        <v>44468</v>
+        <f t="shared" si="6"/>
+        <v>44467</v>
       </c>
       <c r="G22" s="61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="62">
         <v>0</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" s="93"/>
       <c r="K22" s="99"/>
@@ -6120,24 +6120,24 @@
       <c r="BM22" s="99"/>
       <c r="BN22" s="99"/>
     </row>
-    <row r="23" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="59" t="str">
         <f t="shared" si="5"/>
         <v>1.7</v>
       </c>
       <c r="B23" s="115" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C23" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D23" s="116"/>
       <c r="E23" s="161">
+        <v>44467</v>
+      </c>
+      <c r="F23" s="162">
+        <f>IF(ISBLANK(E23)," - ",IF(G23=0,E23,E23+G23-1))</f>
         <v>44468</v>
-      </c>
-      <c r="F23" s="162">
-        <f t="shared" si="6"/>
-        <v>44469</v>
       </c>
       <c r="G23" s="61">
         <v>2</v>
@@ -6208,32 +6208,35 @@
       <c r="BN23" s="99"/>
     </row>
     <row r="24" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A24" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="B24" s="117" t="s">
-        <v>147</v>
+      <c r="A24" s="59" t="str">
+        <f t="shared" si="5"/>
+        <v>1.8</v>
+      </c>
+      <c r="B24" s="115" t="s">
+        <v>145</v>
       </c>
       <c r="C24" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="169"/>
-      <c r="E24" s="170">
+      <c r="D24" s="116"/>
+      <c r="E24" s="161">
+        <v>44468</v>
+      </c>
+      <c r="F24" s="162">
+        <f t="shared" si="6"/>
         <v>44469</v>
       </c>
-      <c r="F24" s="171">
-        <f t="shared" si="6"/>
-        <v>44472</v>
-      </c>
-      <c r="G24" s="172">
-        <v>4</v>
-      </c>
-      <c r="H24" s="173"/>
-      <c r="I24" s="174">
+      <c r="G24" s="61">
+        <v>2</v>
+      </c>
+      <c r="H24" s="62">
+        <v>0</v>
+      </c>
+      <c r="I24" s="63">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J24" s="175"/>
+      <c r="J24" s="93"/>
       <c r="K24" s="99"/>
       <c r="L24" s="99"/>
       <c r="M24" s="99"/>
@@ -6291,199 +6294,196 @@
       <c r="BM24" s="99"/>
       <c r="BN24" s="99"/>
     </row>
-    <row r="25" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="52" t="str">
+    <row r="25" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A25" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" s="117" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="169"/>
+      <c r="E25" s="170">
+        <v>44469</v>
+      </c>
+      <c r="F25" s="171">
+        <f t="shared" si="6"/>
+        <v>44472</v>
+      </c>
+      <c r="G25" s="172">
+        <v>4</v>
+      </c>
+      <c r="H25" s="173"/>
+      <c r="I25" s="174">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J25" s="175"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="99"/>
+      <c r="S25" s="99"/>
+      <c r="T25" s="99"/>
+      <c r="U25" s="99"/>
+      <c r="V25" s="99"/>
+      <c r="W25" s="99"/>
+      <c r="X25" s="99"/>
+      <c r="Y25" s="99"/>
+      <c r="Z25" s="99"/>
+      <c r="AA25" s="99"/>
+      <c r="AB25" s="99"/>
+      <c r="AC25" s="99"/>
+      <c r="AD25" s="99"/>
+      <c r="AE25" s="99"/>
+      <c r="AF25" s="99"/>
+      <c r="AG25" s="99"/>
+      <c r="AH25" s="99"/>
+      <c r="AI25" s="99"/>
+      <c r="AJ25" s="99"/>
+      <c r="AK25" s="99"/>
+      <c r="AL25" s="99"/>
+      <c r="AM25" s="99"/>
+      <c r="AN25" s="99"/>
+      <c r="AO25" s="99"/>
+      <c r="AP25" s="99"/>
+      <c r="AQ25" s="99"/>
+      <c r="AR25" s="99"/>
+      <c r="AS25" s="99"/>
+      <c r="AT25" s="99"/>
+      <c r="AU25" s="99"/>
+      <c r="AV25" s="99"/>
+      <c r="AW25" s="99"/>
+      <c r="AX25" s="99"/>
+      <c r="AY25" s="99"/>
+      <c r="AZ25" s="99"/>
+      <c r="BA25" s="99"/>
+      <c r="BB25" s="99"/>
+      <c r="BC25" s="99"/>
+      <c r="BD25" s="99"/>
+      <c r="BE25" s="99"/>
+      <c r="BF25" s="99"/>
+      <c r="BG25" s="99"/>
+      <c r="BH25" s="99"/>
+      <c r="BI25" s="99"/>
+      <c r="BJ25" s="99"/>
+      <c r="BK25" s="99"/>
+      <c r="BL25" s="99"/>
+      <c r="BM25" s="99"/>
+      <c r="BN25" s="99"/>
+    </row>
+    <row r="26" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="52" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
       </c>
-      <c r="B25" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="163"/>
-      <c r="F25" s="163" t="str">
+      <c r="B26" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="55"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G25" s="56"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="58" t="str">
+      <c r="G26" s="56"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="58" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J25" s="94"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="101"/>
-      <c r="R25" s="101"/>
-      <c r="S25" s="101"/>
-      <c r="T25" s="101"/>
-      <c r="U25" s="101"/>
-      <c r="V25" s="101"/>
-      <c r="W25" s="101"/>
-      <c r="X25" s="101"/>
-      <c r="Y25" s="101"/>
-      <c r="Z25" s="101"/>
-      <c r="AA25" s="101"/>
-      <c r="AB25" s="101"/>
-      <c r="AC25" s="101"/>
-      <c r="AD25" s="101"/>
-      <c r="AE25" s="101"/>
-      <c r="AF25" s="101"/>
-      <c r="AG25" s="101"/>
-      <c r="AH25" s="101"/>
-      <c r="AI25" s="101"/>
-      <c r="AJ25" s="101"/>
-      <c r="AK25" s="101"/>
-      <c r="AL25" s="101"/>
-      <c r="AM25" s="101"/>
-      <c r="AN25" s="101"/>
-      <c r="AO25" s="101"/>
-      <c r="AP25" s="101"/>
-      <c r="AQ25" s="101"/>
-      <c r="AR25" s="101"/>
-      <c r="AS25" s="101"/>
-      <c r="AT25" s="101"/>
-      <c r="AU25" s="101"/>
-      <c r="AV25" s="101"/>
-      <c r="AW25" s="101"/>
-      <c r="AX25" s="101"/>
-      <c r="AY25" s="101"/>
-      <c r="AZ25" s="101"/>
-      <c r="BA25" s="101"/>
-      <c r="BB25" s="101"/>
-      <c r="BC25" s="101"/>
-      <c r="BD25" s="101"/>
-      <c r="BE25" s="101"/>
-      <c r="BF25" s="101"/>
-      <c r="BG25" s="101"/>
-      <c r="BH25" s="101"/>
-      <c r="BI25" s="101"/>
-      <c r="BJ25" s="101"/>
-      <c r="BK25" s="101"/>
-      <c r="BL25" s="101"/>
-      <c r="BM25" s="101"/>
-      <c r="BN25" s="101"/>
-    </row>
-    <row r="26" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A26" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.1</v>
-      </c>
-      <c r="B26" s="115" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="116"/>
-      <c r="E26" s="161">
-        <v>44473</v>
-      </c>
-      <c r="F26" s="162">
-        <f t="shared" si="6"/>
-        <v>44473</v>
-      </c>
-      <c r="G26" s="61">
-        <v>1</v>
-      </c>
-      <c r="H26" s="62">
-        <v>0</v>
-      </c>
-      <c r="I26" s="63">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J26" s="93"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="99"/>
-      <c r="S26" s="99"/>
-      <c r="T26" s="99"/>
-      <c r="U26" s="99"/>
-      <c r="V26" s="99"/>
-      <c r="W26" s="99"/>
-      <c r="X26" s="99"/>
-      <c r="Y26" s="99"/>
-      <c r="Z26" s="99"/>
-      <c r="AA26" s="99"/>
-      <c r="AB26" s="99"/>
-      <c r="AC26" s="99"/>
-      <c r="AD26" s="99"/>
-      <c r="AE26" s="99"/>
-      <c r="AF26" s="99"/>
-      <c r="AG26" s="99"/>
-      <c r="AH26" s="99"/>
-      <c r="AI26" s="99"/>
-      <c r="AJ26" s="99"/>
-      <c r="AK26" s="99"/>
-      <c r="AL26" s="99"/>
-      <c r="AM26" s="99"/>
-      <c r="AN26" s="99"/>
-      <c r="AO26" s="99"/>
-      <c r="AP26" s="99"/>
-      <c r="AQ26" s="99"/>
-      <c r="AR26" s="99"/>
-      <c r="AS26" s="99"/>
-      <c r="AT26" s="99"/>
-      <c r="AU26" s="99"/>
-      <c r="AV26" s="99"/>
-      <c r="AW26" s="99"/>
-      <c r="AX26" s="99"/>
-      <c r="AY26" s="99"/>
-      <c r="AZ26" s="99"/>
-      <c r="BA26" s="99"/>
-      <c r="BB26" s="99"/>
-      <c r="BC26" s="99"/>
-      <c r="BD26" s="99"/>
-      <c r="BE26" s="99"/>
-      <c r="BF26" s="99"/>
-      <c r="BG26" s="99"/>
-      <c r="BH26" s="99"/>
-      <c r="BI26" s="99"/>
-      <c r="BJ26" s="99"/>
-      <c r="BK26" s="99"/>
-      <c r="BL26" s="99"/>
-      <c r="BM26" s="99"/>
-      <c r="BN26" s="99"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="101"/>
+      <c r="O26" s="101"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="101"/>
+      <c r="R26" s="101"/>
+      <c r="S26" s="101"/>
+      <c r="T26" s="101"/>
+      <c r="U26" s="101"/>
+      <c r="V26" s="101"/>
+      <c r="W26" s="101"/>
+      <c r="X26" s="101"/>
+      <c r="Y26" s="101"/>
+      <c r="Z26" s="101"/>
+      <c r="AA26" s="101"/>
+      <c r="AB26" s="101"/>
+      <c r="AC26" s="101"/>
+      <c r="AD26" s="101"/>
+      <c r="AE26" s="101"/>
+      <c r="AF26" s="101"/>
+      <c r="AG26" s="101"/>
+      <c r="AH26" s="101"/>
+      <c r="AI26" s="101"/>
+      <c r="AJ26" s="101"/>
+      <c r="AK26" s="101"/>
+      <c r="AL26" s="101"/>
+      <c r="AM26" s="101"/>
+      <c r="AN26" s="101"/>
+      <c r="AO26" s="101"/>
+      <c r="AP26" s="101"/>
+      <c r="AQ26" s="101"/>
+      <c r="AR26" s="101"/>
+      <c r="AS26" s="101"/>
+      <c r="AT26" s="101"/>
+      <c r="AU26" s="101"/>
+      <c r="AV26" s="101"/>
+      <c r="AW26" s="101"/>
+      <c r="AX26" s="101"/>
+      <c r="AY26" s="101"/>
+      <c r="AZ26" s="101"/>
+      <c r="BA26" s="101"/>
+      <c r="BB26" s="101"/>
+      <c r="BC26" s="101"/>
+      <c r="BD26" s="101"/>
+      <c r="BE26" s="101"/>
+      <c r="BF26" s="101"/>
+      <c r="BG26" s="101"/>
+      <c r="BH26" s="101"/>
+      <c r="BI26" s="101"/>
+      <c r="BJ26" s="101"/>
+      <c r="BK26" s="101"/>
+      <c r="BL26" s="101"/>
+      <c r="BM26" s="101"/>
+      <c r="BN26" s="101"/>
     </row>
     <row r="27" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A27" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="B27" s="115" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C27" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D27" s="116"/>
       <c r="E27" s="161">
-        <v>44474</v>
+        <v>44473</v>
       </c>
       <c r="F27" s="162">
-        <f>IF(ISBLANK(E27)," - ",IF(G27=0,E27,E27+G27-1))</f>
-        <v>44477</v>
+        <f t="shared" si="6"/>
+        <v>44473</v>
       </c>
       <c r="G27" s="61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H27" s="62">
         <v>0</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J27" s="93"/>
       <c r="K27" s="99"/>
@@ -6543,12 +6543,13 @@
       <c r="BM27" s="99"/>
       <c r="BN27" s="99"/>
     </row>
-    <row r="28" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="59" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" s="117" t="s">
-        <v>156</v>
+    <row r="28" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A28" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.2</v>
+      </c>
+      <c r="B28" s="115" t="s">
+        <v>149</v>
       </c>
       <c r="C28" s="60" t="s">
         <v>136</v>
@@ -6558,16 +6559,18 @@
         <v>44474</v>
       </c>
       <c r="F28" s="162">
-        <f t="shared" si="6"/>
-        <v>44474</v>
+        <f>IF(ISBLANK(E28)," - ",IF(G28=0,E28,E28+G28-1))</f>
+        <v>44477</v>
       </c>
       <c r="G28" s="61">
-        <v>1</v>
-      </c>
-      <c r="H28" s="62"/>
+        <v>4</v>
+      </c>
+      <c r="H28" s="62">
+        <v>0</v>
+      </c>
       <c r="I28" s="63">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J28" s="93"/>
       <c r="K28" s="99"/>
@@ -6629,7 +6632,7 @@
     </row>
     <row r="29" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="59" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B29" s="117" t="s">
         <v>155</v>
@@ -6713,21 +6716,21 @@
     </row>
     <row r="30" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="59" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B30" s="117" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C30" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D30" s="116"/>
       <c r="E30" s="161">
-        <v>44475</v>
+        <v>44474</v>
       </c>
       <c r="F30" s="162">
         <f t="shared" si="6"/>
-        <v>44475</v>
+        <v>44474</v>
       </c>
       <c r="G30" s="61">
         <v>1</v>
@@ -6797,10 +6800,10 @@
     </row>
     <row r="31" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="59" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B31" s="117" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C31" s="60" t="s">
         <v>136</v>
@@ -6881,21 +6884,21 @@
     </row>
     <row r="32" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="59" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B32" s="117" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C32" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D32" s="116"/>
       <c r="E32" s="161">
-        <v>44476</v>
+        <v>44475</v>
       </c>
       <c r="F32" s="162">
         <f t="shared" si="6"/>
-        <v>44476</v>
+        <v>44475</v>
       </c>
       <c r="G32" s="61">
         <v>1</v>
@@ -6965,10 +6968,10 @@
     </row>
     <row r="33" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="59" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B33" s="117" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C33" s="60" t="s">
         <v>136</v>
@@ -7049,21 +7052,21 @@
     </row>
     <row r="34" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="59" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B34" s="117" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C34" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D34" s="116"/>
       <c r="E34" s="161">
-        <v>44477</v>
+        <v>44476</v>
       </c>
       <c r="F34" s="162">
         <f t="shared" si="6"/>
-        <v>44477</v>
+        <v>44476</v>
       </c>
       <c r="G34" s="61">
         <v>1</v>
@@ -7133,10 +7136,10 @@
     </row>
     <row r="35" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="59" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B35" s="117" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C35" s="60" t="s">
         <v>136</v>
@@ -7216,33 +7219,30 @@
       <c r="BN35" s="99"/>
     </row>
     <row r="36" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.3</v>
-      </c>
-      <c r="B36" s="115" t="s">
-        <v>176</v>
+      <c r="A36" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" s="117" t="s">
+        <v>166</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D36" s="116"/>
       <c r="E36" s="161">
-        <v>44478</v>
+        <v>44477</v>
       </c>
       <c r="F36" s="162">
         <f t="shared" si="6"/>
-        <v>44479</v>
+        <v>44477</v>
       </c>
       <c r="G36" s="61">
-        <v>2</v>
-      </c>
-      <c r="H36" s="62">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H36" s="62"/>
       <c r="I36" s="63">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="93"/>
       <c r="K36" s="99"/>
@@ -7303,11 +7303,12 @@
       <c r="BN36" s="99"/>
     </row>
     <row r="37" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="59" t="s">
-        <v>177</v>
-      </c>
-      <c r="B37" s="117" t="s">
-        <v>156</v>
+      <c r="A37" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.3</v>
+      </c>
+      <c r="B37" s="115" t="s">
+        <v>175</v>
       </c>
       <c r="C37" s="60" t="s">
         <v>136</v>
@@ -7318,12 +7319,14 @@
       </c>
       <c r="F37" s="162">
         <f t="shared" si="6"/>
-        <v>44478</v>
+        <v>44479</v>
       </c>
       <c r="G37" s="61">
-        <v>1</v>
-      </c>
-      <c r="H37" s="62"/>
+        <v>2</v>
+      </c>
+      <c r="H37" s="62">
+        <v>0</v>
+      </c>
       <c r="I37" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7388,7 +7391,7 @@
     </row>
     <row r="38" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="59" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B38" s="117" t="s">
         <v>155</v>
@@ -7472,10 +7475,10 @@
     </row>
     <row r="39" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="59" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B39" s="117" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C39" s="60" t="s">
         <v>136</v>
@@ -7556,10 +7559,10 @@
     </row>
     <row r="40" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="59" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B40" s="117" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C40" s="60" t="s">
         <v>136</v>
@@ -7640,21 +7643,21 @@
     </row>
     <row r="41" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="59" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B41" s="117" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C41" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D41" s="116"/>
       <c r="E41" s="161">
-        <v>44479</v>
+        <v>44478</v>
       </c>
       <c r="F41" s="162">
         <f t="shared" si="6"/>
-        <v>44479</v>
+        <v>44478</v>
       </c>
       <c r="G41" s="61">
         <v>1</v>
@@ -7724,10 +7727,10 @@
     </row>
     <row r="42" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="59" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B42" s="117" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C42" s="60" t="s">
         <v>136</v>
@@ -7808,10 +7811,10 @@
     </row>
     <row r="43" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B43" s="117" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C43" s="60" t="s">
         <v>136</v>
@@ -7892,10 +7895,10 @@
     </row>
     <row r="44" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B44" s="117" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C44" s="60" t="s">
         <v>136</v>
@@ -7975,33 +7978,30 @@
       <c r="BN44" s="99"/>
     </row>
     <row r="45" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.4</v>
-      </c>
-      <c r="B45" s="115" t="s">
-        <v>186</v>
+      <c r="A45" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="B45" s="117" t="s">
+        <v>166</v>
       </c>
       <c r="C45" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D45" s="116"/>
       <c r="E45" s="161">
-        <v>44480</v>
+        <v>44479</v>
       </c>
       <c r="F45" s="162">
         <f t="shared" si="6"/>
-        <v>44482</v>
+        <v>44479</v>
       </c>
       <c r="G45" s="61">
-        <v>3</v>
-      </c>
-      <c r="H45" s="62">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H45" s="62"/>
       <c r="I45" s="63">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J45" s="93"/>
       <c r="K45" s="99"/>
@@ -8062,11 +8062,12 @@
       <c r="BN45" s="99"/>
     </row>
     <row r="46" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="59" t="s">
-        <v>227</v>
-      </c>
-      <c r="B46" s="117" t="s">
-        <v>228</v>
+      <c r="A46" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.4</v>
+      </c>
+      <c r="B46" s="115" t="s">
+        <v>185</v>
       </c>
       <c r="C46" s="60" t="s">
         <v>136</v>
@@ -8077,15 +8078,17 @@
       </c>
       <c r="F46" s="162">
         <f t="shared" si="6"/>
-        <v>44480</v>
+        <v>44482</v>
       </c>
       <c r="G46" s="61">
-        <v>1</v>
-      </c>
-      <c r="H46" s="62"/>
+        <v>3</v>
+      </c>
+      <c r="H46" s="62">
+        <v>0</v>
+      </c>
       <c r="I46" s="63">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J46" s="93"/>
       <c r="K46" s="99"/>
@@ -8147,21 +8150,21 @@
     </row>
     <row r="47" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="59" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B47" s="117" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C47" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D47" s="116"/>
       <c r="E47" s="161">
-        <v>44481</v>
+        <v>44480</v>
       </c>
       <c r="F47" s="162">
         <f t="shared" si="6"/>
-        <v>44481</v>
+        <v>44480</v>
       </c>
       <c r="G47" s="61">
         <v>1</v>
@@ -8231,21 +8234,21 @@
     </row>
     <row r="48" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="59" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B48" s="117" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C48" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D48" s="116"/>
       <c r="E48" s="161">
-        <v>44482</v>
+        <v>44481</v>
       </c>
       <c r="F48" s="162">
         <f t="shared" si="6"/>
-        <v>44482</v>
+        <v>44481</v>
       </c>
       <c r="G48" s="61">
         <v>1</v>
@@ -8314,11 +8317,11 @@
       <c r="BN48" s="99"/>
     </row>
     <row r="49" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="59">
-        <v>2.5</v>
-      </c>
-      <c r="B49" s="115" t="s">
-        <v>218</v>
+      <c r="A49" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="B49" s="117" t="s">
+        <v>231</v>
       </c>
       <c r="C49" s="60" t="s">
         <v>136</v>
@@ -8329,15 +8332,15 @@
       </c>
       <c r="F49" s="162">
         <f t="shared" si="6"/>
-        <v>44485</v>
+        <v>44482</v>
       </c>
       <c r="G49" s="61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H49" s="62"/>
       <c r="I49" s="63">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J49" s="93"/>
       <c r="K49" s="99"/>
@@ -8398,11 +8401,11 @@
       <c r="BN49" s="99"/>
     </row>
     <row r="50" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A50" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="B50" s="117" t="s">
-        <v>156</v>
+      <c r="A50" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="B50" s="115" t="s">
+        <v>217</v>
       </c>
       <c r="C50" s="60" t="s">
         <v>136</v>
@@ -8413,13 +8416,16 @@
       </c>
       <c r="F50" s="162">
         <f t="shared" si="6"/>
-        <v>44482</v>
+        <v>44485</v>
       </c>
       <c r="G50" s="61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H50" s="62"/>
-      <c r="I50" s="63"/>
+      <c r="I50" s="63">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
       <c r="J50" s="93"/>
       <c r="K50" s="99"/>
       <c r="L50" s="99"/>
@@ -8480,7 +8486,7 @@
     </row>
     <row r="51" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="59" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B51" s="117" t="s">
         <v>155</v>
@@ -8561,21 +8567,21 @@
     </row>
     <row r="52" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="59" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B52" s="117" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C52" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D52" s="116"/>
       <c r="E52" s="161">
-        <v>44483</v>
+        <v>44482</v>
       </c>
       <c r="F52" s="162">
         <f t="shared" si="6"/>
-        <v>44483</v>
+        <v>44482</v>
       </c>
       <c r="G52" s="61">
         <v>1</v>
@@ -8642,10 +8648,10 @@
     </row>
     <row r="53" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="59" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B53" s="117" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C53" s="60" t="s">
         <v>136</v>
@@ -8723,21 +8729,21 @@
     </row>
     <row r="54" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="59" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B54" s="117" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C54" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D54" s="116"/>
       <c r="E54" s="161">
-        <v>44484</v>
+        <v>44483</v>
       </c>
       <c r="F54" s="162">
         <f t="shared" si="6"/>
-        <v>44484</v>
+        <v>44483</v>
       </c>
       <c r="G54" s="61">
         <v>1</v>
@@ -8804,10 +8810,10 @@
     </row>
     <row r="55" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="59" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B55" s="117" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C55" s="60" t="s">
         <v>136</v>
@@ -8885,21 +8891,21 @@
     </row>
     <row r="56" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="59" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B56" s="117" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C56" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D56" s="116"/>
       <c r="E56" s="161">
-        <v>44485</v>
+        <v>44484</v>
       </c>
       <c r="F56" s="162">
         <f t="shared" si="6"/>
-        <v>44485</v>
+        <v>44484</v>
       </c>
       <c r="G56" s="61">
         <v>1</v>
@@ -8966,10 +8972,10 @@
     </row>
     <row r="57" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="59" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B57" s="117" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C57" s="60" t="s">
         <v>136</v>
@@ -9046,34 +9052,28 @@
       <c r="BN57" s="99"/>
     </row>
     <row r="58" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A58" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.6</v>
-      </c>
-      <c r="B58" s="115" t="s">
-        <v>187</v>
+      <c r="A58" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="B58" s="117" t="s">
+        <v>166</v>
       </c>
       <c r="C58" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D58" s="116"/>
       <c r="E58" s="161">
-        <v>44486</v>
+        <v>44485</v>
       </c>
       <c r="F58" s="162">
         <f t="shared" si="6"/>
-        <v>44489</v>
+        <v>44485</v>
       </c>
       <c r="G58" s="61">
-        <v>4</v>
-      </c>
-      <c r="H58" s="62">
-        <v>0</v>
-      </c>
-      <c r="I58" s="63">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H58" s="62"/>
+      <c r="I58" s="63"/>
       <c r="J58" s="93"/>
       <c r="K58" s="99"/>
       <c r="L58" s="99"/>
@@ -9133,32 +9133,35 @@
       <c r="BN58" s="99"/>
     </row>
     <row r="59" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A59" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="B59" s="117" t="s">
-        <v>156</v>
+      <c r="A59" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.6</v>
+      </c>
+      <c r="B59" s="115" t="s">
+        <v>186</v>
       </c>
       <c r="C59" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D59" s="169"/>
-      <c r="E59" s="170">
+      <c r="D59" s="116"/>
+      <c r="E59" s="161">
         <v>44486</v>
       </c>
-      <c r="F59" s="171">
+      <c r="F59" s="162">
         <f t="shared" si="6"/>
-        <v>44486</v>
-      </c>
-      <c r="G59" s="172">
-        <v>1</v>
-      </c>
-      <c r="H59" s="173"/>
-      <c r="I59" s="174">
+        <v>44489</v>
+      </c>
+      <c r="G59" s="61">
+        <v>4</v>
+      </c>
+      <c r="H59" s="62">
+        <v>0</v>
+      </c>
+      <c r="I59" s="63">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J59" s="175"/>
+        <v>3</v>
+      </c>
+      <c r="J59" s="93"/>
       <c r="K59" s="99"/>
       <c r="L59" s="99"/>
       <c r="M59" s="99"/>
@@ -9218,7 +9221,7 @@
     </row>
     <row r="60" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="59" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B60" s="117" t="s">
         <v>155</v>
@@ -9302,21 +9305,21 @@
     </row>
     <row r="61" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="59" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B61" s="117" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C61" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D61" s="169"/>
       <c r="E61" s="170">
-        <v>44487</v>
+        <v>44486</v>
       </c>
       <c r="F61" s="171">
         <f t="shared" si="6"/>
-        <v>44487</v>
+        <v>44486</v>
       </c>
       <c r="G61" s="172">
         <v>1</v>
@@ -9324,7 +9327,7 @@
       <c r="H61" s="173"/>
       <c r="I61" s="174">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" s="175"/>
       <c r="K61" s="99"/>
@@ -9386,10 +9389,10 @@
     </row>
     <row r="62" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="59" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B62" s="117" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C62" s="60" t="s">
         <v>136</v>
@@ -9473,18 +9476,18 @@
         <v>191</v>
       </c>
       <c r="B63" s="117" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C63" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D63" s="169"/>
       <c r="E63" s="170">
-        <v>44488</v>
+        <v>44487</v>
       </c>
       <c r="F63" s="171">
         <f t="shared" si="6"/>
-        <v>44488</v>
+        <v>44487</v>
       </c>
       <c r="G63" s="172">
         <v>1</v>
@@ -9554,10 +9557,10 @@
     </row>
     <row r="64" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="59" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B64" s="117" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C64" s="60" t="s">
         <v>136</v>
@@ -9638,21 +9641,21 @@
     </row>
     <row r="65" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="59" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B65" s="117" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C65" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D65" s="169"/>
       <c r="E65" s="170">
-        <v>44489</v>
+        <v>44488</v>
       </c>
       <c r="F65" s="171">
         <f t="shared" si="6"/>
-        <v>44489</v>
+        <v>44488</v>
       </c>
       <c r="G65" s="172">
         <v>1</v>
@@ -9722,10 +9725,10 @@
     </row>
     <row r="66" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="59" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B66" s="117" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C66" s="60" t="s">
         <v>136</v>
@@ -9805,30 +9808,30 @@
       <c r="BN66" s="99"/>
     </row>
     <row r="67" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A67" s="59">
-        <v>2.7</v>
+      <c r="A67" s="59" t="s">
+        <v>193</v>
       </c>
       <c r="B67" s="117" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="C67" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D67" s="169"/>
       <c r="E67" s="170">
-        <v>44490</v>
+        <v>44489</v>
       </c>
       <c r="F67" s="171">
-        <f>IF(ISBLANK(E67)," - ",IF(G67=0,E67,E67+G67-1))</f>
-        <v>44491</v>
+        <f t="shared" si="6"/>
+        <v>44489</v>
       </c>
       <c r="G67" s="172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" s="173"/>
       <c r="I67" s="174">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" s="175"/>
       <c r="K67" s="99"/>
@@ -9888,177 +9891,175 @@
       <c r="BM67" s="99"/>
       <c r="BN67" s="99"/>
     </row>
-    <row r="68" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A68" s="52" t="str">
+    <row r="68" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A68" s="59">
+        <v>2.7</v>
+      </c>
+      <c r="B68" s="117" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D68" s="169"/>
+      <c r="E68" s="170">
+        <v>44490</v>
+      </c>
+      <c r="F68" s="171">
+        <f>IF(ISBLANK(E68)," - ",IF(G68=0,E68,E68+G68-1))</f>
+        <v>44491</v>
+      </c>
+      <c r="G68" s="172">
+        <v>2</v>
+      </c>
+      <c r="H68" s="173"/>
+      <c r="I68" s="174">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J68" s="175"/>
+      <c r="K68" s="99"/>
+      <c r="L68" s="99"/>
+      <c r="M68" s="99"/>
+      <c r="N68" s="99"/>
+      <c r="O68" s="99"/>
+      <c r="P68" s="99"/>
+      <c r="Q68" s="99"/>
+      <c r="R68" s="99"/>
+      <c r="S68" s="99"/>
+      <c r="T68" s="99"/>
+      <c r="U68" s="99"/>
+      <c r="V68" s="99"/>
+      <c r="W68" s="99"/>
+      <c r="X68" s="99"/>
+      <c r="Y68" s="99"/>
+      <c r="Z68" s="99"/>
+      <c r="AA68" s="99"/>
+      <c r="AB68" s="99"/>
+      <c r="AC68" s="99"/>
+      <c r="AD68" s="99"/>
+      <c r="AE68" s="99"/>
+      <c r="AF68" s="99"/>
+      <c r="AG68" s="99"/>
+      <c r="AH68" s="99"/>
+      <c r="AI68" s="99"/>
+      <c r="AJ68" s="99"/>
+      <c r="AK68" s="99"/>
+      <c r="AL68" s="99"/>
+      <c r="AM68" s="99"/>
+      <c r="AN68" s="99"/>
+      <c r="AO68" s="99"/>
+      <c r="AP68" s="99"/>
+      <c r="AQ68" s="99"/>
+      <c r="AR68" s="99"/>
+      <c r="AS68" s="99"/>
+      <c r="AT68" s="99"/>
+      <c r="AU68" s="99"/>
+      <c r="AV68" s="99"/>
+      <c r="AW68" s="99"/>
+      <c r="AX68" s="99"/>
+      <c r="AY68" s="99"/>
+      <c r="AZ68" s="99"/>
+      <c r="BA68" s="99"/>
+      <c r="BB68" s="99"/>
+      <c r="BC68" s="99"/>
+      <c r="BD68" s="99"/>
+      <c r="BE68" s="99"/>
+      <c r="BF68" s="99"/>
+      <c r="BG68" s="99"/>
+      <c r="BH68" s="99"/>
+      <c r="BI68" s="99"/>
+      <c r="BJ68" s="99"/>
+      <c r="BK68" s="99"/>
+      <c r="BL68" s="99"/>
+      <c r="BM68" s="99"/>
+      <c r="BN68" s="99"/>
+    </row>
+    <row r="69" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A69" s="52" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
       </c>
-      <c r="B68" s="53" t="s">
-        <v>196</v>
-      </c>
-      <c r="D68" s="55"/>
-      <c r="E68" s="163"/>
-      <c r="F68" s="163" t="str">
+      <c r="B69" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="D69" s="55"/>
+      <c r="E69" s="163"/>
+      <c r="F69" s="163" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G68" s="56"/>
-      <c r="H68" s="57"/>
-      <c r="I68" s="58" t="str">
+      <c r="G69" s="56"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="58" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J68" s="94"/>
-      <c r="K68" s="101"/>
-      <c r="L68" s="101"/>
-      <c r="M68" s="101"/>
-      <c r="N68" s="101"/>
-      <c r="O68" s="101"/>
-      <c r="P68" s="101"/>
-      <c r="Q68" s="101"/>
-      <c r="R68" s="101"/>
-      <c r="S68" s="101"/>
-      <c r="T68" s="101"/>
-      <c r="U68" s="101"/>
-      <c r="V68" s="101"/>
-      <c r="W68" s="101"/>
-      <c r="X68" s="101"/>
-      <c r="Y68" s="101"/>
-      <c r="Z68" s="101"/>
-      <c r="AA68" s="101"/>
-      <c r="AB68" s="101"/>
-      <c r="AC68" s="101"/>
-      <c r="AD68" s="101"/>
-      <c r="AE68" s="101"/>
-      <c r="AF68" s="101"/>
-      <c r="AG68" s="101"/>
-      <c r="AH68" s="101"/>
-      <c r="AI68" s="101"/>
-      <c r="AJ68" s="101"/>
-      <c r="AK68" s="101"/>
-      <c r="AL68" s="101"/>
-      <c r="AM68" s="101"/>
-      <c r="AN68" s="101"/>
-      <c r="AO68" s="101"/>
-      <c r="AP68" s="101"/>
-      <c r="AQ68" s="101"/>
-      <c r="AR68" s="101"/>
-      <c r="AS68" s="101"/>
-      <c r="AT68" s="101"/>
-      <c r="AU68" s="101"/>
-      <c r="AV68" s="101"/>
-      <c r="AW68" s="101"/>
-      <c r="AX68" s="101"/>
-      <c r="AY68" s="101"/>
-      <c r="AZ68" s="101"/>
-      <c r="BA68" s="101"/>
-      <c r="BB68" s="101"/>
-      <c r="BC68" s="101"/>
-      <c r="BD68" s="101"/>
-      <c r="BE68" s="101"/>
-      <c r="BF68" s="101"/>
-      <c r="BG68" s="101"/>
-      <c r="BH68" s="101"/>
-      <c r="BI68" s="101"/>
-      <c r="BJ68" s="101"/>
-      <c r="BK68" s="101"/>
-      <c r="BL68" s="101"/>
-      <c r="BM68" s="101"/>
-      <c r="BN68" s="101"/>
-    </row>
-    <row r="69" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A69" s="59" t="str">
+      <c r="J69" s="94"/>
+      <c r="K69" s="101"/>
+      <c r="L69" s="101"/>
+      <c r="M69" s="101"/>
+      <c r="N69" s="101"/>
+      <c r="O69" s="101"/>
+      <c r="P69" s="101"/>
+      <c r="Q69" s="101"/>
+      <c r="R69" s="101"/>
+      <c r="S69" s="101"/>
+      <c r="T69" s="101"/>
+      <c r="U69" s="101"/>
+      <c r="V69" s="101"/>
+      <c r="W69" s="101"/>
+      <c r="X69" s="101"/>
+      <c r="Y69" s="101"/>
+      <c r="Z69" s="101"/>
+      <c r="AA69" s="101"/>
+      <c r="AB69" s="101"/>
+      <c r="AC69" s="101"/>
+      <c r="AD69" s="101"/>
+      <c r="AE69" s="101"/>
+      <c r="AF69" s="101"/>
+      <c r="AG69" s="101"/>
+      <c r="AH69" s="101"/>
+      <c r="AI69" s="101"/>
+      <c r="AJ69" s="101"/>
+      <c r="AK69" s="101"/>
+      <c r="AL69" s="101"/>
+      <c r="AM69" s="101"/>
+      <c r="AN69" s="101"/>
+      <c r="AO69" s="101"/>
+      <c r="AP69" s="101"/>
+      <c r="AQ69" s="101"/>
+      <c r="AR69" s="101"/>
+      <c r="AS69" s="101"/>
+      <c r="AT69" s="101"/>
+      <c r="AU69" s="101"/>
+      <c r="AV69" s="101"/>
+      <c r="AW69" s="101"/>
+      <c r="AX69" s="101"/>
+      <c r="AY69" s="101"/>
+      <c r="AZ69" s="101"/>
+      <c r="BA69" s="101"/>
+      <c r="BB69" s="101"/>
+      <c r="BC69" s="101"/>
+      <c r="BD69" s="101"/>
+      <c r="BE69" s="101"/>
+      <c r="BF69" s="101"/>
+      <c r="BG69" s="101"/>
+      <c r="BH69" s="101"/>
+      <c r="BI69" s="101"/>
+      <c r="BJ69" s="101"/>
+      <c r="BK69" s="101"/>
+      <c r="BL69" s="101"/>
+      <c r="BM69" s="101"/>
+      <c r="BN69" s="101"/>
+    </row>
+    <row r="70" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A70" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
-      <c r="B69" s="115" t="s">
-        <v>197</v>
-      </c>
-      <c r="C69" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D69" s="116"/>
-      <c r="E69" s="161">
-        <v>44491</v>
-      </c>
-      <c r="F69" s="162">
-        <f>IF(ISBLANK(E69)," - ",IF(G69=0,E69,E69+G69-1))</f>
-        <v>44503</v>
-      </c>
-      <c r="G69" s="61">
-        <v>13</v>
-      </c>
-      <c r="H69" s="62">
-        <v>0</v>
-      </c>
-      <c r="I69" s="63">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="J69" s="93"/>
-      <c r="K69" s="99"/>
-      <c r="L69" s="99"/>
-      <c r="M69" s="99"/>
-      <c r="N69" s="99"/>
-      <c r="O69" s="99"/>
-      <c r="P69" s="99"/>
-      <c r="Q69" s="99"/>
-      <c r="R69" s="99"/>
-      <c r="S69" s="99"/>
-      <c r="T69" s="99"/>
-      <c r="U69" s="99"/>
-      <c r="V69" s="99"/>
-      <c r="W69" s="99"/>
-      <c r="X69" s="99"/>
-      <c r="Y69" s="99"/>
-      <c r="Z69" s="99"/>
-      <c r="AA69" s="99"/>
-      <c r="AB69" s="99"/>
-      <c r="AC69" s="99"/>
-      <c r="AD69" s="99"/>
-      <c r="AE69" s="99"/>
-      <c r="AF69" s="99"/>
-      <c r="AG69" s="99"/>
-      <c r="AH69" s="99"/>
-      <c r="AI69" s="99"/>
-      <c r="AJ69" s="99"/>
-      <c r="AK69" s="99"/>
-      <c r="AL69" s="99"/>
-      <c r="AM69" s="99"/>
-      <c r="AN69" s="99"/>
-      <c r="AO69" s="99"/>
-      <c r="AP69" s="99"/>
-      <c r="AQ69" s="99"/>
-      <c r="AR69" s="99"/>
-      <c r="AS69" s="99"/>
-      <c r="AT69" s="99"/>
-      <c r="AU69" s="99"/>
-      <c r="AV69" s="99"/>
-      <c r="AW69" s="99"/>
-      <c r="AX69" s="99"/>
-      <c r="AY69" s="99"/>
-      <c r="AZ69" s="99"/>
-      <c r="BA69" s="99"/>
-      <c r="BB69" s="99"/>
-      <c r="BC69" s="99"/>
-      <c r="BD69" s="99"/>
-      <c r="BE69" s="99"/>
-      <c r="BF69" s="99"/>
-      <c r="BG69" s="99"/>
-      <c r="BH69" s="99"/>
-      <c r="BI69" s="99"/>
-      <c r="BJ69" s="99"/>
-      <c r="BK69" s="99"/>
-      <c r="BL69" s="99"/>
-      <c r="BM69" s="99"/>
-      <c r="BN69" s="99"/>
-    </row>
-    <row r="70" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A70" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="B70" s="117" t="s">
-        <v>199</v>
+      <c r="B70" s="115" t="s">
+        <v>196</v>
       </c>
       <c r="C70" s="60" t="s">
         <v>136</v>
@@ -10068,16 +10069,18 @@
         <v>44491</v>
       </c>
       <c r="F70" s="162">
-        <f t="shared" si="6"/>
-        <v>44491</v>
+        <f>IF(ISBLANK(E70)," - ",IF(G70=0,E70,E70+G70-1))</f>
+        <v>44503</v>
       </c>
       <c r="G70" s="61">
-        <v>1</v>
-      </c>
-      <c r="H70" s="62"/>
+        <v>13</v>
+      </c>
+      <c r="H70" s="62">
+        <v>0</v>
+      </c>
       <c r="I70" s="63">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J70" s="93"/>
       <c r="K70" s="99"/>
@@ -10137,12 +10140,12 @@
       <c r="BM70" s="99"/>
       <c r="BN70" s="99"/>
     </row>
-    <row r="71" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A71" s="59" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B71" s="117" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="C71" s="60" t="s">
         <v>136</v>
@@ -10152,15 +10155,13 @@
         <v>44491</v>
       </c>
       <c r="F71" s="162">
-        <f t="shared" ref="F71:F78" si="8">IF(ISBLANK(E71)," - ",IF(G71=0,E71,E71+G71-1))</f>
-        <v>44492</v>
+        <f t="shared" si="6"/>
+        <v>44491</v>
       </c>
       <c r="G71" s="61">
-        <v>2</v>
-      </c>
-      <c r="H71" s="62">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H71" s="62"/>
       <c r="I71" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -10225,29 +10226,31 @@
     </row>
     <row r="72" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B72" s="117" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C72" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D72" s="116"/>
       <c r="E72" s="161">
+        <v>44491</v>
+      </c>
+      <c r="F72" s="162">
+        <f t="shared" ref="F72:F79" si="8">IF(ISBLANK(E72)," - ",IF(G72=0,E72,E72+G72-1))</f>
         <v>44492</v>
-      </c>
-      <c r="F72" s="162">
-        <f t="shared" si="8"/>
-        <v>44493</v>
       </c>
       <c r="G72" s="61">
         <v>2</v>
       </c>
-      <c r="H72" s="62"/>
+      <c r="H72" s="62">
+        <v>0</v>
+      </c>
       <c r="I72" s="63">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" s="93"/>
       <c r="K72" s="99"/>
@@ -10309,29 +10312,29 @@
     </row>
     <row r="73" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="59" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B73" s="117" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C73" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D73" s="116"/>
       <c r="E73" s="161">
-        <v>44493</v>
+        <v>44492</v>
       </c>
       <c r="F73" s="162">
         <f t="shared" si="8"/>
-        <v>44495</v>
+        <v>44493</v>
       </c>
       <c r="G73" s="61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H73" s="62"/>
       <c r="I73" s="63">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73" s="93"/>
       <c r="K73" s="99"/>
@@ -10393,21 +10396,21 @@
     </row>
     <row r="74" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="59" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B74" s="117" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C74" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D74" s="116"/>
       <c r="E74" s="161">
-        <v>44495</v>
+        <v>44493</v>
       </c>
       <c r="F74" s="162">
         <f t="shared" si="8"/>
-        <v>44497</v>
+        <v>44495</v>
       </c>
       <c r="G74" s="61">
         <v>3</v>
@@ -10415,7 +10418,7 @@
       <c r="H74" s="62"/>
       <c r="I74" s="63">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J74" s="93"/>
       <c r="K74" s="99"/>
@@ -10477,21 +10480,21 @@
     </row>
     <row r="75" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="59" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B75" s="117" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C75" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D75" s="116"/>
       <c r="E75" s="161">
-        <v>44497</v>
+        <v>44495</v>
       </c>
       <c r="F75" s="162">
         <f t="shared" si="8"/>
-        <v>44499</v>
+        <v>44497</v>
       </c>
       <c r="G75" s="61">
         <v>3</v>
@@ -10499,7 +10502,7 @@
       <c r="H75" s="62"/>
       <c r="I75" s="63">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J75" s="93"/>
       <c r="K75" s="99"/>
@@ -10561,29 +10564,29 @@
     </row>
     <row r="76" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" s="59" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B76" s="117" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C76" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D76" s="116"/>
       <c r="E76" s="161">
-        <v>44499</v>
+        <v>44497</v>
       </c>
       <c r="F76" s="162">
         <f t="shared" si="8"/>
-        <v>44500</v>
+        <v>44499</v>
       </c>
       <c r="G76" s="61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H76" s="62"/>
       <c r="I76" s="63">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" s="93"/>
       <c r="K76" s="99"/>
@@ -10645,7 +10648,7 @@
     </row>
     <row r="77" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="59" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B77" s="117" t="s">
         <v>155</v>
@@ -10655,11 +10658,11 @@
       </c>
       <c r="D77" s="116"/>
       <c r="E77" s="161">
-        <v>44501</v>
+        <v>44499</v>
       </c>
       <c r="F77" s="162">
         <f t="shared" si="8"/>
-        <v>44502</v>
+        <v>44500</v>
       </c>
       <c r="G77" s="61">
         <v>2</v>
@@ -10667,7 +10670,7 @@
       <c r="H77" s="62"/>
       <c r="I77" s="63">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77" s="93"/>
       <c r="K77" s="99"/>
@@ -10729,21 +10732,21 @@
     </row>
     <row r="78" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" s="59" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B78" s="117" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C78" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D78" s="116"/>
       <c r="E78" s="161">
-        <v>44502</v>
+        <v>44501</v>
       </c>
       <c r="F78" s="162">
         <f t="shared" si="8"/>
-        <v>44503</v>
+        <v>44502</v>
       </c>
       <c r="G78" s="61">
         <v>2</v>
@@ -10811,194 +10814,194 @@
       <c r="BM78" s="99"/>
       <c r="BN78" s="99"/>
     </row>
-    <row r="79" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A79" s="52" t="str">
+    <row r="79" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A79" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="B79" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D79" s="116"/>
+      <c r="E79" s="161">
+        <v>44502</v>
+      </c>
+      <c r="F79" s="162">
+        <f t="shared" si="8"/>
+        <v>44503</v>
+      </c>
+      <c r="G79" s="61">
+        <v>2</v>
+      </c>
+      <c r="H79" s="62"/>
+      <c r="I79" s="63">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J79" s="93"/>
+      <c r="K79" s="99"/>
+      <c r="L79" s="99"/>
+      <c r="M79" s="99"/>
+      <c r="N79" s="99"/>
+      <c r="O79" s="99"/>
+      <c r="P79" s="99"/>
+      <c r="Q79" s="99"/>
+      <c r="R79" s="99"/>
+      <c r="S79" s="99"/>
+      <c r="T79" s="99"/>
+      <c r="U79" s="99"/>
+      <c r="V79" s="99"/>
+      <c r="W79" s="99"/>
+      <c r="X79" s="99"/>
+      <c r="Y79" s="99"/>
+      <c r="Z79" s="99"/>
+      <c r="AA79" s="99"/>
+      <c r="AB79" s="99"/>
+      <c r="AC79" s="99"/>
+      <c r="AD79" s="99"/>
+      <c r="AE79" s="99"/>
+      <c r="AF79" s="99"/>
+      <c r="AG79" s="99"/>
+      <c r="AH79" s="99"/>
+      <c r="AI79" s="99"/>
+      <c r="AJ79" s="99"/>
+      <c r="AK79" s="99"/>
+      <c r="AL79" s="99"/>
+      <c r="AM79" s="99"/>
+      <c r="AN79" s="99"/>
+      <c r="AO79" s="99"/>
+      <c r="AP79" s="99"/>
+      <c r="AQ79" s="99"/>
+      <c r="AR79" s="99"/>
+      <c r="AS79" s="99"/>
+      <c r="AT79" s="99"/>
+      <c r="AU79" s="99"/>
+      <c r="AV79" s="99"/>
+      <c r="AW79" s="99"/>
+      <c r="AX79" s="99"/>
+      <c r="AY79" s="99"/>
+      <c r="AZ79" s="99"/>
+      <c r="BA79" s="99"/>
+      <c r="BB79" s="99"/>
+      <c r="BC79" s="99"/>
+      <c r="BD79" s="99"/>
+      <c r="BE79" s="99"/>
+      <c r="BF79" s="99"/>
+      <c r="BG79" s="99"/>
+      <c r="BH79" s="99"/>
+      <c r="BI79" s="99"/>
+      <c r="BJ79" s="99"/>
+      <c r="BK79" s="99"/>
+      <c r="BL79" s="99"/>
+      <c r="BM79" s="99"/>
+      <c r="BN79" s="99"/>
+    </row>
+    <row r="80" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A80" s="52" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
       </c>
-      <c r="B79" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="D79" s="55"/>
-      <c r="E79" s="163"/>
-      <c r="F79" s="163" t="str">
+      <c r="B80" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" s="55"/>
+      <c r="E80" s="163"/>
+      <c r="F80" s="163" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G79" s="56"/>
-      <c r="H79" s="57"/>
-      <c r="I79" s="58" t="str">
+      <c r="G80" s="56"/>
+      <c r="H80" s="57"/>
+      <c r="I80" s="58" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J79" s="94"/>
-      <c r="K79" s="101"/>
-      <c r="L79" s="101"/>
-      <c r="M79" s="101"/>
-      <c r="N79" s="101"/>
-      <c r="O79" s="101"/>
-      <c r="P79" s="101"/>
-      <c r="Q79" s="101"/>
-      <c r="R79" s="101"/>
-      <c r="S79" s="101"/>
-      <c r="T79" s="101"/>
-      <c r="U79" s="101"/>
-      <c r="V79" s="101"/>
-      <c r="W79" s="101"/>
-      <c r="X79" s="101"/>
-      <c r="Y79" s="101"/>
-      <c r="Z79" s="101"/>
-      <c r="AA79" s="101"/>
-      <c r="AB79" s="101"/>
-      <c r="AC79" s="101"/>
-      <c r="AD79" s="101"/>
-      <c r="AE79" s="101"/>
-      <c r="AF79" s="101"/>
-      <c r="AG79" s="101"/>
-      <c r="AH79" s="101"/>
-      <c r="AI79" s="101"/>
-      <c r="AJ79" s="101"/>
-      <c r="AK79" s="101"/>
-      <c r="AL79" s="101"/>
-      <c r="AM79" s="101"/>
-      <c r="AN79" s="101"/>
-      <c r="AO79" s="101"/>
-      <c r="AP79" s="101"/>
-      <c r="AQ79" s="101"/>
-      <c r="AR79" s="101"/>
-      <c r="AS79" s="101"/>
-      <c r="AT79" s="101"/>
-      <c r="AU79" s="101"/>
-      <c r="AV79" s="101"/>
-      <c r="AW79" s="101"/>
-      <c r="AX79" s="101"/>
-      <c r="AY79" s="101"/>
-      <c r="AZ79" s="101"/>
-      <c r="BA79" s="101"/>
-      <c r="BB79" s="101"/>
-      <c r="BC79" s="101"/>
-      <c r="BD79" s="101"/>
-      <c r="BE79" s="101"/>
-      <c r="BF79" s="101"/>
-      <c r="BG79" s="101"/>
-      <c r="BH79" s="101"/>
-      <c r="BI79" s="101"/>
-      <c r="BJ79" s="101"/>
-      <c r="BK79" s="101"/>
-      <c r="BL79" s="101"/>
-      <c r="BM79" s="101"/>
-      <c r="BN79" s="101"/>
-    </row>
-    <row r="80" spans="1:66" s="60" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="59">
+      <c r="J80" s="94"/>
+      <c r="K80" s="101"/>
+      <c r="L80" s="101"/>
+      <c r="M80" s="101"/>
+      <c r="N80" s="101"/>
+      <c r="O80" s="101"/>
+      <c r="P80" s="101"/>
+      <c r="Q80" s="101"/>
+      <c r="R80" s="101"/>
+      <c r="S80" s="101"/>
+      <c r="T80" s="101"/>
+      <c r="U80" s="101"/>
+      <c r="V80" s="101"/>
+      <c r="W80" s="101"/>
+      <c r="X80" s="101"/>
+      <c r="Y80" s="101"/>
+      <c r="Z80" s="101"/>
+      <c r="AA80" s="101"/>
+      <c r="AB80" s="101"/>
+      <c r="AC80" s="101"/>
+      <c r="AD80" s="101"/>
+      <c r="AE80" s="101"/>
+      <c r="AF80" s="101"/>
+      <c r="AG80" s="101"/>
+      <c r="AH80" s="101"/>
+      <c r="AI80" s="101"/>
+      <c r="AJ80" s="101"/>
+      <c r="AK80" s="101"/>
+      <c r="AL80" s="101"/>
+      <c r="AM80" s="101"/>
+      <c r="AN80" s="101"/>
+      <c r="AO80" s="101"/>
+      <c r="AP80" s="101"/>
+      <c r="AQ80" s="101"/>
+      <c r="AR80" s="101"/>
+      <c r="AS80" s="101"/>
+      <c r="AT80" s="101"/>
+      <c r="AU80" s="101"/>
+      <c r="AV80" s="101"/>
+      <c r="AW80" s="101"/>
+      <c r="AX80" s="101"/>
+      <c r="AY80" s="101"/>
+      <c r="AZ80" s="101"/>
+      <c r="BA80" s="101"/>
+      <c r="BB80" s="101"/>
+      <c r="BC80" s="101"/>
+      <c r="BD80" s="101"/>
+      <c r="BE80" s="101"/>
+      <c r="BF80" s="101"/>
+      <c r="BG80" s="101"/>
+      <c r="BH80" s="101"/>
+      <c r="BI80" s="101"/>
+      <c r="BJ80" s="101"/>
+      <c r="BK80" s="101"/>
+      <c r="BL80" s="101"/>
+      <c r="BM80" s="101"/>
+      <c r="BN80" s="101"/>
+    </row>
+    <row r="81" spans="1:66" s="60" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="59">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B80" s="176" t="s">
-        <v>185</v>
-      </c>
-      <c r="C80" s="60" t="s">
+      <c r="B81" s="176" t="s">
+        <v>184</v>
+      </c>
+      <c r="C81" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D80" s="116"/>
-      <c r="E80" s="161">
+      <c r="D81" s="116"/>
+      <c r="E81" s="161">
         <v>44504</v>
       </c>
-      <c r="F80" s="162">
-        <f t="shared" ref="F80" si="9">IF(ISBLANK(E80)," - ",IF(G80=0,E80,E80+G80-1))</f>
+      <c r="F81" s="162">
+        <f t="shared" ref="F81" si="9">IF(ISBLANK(E81)," - ",IF(G81=0,E81,E81+G81-1))</f>
         <v>44504</v>
       </c>
-      <c r="G80" s="61">
+      <c r="G81" s="61">
         <v>1</v>
       </c>
-      <c r="H80" s="62"/>
-      <c r="I80" s="63">
+      <c r="H81" s="62"/>
+      <c r="I81" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J80" s="93"/>
-      <c r="K80" s="99"/>
-      <c r="L80" s="99"/>
-      <c r="M80" s="99"/>
-      <c r="N80" s="99"/>
-      <c r="O80" s="99"/>
-      <c r="P80" s="99"/>
-      <c r="Q80" s="99"/>
-      <c r="R80" s="99"/>
-      <c r="S80" s="99"/>
-      <c r="T80" s="99"/>
-      <c r="U80" s="99"/>
-      <c r="V80" s="99"/>
-      <c r="W80" s="99"/>
-      <c r="X80" s="99"/>
-      <c r="Y80" s="99"/>
-      <c r="Z80" s="99"/>
-      <c r="AA80" s="99"/>
-      <c r="AB80" s="99"/>
-      <c r="AC80" s="99"/>
-      <c r="AD80" s="99"/>
-      <c r="AE80" s="99"/>
-      <c r="AF80" s="99"/>
-      <c r="AG80" s="99"/>
-      <c r="AH80" s="99"/>
-      <c r="AI80" s="99"/>
-      <c r="AJ80" s="99"/>
-      <c r="AK80" s="99"/>
-      <c r="AL80" s="99"/>
-      <c r="AM80" s="99"/>
-      <c r="AN80" s="99"/>
-      <c r="AO80" s="99"/>
-      <c r="AP80" s="99"/>
-      <c r="AQ80" s="99"/>
-      <c r="AR80" s="99"/>
-      <c r="AS80" s="99"/>
-      <c r="AT80" s="99"/>
-      <c r="AU80" s="99"/>
-      <c r="AV80" s="99"/>
-      <c r="AW80" s="99"/>
-      <c r="AX80" s="99"/>
-      <c r="AY80" s="99"/>
-      <c r="AZ80" s="99"/>
-      <c r="BA80" s="99"/>
-      <c r="BB80" s="99"/>
-      <c r="BC80" s="99"/>
-      <c r="BD80" s="99"/>
-      <c r="BE80" s="99"/>
-      <c r="BF80" s="99"/>
-      <c r="BG80" s="99"/>
-      <c r="BH80" s="99"/>
-      <c r="BI80" s="99"/>
-      <c r="BJ80" s="99"/>
-      <c r="BK80" s="99"/>
-      <c r="BL80" s="99"/>
-      <c r="BM80" s="99"/>
-      <c r="BN80" s="99"/>
-    </row>
-    <row r="81" spans="1:66" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
-      </c>
-      <c r="B81" s="115" t="s">
-        <v>209</v>
-      </c>
-      <c r="C81" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D81" s="116"/>
-      <c r="E81" s="161">
-        <v>44505</v>
-      </c>
-      <c r="F81" s="162">
-        <f t="shared" ref="F81" si="10">IF(ISBLANK(E81)," - ",IF(G81=0,E81,E81+G81-1))</f>
-        <v>44507</v>
-      </c>
-      <c r="G81" s="61">
-        <v>3</v>
-      </c>
-      <c r="H81" s="62">
-        <v>0</v>
-      </c>
-      <c r="I81" s="63"/>
       <c r="J81" s="93"/>
       <c r="K81" s="99"/>
       <c r="L81" s="99"/>
@@ -11057,24 +11060,24 @@
       <c r="BM81" s="99"/>
       <c r="BN81" s="99"/>
     </row>
-    <row r="82" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:66" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="B82" s="115" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C82" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D82" s="116"/>
       <c r="E82" s="161">
-        <v>44508</v>
+        <v>44505</v>
       </c>
       <c r="F82" s="162">
-        <f t="shared" si="6"/>
-        <v>44510</v>
+        <f t="shared" ref="F82" si="10">IF(ISBLANK(E82)," - ",IF(G82=0,E82,E82+G82-1))</f>
+        <v>44507</v>
       </c>
       <c r="G82" s="61">
         <v>3</v>
@@ -11082,10 +11085,7 @@
       <c r="H82" s="62">
         <v>0</v>
       </c>
-      <c r="I82" s="63">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
+      <c r="I82" s="63"/>
       <c r="J82" s="93"/>
       <c r="K82" s="99"/>
       <c r="L82" s="99"/>
@@ -11147,21 +11147,21 @@
     <row r="83" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="B83" s="115" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C83" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D83" s="116"/>
       <c r="E83" s="161">
-        <v>44511</v>
+        <v>44508</v>
       </c>
       <c r="F83" s="162">
         <f t="shared" si="6"/>
-        <v>44513</v>
+        <v>44510</v>
       </c>
       <c r="G83" s="61">
         <v>3</v>
@@ -11171,7 +11171,7 @@
       </c>
       <c r="I83" s="63">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J83" s="93"/>
       <c r="K83" s="99"/>
@@ -11234,31 +11234,31 @@
     <row r="84" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="B84" s="115" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C84" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D84" s="116"/>
       <c r="E84" s="161">
-        <v>44514</v>
+        <v>44511</v>
       </c>
       <c r="F84" s="162">
         <f t="shared" si="6"/>
-        <v>44517</v>
+        <v>44513</v>
       </c>
       <c r="G84" s="61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H84" s="62">
         <v>0</v>
       </c>
       <c r="I84" s="63">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J84" s="93"/>
       <c r="K84" s="99"/>
@@ -11318,188 +11318,188 @@
       <c r="BM84" s="99"/>
       <c r="BN84" s="99"/>
     </row>
-    <row r="85" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A85" s="52">
+    <row r="85" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A85" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.5</v>
+      </c>
+      <c r="B85" s="115" t="s">
+        <v>211</v>
+      </c>
+      <c r="C85" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D85" s="116"/>
+      <c r="E85" s="161">
+        <v>44514</v>
+      </c>
+      <c r="F85" s="162">
+        <f t="shared" si="6"/>
+        <v>44517</v>
+      </c>
+      <c r="G85" s="61">
+        <v>4</v>
+      </c>
+      <c r="H85" s="62">
+        <v>0</v>
+      </c>
+      <c r="I85" s="63">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J85" s="93"/>
+      <c r="K85" s="99"/>
+      <c r="L85" s="99"/>
+      <c r="M85" s="99"/>
+      <c r="N85" s="99"/>
+      <c r="O85" s="99"/>
+      <c r="P85" s="99"/>
+      <c r="Q85" s="99"/>
+      <c r="R85" s="99"/>
+      <c r="S85" s="99"/>
+      <c r="T85" s="99"/>
+      <c r="U85" s="99"/>
+      <c r="V85" s="99"/>
+      <c r="W85" s="99"/>
+      <c r="X85" s="99"/>
+      <c r="Y85" s="99"/>
+      <c r="Z85" s="99"/>
+      <c r="AA85" s="99"/>
+      <c r="AB85" s="99"/>
+      <c r="AC85" s="99"/>
+      <c r="AD85" s="99"/>
+      <c r="AE85" s="99"/>
+      <c r="AF85" s="99"/>
+      <c r="AG85" s="99"/>
+      <c r="AH85" s="99"/>
+      <c r="AI85" s="99"/>
+      <c r="AJ85" s="99"/>
+      <c r="AK85" s="99"/>
+      <c r="AL85" s="99"/>
+      <c r="AM85" s="99"/>
+      <c r="AN85" s="99"/>
+      <c r="AO85" s="99"/>
+      <c r="AP85" s="99"/>
+      <c r="AQ85" s="99"/>
+      <c r="AR85" s="99"/>
+      <c r="AS85" s="99"/>
+      <c r="AT85" s="99"/>
+      <c r="AU85" s="99"/>
+      <c r="AV85" s="99"/>
+      <c r="AW85" s="99"/>
+      <c r="AX85" s="99"/>
+      <c r="AY85" s="99"/>
+      <c r="AZ85" s="99"/>
+      <c r="BA85" s="99"/>
+      <c r="BB85" s="99"/>
+      <c r="BC85" s="99"/>
+      <c r="BD85" s="99"/>
+      <c r="BE85" s="99"/>
+      <c r="BF85" s="99"/>
+      <c r="BG85" s="99"/>
+      <c r="BH85" s="99"/>
+      <c r="BI85" s="99"/>
+      <c r="BJ85" s="99"/>
+      <c r="BK85" s="99"/>
+      <c r="BL85" s="99"/>
+      <c r="BM85" s="99"/>
+      <c r="BN85" s="99"/>
+    </row>
+    <row r="86" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A86" s="52">
         <v>5</v>
       </c>
-      <c r="B85" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="D85" s="55"/>
-      <c r="E85" s="163"/>
-      <c r="F85" s="163" t="str">
-        <f t="shared" ref="F85:F88" si="11">IF(ISBLANK(E85)," - ",IF(G85=0,E85,E85+G85-1))</f>
+      <c r="B86" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="D86" s="55"/>
+      <c r="E86" s="163"/>
+      <c r="F86" s="163" t="str">
+        <f t="shared" ref="F86:F89" si="11">IF(ISBLANK(E86)," - ",IF(G86=0,E86,E86+G86-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G85" s="56"/>
-      <c r="H85" s="57"/>
-      <c r="I85" s="58" t="str">
-        <f t="shared" ref="I85:I87" si="12">IF(OR(F85=0,E85=0)," - ",NETWORKDAYS(E85,F85))</f>
+      <c r="G86" s="56"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="58" t="str">
+        <f t="shared" ref="I86:I88" si="12">IF(OR(F86=0,E86=0)," - ",NETWORKDAYS(E86,F86))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J85" s="94"/>
-      <c r="K85" s="101"/>
-      <c r="L85" s="101"/>
-      <c r="M85" s="101"/>
-      <c r="N85" s="101"/>
-      <c r="O85" s="101"/>
-      <c r="P85" s="101"/>
-      <c r="Q85" s="101"/>
-      <c r="R85" s="101"/>
-      <c r="S85" s="101"/>
-      <c r="T85" s="101"/>
-      <c r="U85" s="101"/>
-      <c r="V85" s="101"/>
-      <c r="W85" s="101"/>
-      <c r="X85" s="101"/>
-      <c r="Y85" s="101"/>
-      <c r="Z85" s="101"/>
-      <c r="AA85" s="101"/>
-      <c r="AB85" s="101"/>
-      <c r="AC85" s="101"/>
-      <c r="AD85" s="101"/>
-      <c r="AE85" s="101"/>
-      <c r="AF85" s="101"/>
-      <c r="AG85" s="101"/>
-      <c r="AH85" s="101"/>
-      <c r="AI85" s="101"/>
-      <c r="AJ85" s="101"/>
-      <c r="AK85" s="101"/>
-      <c r="AL85" s="101"/>
-      <c r="AM85" s="101"/>
-      <c r="AN85" s="101"/>
-      <c r="AO85" s="101"/>
-      <c r="AP85" s="101"/>
-      <c r="AQ85" s="101"/>
-      <c r="AR85" s="101"/>
-      <c r="AS85" s="101"/>
-      <c r="AT85" s="101"/>
-      <c r="AU85" s="101"/>
-      <c r="AV85" s="101"/>
-      <c r="AW85" s="101"/>
-      <c r="AX85" s="101"/>
-      <c r="AY85" s="101"/>
-      <c r="AZ85" s="101"/>
-      <c r="BA85" s="101"/>
-      <c r="BB85" s="101"/>
-      <c r="BC85" s="101"/>
-      <c r="BD85" s="101"/>
-      <c r="BE85" s="101"/>
-      <c r="BF85" s="101"/>
-      <c r="BG85" s="101"/>
-      <c r="BH85" s="101"/>
-      <c r="BI85" s="101"/>
-      <c r="BJ85" s="101"/>
-      <c r="BK85" s="101"/>
-      <c r="BL85" s="101"/>
-      <c r="BM85" s="101"/>
-      <c r="BN85" s="101"/>
-    </row>
-    <row r="86" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A86" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.1</v>
-      </c>
-      <c r="B86" s="115" t="s">
-        <v>214</v>
-      </c>
-      <c r="C86" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D86" s="116"/>
-      <c r="E86" s="161">
-        <v>44518</v>
-      </c>
-      <c r="F86" s="162">
-        <f t="shared" si="11"/>
-        <v>44519</v>
-      </c>
-      <c r="G86" s="61">
-        <v>2</v>
-      </c>
-      <c r="H86" s="62">
-        <v>0</v>
-      </c>
-      <c r="I86" s="63">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="J86" s="93"/>
-      <c r="K86" s="99"/>
-      <c r="L86" s="99"/>
-      <c r="M86" s="99"/>
-      <c r="N86" s="99"/>
-      <c r="O86" s="99"/>
-      <c r="P86" s="99"/>
-      <c r="Q86" s="99"/>
-      <c r="R86" s="99"/>
-      <c r="S86" s="99"/>
-      <c r="T86" s="99"/>
-      <c r="U86" s="99"/>
-      <c r="V86" s="99"/>
-      <c r="W86" s="99"/>
-      <c r="X86" s="99"/>
-      <c r="Y86" s="99"/>
-      <c r="Z86" s="99"/>
-      <c r="AA86" s="99"/>
-      <c r="AB86" s="99"/>
-      <c r="AC86" s="99"/>
-      <c r="AD86" s="99"/>
-      <c r="AE86" s="99"/>
-      <c r="AF86" s="99"/>
-      <c r="AG86" s="99"/>
-      <c r="AH86" s="99"/>
-      <c r="AI86" s="99"/>
-      <c r="AJ86" s="99"/>
-      <c r="AK86" s="99"/>
-      <c r="AL86" s="99"/>
-      <c r="AM86" s="99"/>
-      <c r="AN86" s="99"/>
-      <c r="AO86" s="99"/>
-      <c r="AP86" s="99"/>
-      <c r="AQ86" s="99"/>
-      <c r="AR86" s="99"/>
-      <c r="AS86" s="99"/>
-      <c r="AT86" s="99"/>
-      <c r="AU86" s="99"/>
-      <c r="AV86" s="99"/>
-      <c r="AW86" s="99"/>
-      <c r="AX86" s="99"/>
-      <c r="AY86" s="99"/>
-      <c r="AZ86" s="99"/>
-      <c r="BA86" s="99"/>
-      <c r="BB86" s="99"/>
-      <c r="BC86" s="99"/>
-      <c r="BD86" s="99"/>
-      <c r="BE86" s="99"/>
-      <c r="BF86" s="99"/>
-      <c r="BG86" s="99"/>
-      <c r="BH86" s="99"/>
-      <c r="BI86" s="99"/>
-      <c r="BJ86" s="99"/>
-      <c r="BK86" s="99"/>
-      <c r="BL86" s="99"/>
-      <c r="BM86" s="99"/>
-      <c r="BN86" s="99"/>
+      <c r="J86" s="94"/>
+      <c r="K86" s="101"/>
+      <c r="L86" s="101"/>
+      <c r="M86" s="101"/>
+      <c r="N86" s="101"/>
+      <c r="O86" s="101"/>
+      <c r="P86" s="101"/>
+      <c r="Q86" s="101"/>
+      <c r="R86" s="101"/>
+      <c r="S86" s="101"/>
+      <c r="T86" s="101"/>
+      <c r="U86" s="101"/>
+      <c r="V86" s="101"/>
+      <c r="W86" s="101"/>
+      <c r="X86" s="101"/>
+      <c r="Y86" s="101"/>
+      <c r="Z86" s="101"/>
+      <c r="AA86" s="101"/>
+      <c r="AB86" s="101"/>
+      <c r="AC86" s="101"/>
+      <c r="AD86" s="101"/>
+      <c r="AE86" s="101"/>
+      <c r="AF86" s="101"/>
+      <c r="AG86" s="101"/>
+      <c r="AH86" s="101"/>
+      <c r="AI86" s="101"/>
+      <c r="AJ86" s="101"/>
+      <c r="AK86" s="101"/>
+      <c r="AL86" s="101"/>
+      <c r="AM86" s="101"/>
+      <c r="AN86" s="101"/>
+      <c r="AO86" s="101"/>
+      <c r="AP86" s="101"/>
+      <c r="AQ86" s="101"/>
+      <c r="AR86" s="101"/>
+      <c r="AS86" s="101"/>
+      <c r="AT86" s="101"/>
+      <c r="AU86" s="101"/>
+      <c r="AV86" s="101"/>
+      <c r="AW86" s="101"/>
+      <c r="AX86" s="101"/>
+      <c r="AY86" s="101"/>
+      <c r="AZ86" s="101"/>
+      <c r="BA86" s="101"/>
+      <c r="BB86" s="101"/>
+      <c r="BC86" s="101"/>
+      <c r="BD86" s="101"/>
+      <c r="BE86" s="101"/>
+      <c r="BF86" s="101"/>
+      <c r="BG86" s="101"/>
+      <c r="BH86" s="101"/>
+      <c r="BI86" s="101"/>
+      <c r="BJ86" s="101"/>
+      <c r="BK86" s="101"/>
+      <c r="BL86" s="101"/>
+      <c r="BM86" s="101"/>
+      <c r="BN86" s="101"/>
     </row>
     <row r="87" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="B87" s="115" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C87" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D87" s="116"/>
       <c r="E87" s="161">
-        <v>44520</v>
+        <v>44518</v>
       </c>
       <c r="F87" s="162">
         <f t="shared" si="11"/>
-        <v>44521</v>
+        <v>44519</v>
       </c>
       <c r="G87" s="61">
         <v>2</v>
@@ -11509,7 +11509,7 @@
       </c>
       <c r="I87" s="63">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" s="93"/>
       <c r="K87" s="99"/>
@@ -11569,30 +11569,36 @@
       <c r="BM87" s="99"/>
       <c r="BN87" s="99"/>
     </row>
-    <row r="88" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A88" s="59">
-        <v>5.3</v>
+    <row r="88" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A88" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.2</v>
       </c>
       <c r="B88" s="115" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C88" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D88" s="169"/>
-      <c r="E88" s="170">
-        <v>44522</v>
+      <c r="D88" s="116"/>
+      <c r="E88" s="161">
+        <v>44520</v>
       </c>
       <c r="F88" s="162">
         <f t="shared" si="11"/>
-        <v>44522</v>
-      </c>
-      <c r="G88" s="172">
-        <v>1</v>
-      </c>
-      <c r="H88" s="173"/>
-      <c r="I88" s="174"/>
-      <c r="J88" s="175"/>
+        <v>44521</v>
+      </c>
+      <c r="G88" s="61">
+        <v>2</v>
+      </c>
+      <c r="H88" s="62">
+        <v>0</v>
+      </c>
+      <c r="I88" s="63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="93"/>
       <c r="K88" s="99"/>
       <c r="L88" s="99"/>
       <c r="M88" s="99"/>
@@ -11652,7 +11658,7 @@
     </row>
     <row r="89" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A89" s="59">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="B89" s="115" t="s">
         <v>216</v>
@@ -11662,10 +11668,11 @@
       </c>
       <c r="D89" s="169"/>
       <c r="E89" s="170">
-        <v>44523</v>
-      </c>
-      <c r="F89" s="171">
-        <v>44523</v>
+        <v>44522</v>
+      </c>
+      <c r="F89" s="162">
+        <f t="shared" si="11"/>
+        <v>44522</v>
       </c>
       <c r="G89" s="172">
         <v>1</v>
@@ -11731,16 +11738,28 @@
       <c r="BN89" s="99"/>
     </row>
     <row r="90" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A90" s="59"/>
-      <c r="B90" s="64"/>
-      <c r="C90" s="64"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="164"/>
-      <c r="F90" s="164"/>
-      <c r="G90" s="66"/>
-      <c r="H90" s="67"/>
-      <c r="I90" s="68"/>
-      <c r="J90" s="95"/>
+      <c r="A90" s="59">
+        <v>5.4</v>
+      </c>
+      <c r="B90" s="115" t="s">
+        <v>215</v>
+      </c>
+      <c r="C90" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D90" s="169"/>
+      <c r="E90" s="170">
+        <v>44523</v>
+      </c>
+      <c r="F90" s="171">
+        <v>44523</v>
+      </c>
+      <c r="G90" s="172">
+        <v>1</v>
+      </c>
+      <c r="H90" s="173"/>
+      <c r="I90" s="174"/>
+      <c r="J90" s="175"/>
       <c r="K90" s="99"/>
       <c r="L90" s="99"/>
       <c r="M90" s="99"/>
@@ -11943,10 +11962,7 @@
       <c r="F93" s="164"/>
       <c r="G93" s="66"/>
       <c r="H93" s="67"/>
-      <c r="I93" s="68" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
+      <c r="I93" s="68"/>
       <c r="J93" s="95"/>
       <c r="K93" s="99"/>
       <c r="L93" s="99"/>
@@ -12005,19 +12021,20 @@
       <c r="BM93" s="99"/>
       <c r="BN93" s="99"/>
     </row>
-    <row r="94" spans="1:66" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A94" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="B94" s="71"/>
-      <c r="C94" s="72"/>
-      <c r="D94" s="72"/>
-      <c r="E94" s="165"/>
-      <c r="F94" s="165"/>
-      <c r="G94" s="73"/>
-      <c r="H94" s="73"/>
-      <c r="I94" s="73"/>
-      <c r="J94" s="96"/>
+    <row r="94" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A94" s="59"/>
+      <c r="B94" s="64"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="164"/>
+      <c r="F94" s="164"/>
+      <c r="G94" s="66"/>
+      <c r="H94" s="67"/>
+      <c r="I94" s="68" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J94" s="95"/>
       <c r="K94" s="99"/>
       <c r="L94" s="99"/>
       <c r="M94" s="99"/>
@@ -12075,18 +12092,18 @@
       <c r="BM94" s="99"/>
       <c r="BN94" s="99"/>
     </row>
-    <row r="95" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A95" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="B95" s="76"/>
-      <c r="C95" s="76"/>
-      <c r="D95" s="76"/>
-      <c r="E95" s="166"/>
-      <c r="F95" s="166"/>
-      <c r="G95" s="76"/>
-      <c r="H95" s="76"/>
-      <c r="I95" s="76"/>
+    <row r="95" spans="1:66" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A95" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="71"/>
+      <c r="C95" s="72"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="165"/>
+      <c r="F95" s="165"/>
+      <c r="G95" s="73"/>
+      <c r="H95" s="73"/>
+      <c r="I95" s="73"/>
       <c r="J95" s="96"/>
       <c r="K95" s="99"/>
       <c r="L95" s="99"/>
@@ -12146,27 +12163,18 @@
       <c r="BN95" s="99"/>
     </row>
     <row r="96" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A96" s="119" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B96" s="120" t="s">
-        <v>76</v>
-      </c>
-      <c r="C96" s="77"/>
-      <c r="D96" s="78"/>
-      <c r="E96" s="161"/>
-      <c r="F96" s="162" t="str">
-        <f t="shared" ref="F96:F99" si="13">IF(ISBLANK(E96)," - ",IF(G96=0,E96,E96+G96-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G96" s="61"/>
-      <c r="H96" s="62"/>
-      <c r="I96" s="79" t="str">
-        <f>IF(OR(F96=0,E96=0)," - ",NETWORKDAYS(E96,F96))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J96" s="97"/>
+      <c r="A96" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B96" s="76"/>
+      <c r="C96" s="76"/>
+      <c r="D96" s="76"/>
+      <c r="E96" s="166"/>
+      <c r="F96" s="166"/>
+      <c r="G96" s="76"/>
+      <c r="H96" s="76"/>
+      <c r="I96" s="76"/>
+      <c r="J96" s="96"/>
       <c r="K96" s="99"/>
       <c r="L96" s="99"/>
       <c r="M96" s="99"/>
@@ -12225,24 +12233,24 @@
       <c r="BN96" s="99"/>
     </row>
     <row r="97" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A97" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B97" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="C97" s="80"/>
+      <c r="A97" s="119" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B97" s="120" t="s">
+        <v>76</v>
+      </c>
+      <c r="C97" s="77"/>
       <c r="D97" s="78"/>
       <c r="E97" s="161"/>
       <c r="F97" s="162" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="F97:F100" si="13">IF(ISBLANK(E97)," - ",IF(G97=0,E97,E97+G97-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G97" s="61"/>
       <c r="H97" s="62"/>
       <c r="I97" s="79" t="str">
-        <f t="shared" ref="I97:I99" si="14">IF(OR(F97=0,E97=0)," - ",NETWORKDAYS(E97,F97))</f>
+        <f>IF(OR(F97=0,E97=0)," - ",NETWORKDAYS(E97,F97))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J97" s="97"/>
@@ -12305,11 +12313,11 @@
     </row>
     <row r="98" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A98" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
-      </c>
-      <c r="B98" s="81" t="s">
-        <v>63</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B98" s="80" t="s">
+        <v>62</v>
       </c>
       <c r="C98" s="80"/>
       <c r="D98" s="78"/>
@@ -12321,7 +12329,7 @@
       <c r="G98" s="61"/>
       <c r="H98" s="62"/>
       <c r="I98" s="79" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="I98:I100" si="14">IF(OR(F98=0,E98=0)," - ",NETWORKDAYS(E98,F98))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J98" s="97"/>
@@ -12384,11 +12392,11 @@
     </row>
     <row r="99" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A99" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
       </c>
       <c r="B99" s="81" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C99" s="80"/>
       <c r="D99" s="78"/>
@@ -12461,80 +12469,168 @@
       <c r="BM99" s="99"/>
       <c r="BN99" s="99"/>
     </row>
-    <row r="100" spans="1:66" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="151" t="str">
+    <row r="100" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A100" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="B100" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="C100" s="80"/>
+      <c r="D100" s="78"/>
+      <c r="E100" s="161"/>
+      <c r="F100" s="162" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G100" s="61"/>
+      <c r="H100" s="62"/>
+      <c r="I100" s="79" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J100" s="97"/>
+      <c r="K100" s="99"/>
+      <c r="L100" s="99"/>
+      <c r="M100" s="99"/>
+      <c r="N100" s="99"/>
+      <c r="O100" s="99"/>
+      <c r="P100" s="99"/>
+      <c r="Q100" s="99"/>
+      <c r="R100" s="99"/>
+      <c r="S100" s="99"/>
+      <c r="T100" s="99"/>
+      <c r="U100" s="99"/>
+      <c r="V100" s="99"/>
+      <c r="W100" s="99"/>
+      <c r="X100" s="99"/>
+      <c r="Y100" s="99"/>
+      <c r="Z100" s="99"/>
+      <c r="AA100" s="99"/>
+      <c r="AB100" s="99"/>
+      <c r="AC100" s="99"/>
+      <c r="AD100" s="99"/>
+      <c r="AE100" s="99"/>
+      <c r="AF100" s="99"/>
+      <c r="AG100" s="99"/>
+      <c r="AH100" s="99"/>
+      <c r="AI100" s="99"/>
+      <c r="AJ100" s="99"/>
+      <c r="AK100" s="99"/>
+      <c r="AL100" s="99"/>
+      <c r="AM100" s="99"/>
+      <c r="AN100" s="99"/>
+      <c r="AO100" s="99"/>
+      <c r="AP100" s="99"/>
+      <c r="AQ100" s="99"/>
+      <c r="AR100" s="99"/>
+      <c r="AS100" s="99"/>
+      <c r="AT100" s="99"/>
+      <c r="AU100" s="99"/>
+      <c r="AV100" s="99"/>
+      <c r="AW100" s="99"/>
+      <c r="AX100" s="99"/>
+      <c r="AY100" s="99"/>
+      <c r="AZ100" s="99"/>
+      <c r="BA100" s="99"/>
+      <c r="BB100" s="99"/>
+      <c r="BC100" s="99"/>
+      <c r="BD100" s="99"/>
+      <c r="BE100" s="99"/>
+      <c r="BF100" s="99"/>
+      <c r="BG100" s="99"/>
+      <c r="BH100" s="99"/>
+      <c r="BI100" s="99"/>
+      <c r="BJ100" s="99"/>
+      <c r="BK100" s="99"/>
+      <c r="BL100" s="99"/>
+      <c r="BM100" s="99"/>
+      <c r="BN100" s="99"/>
+    </row>
+    <row r="101" spans="1:66" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="151" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
         <v>► Watch How to Create a Gantt Chart in Excel</v>
       </c>
-      <c r="B100" s="30"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="167"/>
-      <c r="F100" s="167"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="30"/>
-      <c r="I100" s="30"/>
-      <c r="J100" s="30"/>
-      <c r="K100" s="30"/>
-      <c r="L100" s="30"/>
-      <c r="M100" s="30"/>
-      <c r="N100" s="30"/>
-      <c r="O100" s="30"/>
-      <c r="P100" s="30"/>
-      <c r="Q100" s="30"/>
-      <c r="R100" s="30"/>
-      <c r="S100" s="30"/>
-      <c r="T100" s="30"/>
-      <c r="U100" s="30"/>
-      <c r="V100" s="30"/>
-      <c r="W100" s="30"/>
-      <c r="X100" s="30"/>
-      <c r="Y100" s="30"/>
-      <c r="Z100" s="30"/>
-      <c r="AA100" s="30"/>
-      <c r="AB100" s="30"/>
-      <c r="AC100" s="30"/>
-      <c r="AD100" s="30"/>
-      <c r="AE100" s="30"/>
-      <c r="AF100" s="30"/>
-      <c r="AG100" s="30"/>
-      <c r="AH100" s="30"/>
-      <c r="AI100" s="30"/>
-      <c r="AJ100" s="30"/>
-      <c r="AK100" s="30"/>
-      <c r="AL100" s="30"/>
-      <c r="AM100" s="30"/>
-      <c r="AN100" s="30"/>
-      <c r="AO100" s="30"/>
-      <c r="AP100" s="30"/>
-      <c r="AQ100" s="30"/>
-      <c r="AR100" s="30"/>
-      <c r="AS100" s="30"/>
-      <c r="AT100" s="30"/>
-      <c r="AU100" s="30"/>
-      <c r="AV100" s="30"/>
-      <c r="AW100" s="30"/>
-      <c r="AX100" s="30"/>
-      <c r="AY100" s="30"/>
-      <c r="AZ100" s="30"/>
-      <c r="BA100" s="30"/>
-      <c r="BB100" s="30"/>
-      <c r="BC100" s="30"/>
-      <c r="BD100" s="30"/>
-      <c r="BE100" s="30"/>
-      <c r="BF100" s="30"/>
-      <c r="BG100" s="30"/>
-      <c r="BH100" s="30"/>
-      <c r="BI100" s="30"/>
-      <c r="BJ100" s="30"/>
-      <c r="BK100" s="30"/>
-      <c r="BL100" s="30"/>
-      <c r="BM100" s="30"/>
-      <c r="BN100" s="30"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="167"/>
+      <c r="F101" s="167"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="30"/>
+      <c r="J101" s="30"/>
+      <c r="K101" s="30"/>
+      <c r="L101" s="30"/>
+      <c r="M101" s="30"/>
+      <c r="N101" s="30"/>
+      <c r="O101" s="30"/>
+      <c r="P101" s="30"/>
+      <c r="Q101" s="30"/>
+      <c r="R101" s="30"/>
+      <c r="S101" s="30"/>
+      <c r="T101" s="30"/>
+      <c r="U101" s="30"/>
+      <c r="V101" s="30"/>
+      <c r="W101" s="30"/>
+      <c r="X101" s="30"/>
+      <c r="Y101" s="30"/>
+      <c r="Z101" s="30"/>
+      <c r="AA101" s="30"/>
+      <c r="AB101" s="30"/>
+      <c r="AC101" s="30"/>
+      <c r="AD101" s="30"/>
+      <c r="AE101" s="30"/>
+      <c r="AF101" s="30"/>
+      <c r="AG101" s="30"/>
+      <c r="AH101" s="30"/>
+      <c r="AI101" s="30"/>
+      <c r="AJ101" s="30"/>
+      <c r="AK101" s="30"/>
+      <c r="AL101" s="30"/>
+      <c r="AM101" s="30"/>
+      <c r="AN101" s="30"/>
+      <c r="AO101" s="30"/>
+      <c r="AP101" s="30"/>
+      <c r="AQ101" s="30"/>
+      <c r="AR101" s="30"/>
+      <c r="AS101" s="30"/>
+      <c r="AT101" s="30"/>
+      <c r="AU101" s="30"/>
+      <c r="AV101" s="30"/>
+      <c r="AW101" s="30"/>
+      <c r="AX101" s="30"/>
+      <c r="AY101" s="30"/>
+      <c r="AZ101" s="30"/>
+      <c r="BA101" s="30"/>
+      <c r="BB101" s="30"/>
+      <c r="BC101" s="30"/>
+      <c r="BD101" s="30"/>
+      <c r="BE101" s="30"/>
+      <c r="BF101" s="30"/>
+      <c r="BG101" s="30"/>
+      <c r="BH101" s="30"/>
+      <c r="BI101" s="30"/>
+      <c r="BJ101" s="30"/>
+      <c r="BK101" s="30"/>
+      <c r="BL101" s="30"/>
+      <c r="BM101" s="30"/>
+      <c r="BN101" s="30"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -12545,18 +12641,9 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H90:H99 H82:H84 H8:H79">
+  <conditionalFormatting sqref="H91:H100 H83:H85 H8:H80">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12575,7 +12662,7 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN99">
+  <conditionalFormatting sqref="K8:BN100">
     <cfRule type="expression" dxfId="3" priority="54">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
@@ -12583,12 +12670,12 @@
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K90:BN99 K6:BN84">
+  <conditionalFormatting sqref="K91:BN100 K6:BN85">
     <cfRule type="expression" dxfId="1" priority="14">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H85:H89">
+  <conditionalFormatting sqref="H86:H90">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12602,12 +12689,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K85:BN89">
+  <conditionalFormatting sqref="K86:BN90">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
+  <conditionalFormatting sqref="H82">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12621,7 +12708,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
+  <conditionalFormatting sqref="H81">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12645,8 +12732,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 A93:B93 A95:B95 B94 E25 E68 E79 E93:H95 G25:H25 G68:H68 G79:H79 H45 G96:G99 H27 H36 H69 H71 H84 H82 H83" unlockedFormula="1"/>
-    <ignoredError sqref="A79 A68 A25" formula="1"/>
+    <ignoredError sqref="H9 A94:B94 A96:B96 B95 E26 E69 E80 E94:H96 G26:H26 G69:H69 G80:H80 H46 G97:G100 H28 H37 H70 H72 H85 H83 H84" unlockedFormula="1"/>
+    <ignoredError sqref="A80 A69 A26" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -12694,7 +12781,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H90:H99 H82:H84 H8:H79</xm:sqref>
+          <xm:sqref>H91:H100 H83:H85 H8:H80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{81583CEC-7F5F-4E46-98E4-AC29FDBC59D0}">
@@ -12709,7 +12796,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H85:H89</xm:sqref>
+          <xm:sqref>H86:H90</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{392BF783-6F84-4AE1-9909-0D933F104F59}">
@@ -12724,7 +12811,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H81</xm:sqref>
+          <xm:sqref>H82</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7442C97C-5EBD-4EE1-AFFB-9CBCA499BBD1}">
@@ -12739,7 +12826,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H80</xm:sqref>
+          <xm:sqref>H81</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/gantt-chart_L.xlsx
+++ b/gantt-chart_L.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HTCS5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3063E8AE-3BCC-43E9-93BD-A146726C608B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8555B68E-06F5-4F8C-B8EF-2E6E2E77F55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1746,12 +1746,6 @@
     <t>Software Configuration</t>
   </si>
   <si>
-    <t>Preparation for Presentation</t>
-  </si>
-  <si>
-    <t>Maintenance</t>
-  </si>
-  <si>
     <t>User Training</t>
   </si>
   <si>
@@ -1813,6 +1807,12 @@
   </si>
   <si>
     <t>1.8.1</t>
+  </si>
+  <si>
+    <t>Database Testing</t>
+  </si>
+  <si>
+    <t>Launch</t>
   </si>
 </sst>
 </file>
@@ -3198,6 +3198,13 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3207,6 +3214,10 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="166" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3215,17 +3226,6 @@
     </xf>
     <xf numFmtId="166" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4074,7 +4074,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4102,29 +4102,29 @@
       <c r="E1" s="152"/>
       <c r="F1" s="152"/>
       <c r="I1" s="121"/>
-      <c r="K1" s="183" t="s">
+      <c r="K1" s="177" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="183"/>
-      <c r="T1" s="183"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="183"/>
-      <c r="W1" s="183"/>
-      <c r="X1" s="183"/>
-      <c r="Y1" s="183"/>
-      <c r="Z1" s="183"/>
-      <c r="AA1" s="183"/>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="183"/>
-      <c r="AD1" s="183"/>
-      <c r="AE1" s="183"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
@@ -4169,11 +4169,11 @@
       <c r="B4" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="185">
+      <c r="C4" s="182">
         <v>44459</v>
       </c>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="182"/>
       <c r="F4" s="155"/>
       <c r="G4" s="105" t="s">
         <v>73</v>
@@ -4183,182 +4183,182 @@
       </c>
       <c r="I4" s="103"/>
       <c r="J4" s="49"/>
-      <c r="K4" s="177" t="str">
+      <c r="K4" s="179" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="178"/>
-      <c r="M4" s="178"/>
-      <c r="N4" s="178"/>
-      <c r="O4" s="178"/>
-      <c r="P4" s="178"/>
-      <c r="Q4" s="179"/>
-      <c r="R4" s="177" t="str">
+      <c r="L4" s="180"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="180"/>
+      <c r="P4" s="180"/>
+      <c r="Q4" s="181"/>
+      <c r="R4" s="179" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="178"/>
-      <c r="T4" s="178"/>
-      <c r="U4" s="178"/>
-      <c r="V4" s="178"/>
-      <c r="W4" s="178"/>
-      <c r="X4" s="179"/>
-      <c r="Y4" s="177" t="str">
+      <c r="S4" s="180"/>
+      <c r="T4" s="180"/>
+      <c r="U4" s="180"/>
+      <c r="V4" s="180"/>
+      <c r="W4" s="180"/>
+      <c r="X4" s="181"/>
+      <c r="Y4" s="179" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="178"/>
-      <c r="AA4" s="178"/>
-      <c r="AB4" s="178"/>
-      <c r="AC4" s="178"/>
-      <c r="AD4" s="178"/>
-      <c r="AE4" s="179"/>
-      <c r="AF4" s="177" t="str">
+      <c r="Z4" s="180"/>
+      <c r="AA4" s="180"/>
+      <c r="AB4" s="180"/>
+      <c r="AC4" s="180"/>
+      <c r="AD4" s="180"/>
+      <c r="AE4" s="181"/>
+      <c r="AF4" s="179" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="178"/>
-      <c r="AH4" s="178"/>
-      <c r="AI4" s="178"/>
-      <c r="AJ4" s="178"/>
-      <c r="AK4" s="178"/>
-      <c r="AL4" s="179"/>
-      <c r="AM4" s="177" t="str">
+      <c r="AG4" s="180"/>
+      <c r="AH4" s="180"/>
+      <c r="AI4" s="180"/>
+      <c r="AJ4" s="180"/>
+      <c r="AK4" s="180"/>
+      <c r="AL4" s="181"/>
+      <c r="AM4" s="179" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="178"/>
-      <c r="AO4" s="178"/>
-      <c r="AP4" s="178"/>
-      <c r="AQ4" s="178"/>
-      <c r="AR4" s="178"/>
-      <c r="AS4" s="179"/>
-      <c r="AT4" s="177" t="str">
+      <c r="AN4" s="180"/>
+      <c r="AO4" s="180"/>
+      <c r="AP4" s="180"/>
+      <c r="AQ4" s="180"/>
+      <c r="AR4" s="180"/>
+      <c r="AS4" s="181"/>
+      <c r="AT4" s="179" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="178"/>
-      <c r="AV4" s="178"/>
-      <c r="AW4" s="178"/>
-      <c r="AX4" s="178"/>
-      <c r="AY4" s="178"/>
-      <c r="AZ4" s="179"/>
-      <c r="BA4" s="177" t="str">
+      <c r="AU4" s="180"/>
+      <c r="AV4" s="180"/>
+      <c r="AW4" s="180"/>
+      <c r="AX4" s="180"/>
+      <c r="AY4" s="180"/>
+      <c r="AZ4" s="181"/>
+      <c r="BA4" s="179" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="178"/>
-      <c r="BC4" s="178"/>
-      <c r="BD4" s="178"/>
-      <c r="BE4" s="178"/>
-      <c r="BF4" s="178"/>
-      <c r="BG4" s="179"/>
-      <c r="BH4" s="177" t="str">
+      <c r="BB4" s="180"/>
+      <c r="BC4" s="180"/>
+      <c r="BD4" s="180"/>
+      <c r="BE4" s="180"/>
+      <c r="BF4" s="180"/>
+      <c r="BG4" s="181"/>
+      <c r="BH4" s="179" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="178"/>
-      <c r="BJ4" s="178"/>
-      <c r="BK4" s="178"/>
-      <c r="BL4" s="178"/>
-      <c r="BM4" s="178"/>
-      <c r="BN4" s="179"/>
+      <c r="BI4" s="180"/>
+      <c r="BJ4" s="180"/>
+      <c r="BK4" s="180"/>
+      <c r="BL4" s="180"/>
+      <c r="BM4" s="180"/>
+      <c r="BN4" s="181"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="102"/>
       <c r="B5" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="184" t="s">
+      <c r="C5" s="178" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
       <c r="F5" s="156"/>
       <c r="G5" s="104"/>
       <c r="H5" s="104"/>
       <c r="I5" s="104"/>
       <c r="J5" s="49"/>
-      <c r="K5" s="180">
+      <c r="K5" s="183">
         <f>K6</f>
         <v>44459</v>
       </c>
-      <c r="L5" s="181"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="181"/>
-      <c r="O5" s="181"/>
-      <c r="P5" s="181"/>
-      <c r="Q5" s="182"/>
-      <c r="R5" s="180">
+      <c r="L5" s="184"/>
+      <c r="M5" s="184"/>
+      <c r="N5" s="184"/>
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="185"/>
+      <c r="R5" s="183">
         <f>R6</f>
         <v>44466</v>
       </c>
-      <c r="S5" s="181"/>
-      <c r="T5" s="181"/>
-      <c r="U5" s="181"/>
-      <c r="V5" s="181"/>
-      <c r="W5" s="181"/>
-      <c r="X5" s="182"/>
-      <c r="Y5" s="180">
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="X5" s="185"/>
+      <c r="Y5" s="183">
         <f>Y6</f>
         <v>44473</v>
       </c>
-      <c r="Z5" s="181"/>
-      <c r="AA5" s="181"/>
-      <c r="AB5" s="181"/>
-      <c r="AC5" s="181"/>
-      <c r="AD5" s="181"/>
-      <c r="AE5" s="182"/>
-      <c r="AF5" s="180">
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="184"/>
+      <c r="AB5" s="184"/>
+      <c r="AC5" s="184"/>
+      <c r="AD5" s="184"/>
+      <c r="AE5" s="185"/>
+      <c r="AF5" s="183">
         <f>AF6</f>
         <v>44480</v>
       </c>
-      <c r="AG5" s="181"/>
-      <c r="AH5" s="181"/>
-      <c r="AI5" s="181"/>
-      <c r="AJ5" s="181"/>
-      <c r="AK5" s="181"/>
-      <c r="AL5" s="182"/>
-      <c r="AM5" s="180">
+      <c r="AG5" s="184"/>
+      <c r="AH5" s="184"/>
+      <c r="AI5" s="184"/>
+      <c r="AJ5" s="184"/>
+      <c r="AK5" s="184"/>
+      <c r="AL5" s="185"/>
+      <c r="AM5" s="183">
         <f>AM6</f>
         <v>44487</v>
       </c>
-      <c r="AN5" s="181"/>
-      <c r="AO5" s="181"/>
-      <c r="AP5" s="181"/>
-      <c r="AQ5" s="181"/>
-      <c r="AR5" s="181"/>
-      <c r="AS5" s="182"/>
-      <c r="AT5" s="180">
+      <c r="AN5" s="184"/>
+      <c r="AO5" s="184"/>
+      <c r="AP5" s="184"/>
+      <c r="AQ5" s="184"/>
+      <c r="AR5" s="184"/>
+      <c r="AS5" s="185"/>
+      <c r="AT5" s="183">
         <f>AT6</f>
         <v>44494</v>
       </c>
-      <c r="AU5" s="181"/>
-      <c r="AV5" s="181"/>
-      <c r="AW5" s="181"/>
-      <c r="AX5" s="181"/>
-      <c r="AY5" s="181"/>
-      <c r="AZ5" s="182"/>
-      <c r="BA5" s="180">
+      <c r="AU5" s="184"/>
+      <c r="AV5" s="184"/>
+      <c r="AW5" s="184"/>
+      <c r="AX5" s="184"/>
+      <c r="AY5" s="184"/>
+      <c r="AZ5" s="185"/>
+      <c r="BA5" s="183">
         <f>BA6</f>
         <v>44501</v>
       </c>
-      <c r="BB5" s="181"/>
-      <c r="BC5" s="181"/>
-      <c r="BD5" s="181"/>
-      <c r="BE5" s="181"/>
-      <c r="BF5" s="181"/>
-      <c r="BG5" s="182"/>
-      <c r="BH5" s="180">
+      <c r="BB5" s="184"/>
+      <c r="BC5" s="184"/>
+      <c r="BD5" s="184"/>
+      <c r="BE5" s="184"/>
+      <c r="BF5" s="184"/>
+      <c r="BG5" s="185"/>
+      <c r="BH5" s="183">
         <f>BH6</f>
         <v>44508</v>
       </c>
-      <c r="BI5" s="181"/>
-      <c r="BJ5" s="181"/>
-      <c r="BK5" s="181"/>
-      <c r="BL5" s="181"/>
-      <c r="BM5" s="181"/>
-      <c r="BN5" s="182"/>
+      <c r="BI5" s="184"/>
+      <c r="BJ5" s="184"/>
+      <c r="BK5" s="184"/>
+      <c r="BL5" s="184"/>
+      <c r="BM5" s="184"/>
+      <c r="BN5" s="185"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
@@ -5205,7 +5205,7 @@
         <v>44461</v>
       </c>
       <c r="F12" s="162">
-        <f t="shared" ref="F12:F20" si="7">IF(ISBLANK(E12)," - ",IF(G12=0,E12,E12+G12-1))</f>
+        <f t="shared" ref="F12:F19" si="7">IF(ISBLANK(E12)," - ",IF(G12=0,E12,E12+G12-1))</f>
         <v>44461</v>
       </c>
       <c r="G12" s="61">
@@ -5954,7 +5954,7 @@
         <v>1.5</v>
       </c>
       <c r="B21" s="115" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C21" s="60" t="s">
         <v>136</v>
@@ -6296,7 +6296,7 @@
     </row>
     <row r="25" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A25" s="59" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B25" s="117" t="s">
         <v>146</v>
@@ -8150,10 +8150,10 @@
     </row>
     <row r="47" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="59" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B47" s="117" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C47" s="60" t="s">
         <v>136</v>
@@ -8234,10 +8234,10 @@
     </row>
     <row r="48" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="59" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B48" s="117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C48" s="60" t="s">
         <v>136</v>
@@ -8318,10 +8318,10 @@
     </row>
     <row r="49" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="59" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B49" s="117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C49" s="60" t="s">
         <v>136</v>
@@ -8405,7 +8405,7 @@
         <v>2.5</v>
       </c>
       <c r="B50" s="115" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C50" s="60" t="s">
         <v>136</v>
@@ -8486,7 +8486,7 @@
     </row>
     <row r="51" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="59" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B51" s="117" t="s">
         <v>155</v>
@@ -8567,7 +8567,7 @@
     </row>
     <row r="52" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="59" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B52" s="117" t="s">
         <v>154</v>
@@ -8648,7 +8648,7 @@
     </row>
     <row r="53" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="59" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B53" s="117" t="s">
         <v>156</v>
@@ -8729,7 +8729,7 @@
     </row>
     <row r="54" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="59" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B54" s="117" t="s">
         <v>158</v>
@@ -8810,7 +8810,7 @@
     </row>
     <row r="55" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="59" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B55" s="117" t="s">
         <v>160</v>
@@ -8891,7 +8891,7 @@
     </row>
     <row r="56" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="59" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B56" s="117" t="s">
         <v>163</v>
@@ -8972,7 +8972,7 @@
     </row>
     <row r="57" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="59" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B57" s="117" t="s">
         <v>164</v>
@@ -9053,7 +9053,7 @@
     </row>
     <row r="58" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="59" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B58" s="117" t="s">
         <v>166</v>
@@ -10991,7 +10991,7 @@
         <v>44504</v>
       </c>
       <c r="F81" s="162">
-        <f t="shared" ref="F81" si="9">IF(ISBLANK(E81)," - ",IF(G81=0,E81,E81+G81-1))</f>
+        <f t="shared" ref="F81:F82" si="9">IF(ISBLANK(E81)," - ",IF(G81=0,E81,E81+G81-1))</f>
         <v>44504</v>
       </c>
       <c r="G81" s="61">
@@ -11060,13 +11060,12 @@
       <c r="BM81" s="99"/>
       <c r="BN81" s="99"/>
     </row>
-    <row r="82" spans="1:66" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+    <row r="82" spans="1:66" s="60" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="59">
         <v>4.2</v>
       </c>
-      <c r="B82" s="115" t="s">
-        <v>208</v>
+      <c r="B82" s="176" t="s">
+        <v>232</v>
       </c>
       <c r="C82" s="60" t="s">
         <v>136</v>
@@ -11076,16 +11075,17 @@
         <v>44505</v>
       </c>
       <c r="F82" s="162">
-        <f t="shared" ref="F82" si="10">IF(ISBLANK(E82)," - ",IF(G82=0,E82,E82+G82-1))</f>
-        <v>44507</v>
+        <f t="shared" si="9"/>
+        <v>44505</v>
       </c>
       <c r="G82" s="61">
-        <v>3</v>
-      </c>
-      <c r="H82" s="62">
-        <v>0</v>
-      </c>
-      <c r="I82" s="63"/>
+        <v>1</v>
+      </c>
+      <c r="H82" s="62"/>
+      <c r="I82" s="63">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="J82" s="93"/>
       <c r="K82" s="99"/>
       <c r="L82" s="99"/>
@@ -11144,24 +11144,24 @@
       <c r="BM82" s="99"/>
       <c r="BN82" s="99"/>
     </row>
-    <row r="83" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:66" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.3</v>
       </c>
       <c r="B83" s="115" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C83" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D83" s="116"/>
       <c r="E83" s="161">
-        <v>44508</v>
+        <v>44505</v>
       </c>
       <c r="F83" s="162">
-        <f t="shared" si="6"/>
-        <v>44510</v>
+        <f t="shared" ref="F83" si="10">IF(ISBLANK(E83)," - ",IF(G83=0,E83,E83+G83-1))</f>
+        <v>44507</v>
       </c>
       <c r="G83" s="61">
         <v>3</v>
@@ -11169,10 +11169,7 @@
       <c r="H83" s="62">
         <v>0</v>
       </c>
-      <c r="I83" s="63">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
+      <c r="I83" s="63"/>
       <c r="J83" s="93"/>
       <c r="K83" s="99"/>
       <c r="L83" s="99"/>
@@ -11237,18 +11234,18 @@
         <v>4.4</v>
       </c>
       <c r="B84" s="115" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C84" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D84" s="116"/>
       <c r="E84" s="161">
-        <v>44511</v>
+        <v>44508</v>
       </c>
       <c r="F84" s="162">
         <f t="shared" si="6"/>
-        <v>44513</v>
+        <v>44510</v>
       </c>
       <c r="G84" s="61">
         <v>3</v>
@@ -11258,7 +11255,7 @@
       </c>
       <c r="I84" s="63">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J84" s="93"/>
       <c r="K84" s="99"/>
@@ -11324,28 +11321,28 @@
         <v>4.5</v>
       </c>
       <c r="B85" s="115" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C85" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D85" s="116"/>
       <c r="E85" s="161">
-        <v>44514</v>
+        <v>44511</v>
       </c>
       <c r="F85" s="162">
         <f t="shared" si="6"/>
-        <v>44517</v>
+        <v>44513</v>
       </c>
       <c r="G85" s="61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H85" s="62">
         <v>0</v>
       </c>
       <c r="I85" s="63">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J85" s="93"/>
       <c r="K85" s="99"/>
@@ -11410,12 +11407,12 @@
         <v>5</v>
       </c>
       <c r="B86" s="53" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="D86" s="55"/>
       <c r="E86" s="163"/>
       <c r="F86" s="163" t="str">
-        <f t="shared" ref="F86:F89" si="11">IF(ISBLANK(E86)," - ",IF(G86=0,E86,E86+G86-1))</f>
+        <f t="shared" ref="F86:F90" si="11">IF(ISBLANK(E86)," - ",IF(G86=0,E86,E86+G86-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G86" s="56"/>
@@ -11488,18 +11485,18 @@
         <v>5.1</v>
       </c>
       <c r="B87" s="115" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C87" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D87" s="116"/>
       <c r="E87" s="161">
-        <v>44518</v>
+        <v>44514</v>
       </c>
       <c r="F87" s="162">
         <f t="shared" si="11"/>
-        <v>44519</v>
+        <v>44515</v>
       </c>
       <c r="G87" s="61">
         <v>2</v>
@@ -11509,7 +11506,7 @@
       </c>
       <c r="I87" s="63">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" s="93"/>
       <c r="K87" s="99"/>
@@ -11575,18 +11572,18 @@
         <v>5.2</v>
       </c>
       <c r="B88" s="115" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C88" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D88" s="116"/>
       <c r="E88" s="161">
-        <v>44520</v>
+        <v>44516</v>
       </c>
       <c r="F88" s="162">
         <f t="shared" si="11"/>
-        <v>44521</v>
+        <v>44517</v>
       </c>
       <c r="G88" s="61">
         <v>2</v>
@@ -11596,7 +11593,7 @@
       </c>
       <c r="I88" s="63">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" s="93"/>
       <c r="K88" s="99"/>
@@ -11661,18 +11658,18 @@
         <v>5.3</v>
       </c>
       <c r="B89" s="115" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C89" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D89" s="169"/>
       <c r="E89" s="170">
-        <v>44522</v>
+        <v>44518</v>
       </c>
       <c r="F89" s="162">
         <f t="shared" si="11"/>
-        <v>44522</v>
+        <v>44518</v>
       </c>
       <c r="G89" s="172">
         <v>1</v>
@@ -11742,17 +11739,18 @@
         <v>5.4</v>
       </c>
       <c r="B90" s="115" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C90" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D90" s="169"/>
       <c r="E90" s="170">
-        <v>44523</v>
-      </c>
-      <c r="F90" s="171">
-        <v>44523</v>
+        <v>44519</v>
+      </c>
+      <c r="F90" s="162">
+        <f t="shared" si="11"/>
+        <v>44519</v>
       </c>
       <c r="G90" s="172">
         <v>1</v>
@@ -12622,15 +12620,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -12641,9 +12630,18 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H91:H100 H83:H85 H8:H80">
+  <conditionalFormatting sqref="H91:H100 H84:H85 H8:H80">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12694,7 +12692,7 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
+  <conditionalFormatting sqref="H83">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12708,7 +12706,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
+  <conditionalFormatting sqref="H81:H82">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12732,7 +12730,7 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 A94:B94 A96:B96 B95 E26 E69 E80 E94:H96 G26:H26 G69:H69 G80:H80 H46 G97:G100 H28 H37 H70 H72 H85 H83 H84" unlockedFormula="1"/>
+    <ignoredError sqref="H9 A94:B94 A96:B96 B95 E26 E69 E80 E94:H96 G26:H26 G69:H69 G80:H80 H46 G97:G100 H28 H37 H70 H72 H84 H85" unlockedFormula="1"/>
     <ignoredError sqref="A80 A69 A26" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
@@ -12781,7 +12779,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H91:H100 H83:H85 H8:H80</xm:sqref>
+          <xm:sqref>H91:H100 H84:H85 H8:H80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{81583CEC-7F5F-4E46-98E4-AC29FDBC59D0}">
@@ -12811,7 +12809,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H82</xm:sqref>
+          <xm:sqref>H83</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7442C97C-5EBD-4EE1-AFFB-9CBCA499BBD1}">
@@ -12826,7 +12824,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H81</xm:sqref>
+          <xm:sqref>H81:H82</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
